--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5579144</v>
+        <v>5573342</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>40</v>
       </c>
       <c r="K82">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>1.875</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5574442</v>
+        <v>5579144</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83">
+        <v>1.45</v>
+      </c>
+      <c r="L83">
+        <v>4.2</v>
+      </c>
+      <c r="M83">
+        <v>5.5</v>
+      </c>
+      <c r="N83">
+        <v>1.5</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>5.25</v>
+      </c>
+      <c r="Q83">
+        <v>-1</v>
+      </c>
+      <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
+        <v>1.95</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.8</v>
+      </c>
+      <c r="V83">
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
+        <v>0.95</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K83">
-        <v>1.125</v>
-      </c>
-      <c r="L83">
-        <v>7.5</v>
-      </c>
-      <c r="M83">
-        <v>15</v>
-      </c>
-      <c r="N83">
-        <v>1.2</v>
-      </c>
-      <c r="O83">
-        <v>6</v>
-      </c>
-      <c r="P83">
-        <v>11</v>
-      </c>
-      <c r="Q83">
-        <v>-2.25</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
-      </c>
-      <c r="S83">
-        <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>3.5</v>
-      </c>
-      <c r="U83">
-        <v>1.825</v>
-      </c>
-      <c r="V83">
-        <v>1.975</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>10</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>0.825</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7899,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5573343</v>
+        <v>5574442</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7911,76 +7911,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K84">
+        <v>1.125</v>
+      </c>
+      <c r="L84">
+        <v>7.5</v>
+      </c>
+      <c r="M84">
+        <v>15</v>
+      </c>
+      <c r="N84">
+        <v>1.2</v>
+      </c>
+      <c r="O84">
+        <v>6</v>
+      </c>
+      <c r="P84">
+        <v>11</v>
+      </c>
+      <c r="Q84">
+        <v>-2.25</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
         <v>3.5</v>
       </c>
-      <c r="L84">
-        <v>3.1</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3.3</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
-      <c r="P84">
-        <v>2.05</v>
-      </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>2</v>
-      </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
       <c r="U84">
+        <v>1.825</v>
+      </c>
+      <c r="V84">
         <v>1.975</v>
       </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5573342</v>
+        <v>5573343</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>40</v>
       </c>
       <c r="K85">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O85">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P85">
+        <v>2.05</v>
+      </c>
+      <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.75</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -18216,6 +18216,80 @@
       </c>
       <c r="AC199">
         <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7011602</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45339.47916666666</v>
+      </c>
+      <c r="F200" t="s">
+        <v>36</v>
+      </c>
+      <c r="G200" t="s">
+        <v>39</v>
+      </c>
+      <c r="K200">
+        <v>1.8</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>4.5</v>
+      </c>
+      <c r="N200">
+        <v>2.3</v>
+      </c>
+      <c r="O200">
+        <v>3.1</v>
+      </c>
+      <c r="P200">
+        <v>2.875</v>
+      </c>
+      <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
+        <v>1.775</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
+        <v>1.85</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5573342</v>
+        <v>5574442</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>2.6</v>
+        <v>1.125</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M82">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="O82">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7899,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5574442</v>
+        <v>5573343</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7911,76 +7911,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="O84">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>11</v>
+        <v>2.05</v>
       </c>
       <c r="Q84">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1.8</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
         <v>1.975</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.825</v>
       </c>
-      <c r="T84">
-        <v>3.5</v>
-      </c>
-      <c r="U84">
-        <v>1.825</v>
-      </c>
-      <c r="V84">
-        <v>1.975</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y84">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA84">
+        <v>-0.5</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.825</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5573343</v>
+        <v>5573342</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>40</v>
       </c>
       <c r="K85">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N85">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P85">
+        <v>2.5</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
         <v>2.05</v>
       </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -18223,7 +18223,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7011602</v>
+        <v>7011605</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18232,49 +18232,49 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45339.47916666666</v>
+        <v>45340.35416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K200">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L200">
+        <v>2.8</v>
+      </c>
+      <c r="M200">
         <v>3</v>
       </c>
-      <c r="M200">
-        <v>4.5</v>
-      </c>
       <c r="N200">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P200">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q200">
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S200">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18289,6 +18289,80 @@
         <v>0</v>
       </c>
       <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7011606</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>38</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+      <c r="K201">
+        <v>2.2</v>
+      </c>
+      <c r="L201">
+        <v>2.9</v>
+      </c>
+      <c r="M201">
+        <v>3.2</v>
+      </c>
+      <c r="N201">
+        <v>2.2</v>
+      </c>
+      <c r="O201">
+        <v>2.9</v>
+      </c>
+      <c r="P201">
+        <v>3.2</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.85</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
+        <v>1.8</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5574442</v>
+        <v>5579144</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82">
+        <v>1.45</v>
+      </c>
+      <c r="L82">
+        <v>4.2</v>
+      </c>
+      <c r="M82">
+        <v>5.5</v>
+      </c>
+      <c r="N82">
+        <v>1.5</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>5.25</v>
+      </c>
+      <c r="Q82">
+        <v>-1</v>
+      </c>
+      <c r="R82">
+        <v>1.85</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>3</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.95</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>1</v>
-      </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K82">
-        <v>1.125</v>
-      </c>
-      <c r="L82">
-        <v>7.5</v>
-      </c>
-      <c r="M82">
-        <v>15</v>
-      </c>
-      <c r="N82">
-        <v>1.2</v>
-      </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>11</v>
-      </c>
-      <c r="Q82">
-        <v>-2.25</v>
-      </c>
-      <c r="R82">
-        <v>1.975</v>
-      </c>
-      <c r="S82">
-        <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>3.5</v>
-      </c>
-      <c r="U82">
-        <v>1.825</v>
-      </c>
-      <c r="V82">
-        <v>1.975</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>10</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.825</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
-      <c r="AC82">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5579144</v>
+        <v>5574442</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>1.45</v>
+        <v>1.125</v>
       </c>
       <c r="L83">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="M83">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P83">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7899,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5573343</v>
+        <v>5573342</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7911,76 +7911,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>40</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N84">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P84">
+        <v>2.5</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
         <v>2.05</v>
       </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>2</v>
-      </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5573342</v>
+        <v>5573343</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>40</v>
       </c>
       <c r="K85">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O85">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P85">
+        <v>2.05</v>
+      </c>
+      <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.75</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -18223,7 +18223,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7011605</v>
+        <v>7011603</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18232,64 +18232,79 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45340.35416666666</v>
+        <v>45339.375</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>42</v>
       </c>
       <c r="K200">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L200">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N200">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O200">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB200">
+        <v>0.875</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18297,7 +18312,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7011606</v>
+        <v>7011602</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18306,64 +18321,257 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.47916666666</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>40</v>
       </c>
       <c r="K201">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L201">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M201">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
         <v>2.2</v>
       </c>
       <c r="O201">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
+        <v>1.9</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>2.1</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>-0.5</v>
+      </c>
+      <c r="AA201">
+        <v>0.4125</v>
+      </c>
+      <c r="AB201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7011605</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45340.35416666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>30</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>40</v>
+      </c>
+      <c r="K202">
+        <v>2.375</v>
+      </c>
+      <c r="L202">
+        <v>2.8</v>
+      </c>
+      <c r="M202">
+        <v>3</v>
+      </c>
+      <c r="N202">
+        <v>2.9</v>
+      </c>
+      <c r="O202">
+        <v>2.8</v>
+      </c>
+      <c r="P202">
+        <v>2.4</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.7</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.975</v>
+      </c>
+      <c r="V202">
+        <v>1.825</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>1.8</v>
       </c>
-      <c r="W201">
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
         <v>0</v>
       </c>
-      <c r="X201">
+      <c r="AA202">
+        <v>-0</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7011606</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>38</v>
+      </c>
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
         <v>0</v>
       </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
-      <c r="Z201">
-        <v>0</v>
-      </c>
-      <c r="AA201">
-        <v>0</v>
+      <c r="J203" t="s">
+        <v>42</v>
+      </c>
+      <c r="K203">
+        <v>2.2</v>
+      </c>
+      <c r="L203">
+        <v>2.9</v>
+      </c>
+      <c r="M203">
+        <v>3.2</v>
+      </c>
+      <c r="N203">
+        <v>2.1</v>
+      </c>
+      <c r="O203">
+        <v>2.75</v>
+      </c>
+      <c r="P203">
+        <v>3.75</v>
+      </c>
+      <c r="Q203">
+        <v>-0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
+        <v>1.75</v>
+      </c>
+      <c r="U203">
+        <v>1.8</v>
+      </c>
+      <c r="V203">
+        <v>2</v>
+      </c>
+      <c r="W203">
+        <v>1.1</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.825</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5579144</v>
+        <v>5574442</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.45</v>
+        <v>1.125</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="M82">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5574442</v>
+        <v>5573343</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="L83">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="O83">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>11</v>
+        <v>2.05</v>
       </c>
       <c r="Q83">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
         <v>1.975</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>1.825</v>
       </c>
-      <c r="T83">
-        <v>3.5</v>
-      </c>
-      <c r="U83">
-        <v>1.825</v>
-      </c>
-      <c r="V83">
-        <v>1.975</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y83">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA83">
+        <v>-0.5</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.825</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5573343</v>
+        <v>5579144</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,10 +8000,10 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8015,61 +8015,61 @@
         <v>40</v>
       </c>
       <c r="K85">
-        <v>3.5</v>
+        <v>1.45</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N85">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5574442</v>
+        <v>5579144</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82">
+        <v>1.45</v>
+      </c>
+      <c r="L82">
+        <v>4.2</v>
+      </c>
+      <c r="M82">
+        <v>5.5</v>
+      </c>
+      <c r="N82">
+        <v>1.5</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>5.25</v>
+      </c>
+      <c r="Q82">
+        <v>-1</v>
+      </c>
+      <c r="R82">
+        <v>1.85</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>3</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.95</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>1</v>
-      </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K82">
-        <v>1.125</v>
-      </c>
-      <c r="L82">
-        <v>7.5</v>
-      </c>
-      <c r="M82">
-        <v>15</v>
-      </c>
-      <c r="N82">
-        <v>1.2</v>
-      </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>11</v>
-      </c>
-      <c r="Q82">
-        <v>-2.25</v>
-      </c>
-      <c r="R82">
-        <v>1.975</v>
-      </c>
-      <c r="S82">
-        <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>3.5</v>
-      </c>
-      <c r="U82">
-        <v>1.825</v>
-      </c>
-      <c r="V82">
-        <v>1.975</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>10</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.825</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
-      <c r="AC82">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7899,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5573342</v>
+        <v>5574442</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7911,76 +7911,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>1.125</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="N84">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R84">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5579144</v>
+        <v>5573342</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>40</v>
       </c>
       <c r="K85">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>1.875</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8077,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5607916</v>
+        <v>5602065</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,76 +8089,76 @@
         <v>45073.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
-        <v>1.925</v>
-      </c>
-      <c r="V86">
-        <v>1.875</v>
-      </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y86">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8166,7 +8166,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5602065</v>
+        <v>5607916</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8178,76 +8178,76 @@
         <v>45073.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
+        <v>1.666</v>
+      </c>
+      <c r="N87">
+        <v>4.333</v>
+      </c>
+      <c r="O87">
         <v>3.6</v>
       </c>
-      <c r="N87">
-        <v>1.4</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5579144</v>
+        <v>5574442</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.45</v>
+        <v>1.125</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="M82">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7899,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5574442</v>
+        <v>5579144</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7911,76 +7911,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84">
+        <v>1.45</v>
+      </c>
+      <c r="L84">
+        <v>4.2</v>
+      </c>
+      <c r="M84">
+        <v>5.5</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>5.25</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.8</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.95</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>1</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>41</v>
-      </c>
-      <c r="K84">
-        <v>1.125</v>
-      </c>
-      <c r="L84">
-        <v>7.5</v>
-      </c>
-      <c r="M84">
-        <v>15</v>
-      </c>
-      <c r="N84">
-        <v>1.2</v>
-      </c>
-      <c r="O84">
-        <v>6</v>
-      </c>
-      <c r="P84">
-        <v>11</v>
-      </c>
-      <c r="Q84">
-        <v>-2.25</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
-      <c r="T84">
-        <v>3.5</v>
-      </c>
-      <c r="U84">
-        <v>1.825</v>
-      </c>
-      <c r="V84">
-        <v>1.975</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>10</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>0.825</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5574442</v>
+        <v>5579144</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82">
+        <v>1.45</v>
+      </c>
+      <c r="L82">
+        <v>4.2</v>
+      </c>
+      <c r="M82">
+        <v>5.5</v>
+      </c>
+      <c r="N82">
+        <v>1.5</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>5.25</v>
+      </c>
+      <c r="Q82">
+        <v>-1</v>
+      </c>
+      <c r="R82">
+        <v>1.85</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>3</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.95</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>1</v>
-      </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K82">
-        <v>1.125</v>
-      </c>
-      <c r="L82">
-        <v>7.5</v>
-      </c>
-      <c r="M82">
-        <v>15</v>
-      </c>
-      <c r="N82">
-        <v>1.2</v>
-      </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>11</v>
-      </c>
-      <c r="Q82">
-        <v>-2.25</v>
-      </c>
-      <c r="R82">
-        <v>1.975</v>
-      </c>
-      <c r="S82">
-        <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>3.5</v>
-      </c>
-      <c r="U82">
-        <v>1.825</v>
-      </c>
-      <c r="V82">
-        <v>1.975</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>10</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.825</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
-      <c r="AC82">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7899,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5579144</v>
+        <v>5574442</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7911,76 +7911,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>1.45</v>
+        <v>1.125</v>
       </c>
       <c r="L84">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="M84">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P84">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8077,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5602065</v>
+        <v>5607916</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,76 +8089,76 @@
         <v>45073.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
+        <v>1.666</v>
+      </c>
+      <c r="N86">
+        <v>4.333</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="N86">
-        <v>1.4</v>
-      </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
       <c r="P86">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8166,7 +8166,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5607916</v>
+        <v>5602065</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8178,76 +8178,76 @@
         <v>45073.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
+        <v>1.9</v>
+      </c>
+      <c r="S87">
+        <v>1.9</v>
+      </c>
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="S87">
-        <v>1.85</v>
-      </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.925</v>
-      </c>
-      <c r="V87">
-        <v>1.875</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y87">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -18572,6 +18572,80 @@
       </c>
       <c r="AC203">
         <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7011610</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45345.41666666666</v>
+      </c>
+      <c r="F204" t="s">
+        <v>29</v>
+      </c>
+      <c r="G204" t="s">
+        <v>37</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>3.4</v>
+      </c>
+      <c r="N204">
+        <v>2.4</v>
+      </c>
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>2.7</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>2.1</v>
+      </c>
+      <c r="S204">
+        <v>1.7</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.825</v>
+      </c>
+      <c r="V204">
+        <v>1.975</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5579144</v>
+        <v>5573342</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>40</v>
       </c>
       <c r="K82">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>1.875</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5573342</v>
+        <v>5579144</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>40</v>
       </c>
       <c r="K85">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="L85">
+        <v>4.2</v>
+      </c>
+      <c r="M85">
+        <v>5.5</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <v>5.25</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>3</v>
       </c>
-      <c r="M85">
-        <v>2.6</v>
-      </c>
-      <c r="N85">
-        <v>2.8</v>
-      </c>
-      <c r="O85">
-        <v>2.875</v>
-      </c>
-      <c r="P85">
-        <v>2.5</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.75</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>1.875</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -18596,6 +18596,15 @@
       <c r="G204" t="s">
         <v>37</v>
       </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>42</v>
+      </c>
       <c r="K204">
         <v>2</v>
       </c>
@@ -18606,22 +18615,22 @@
         <v>3.4</v>
       </c>
       <c r="N204">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
         <v>3.1</v>
       </c>
       <c r="P204">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
         <v>2.25</v>
@@ -18633,19 +18642,25 @@
         <v>1.975</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>0.825</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5573342</v>
+        <v>5573343</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>40</v>
       </c>
       <c r="K82">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M82">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O82">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P82">
+        <v>2.05</v>
+      </c>
+      <c r="Q82">
+        <v>0.25</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
         <v>2.5</v>
       </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>2.05</v>
-      </c>
-      <c r="S82">
-        <v>1.75</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5573343</v>
+        <v>5574442</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K83">
+        <v>1.125</v>
+      </c>
+      <c r="L83">
+        <v>7.5</v>
+      </c>
+      <c r="M83">
+        <v>15</v>
+      </c>
+      <c r="N83">
+        <v>1.2</v>
+      </c>
+      <c r="O83">
+        <v>6</v>
+      </c>
+      <c r="P83">
+        <v>11</v>
+      </c>
+      <c r="Q83">
+        <v>-2.25</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
         <v>3.5</v>
       </c>
-      <c r="L83">
-        <v>3.1</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>3.3</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
-      <c r="P83">
-        <v>2.05</v>
-      </c>
-      <c r="Q83">
-        <v>0.25</v>
-      </c>
-      <c r="R83">
-        <v>2</v>
-      </c>
-      <c r="S83">
-        <v>1.8</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
       <c r="U83">
+        <v>1.825</v>
+      </c>
+      <c r="V83">
         <v>1.975</v>
       </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7899,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5574442</v>
+        <v>5573342</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7911,76 +7911,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>1.125</v>
+        <v>2.6</v>
       </c>
       <c r="L84">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O84">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="P84">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T84">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y84">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -18661,6 +18661,80 @@
       </c>
       <c r="AC204">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7809824</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F205" t="s">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s">
+        <v>34</v>
+      </c>
+      <c r="K205">
+        <v>1.333</v>
+      </c>
+      <c r="L205">
+        <v>4.333</v>
+      </c>
+      <c r="M205">
+        <v>7.5</v>
+      </c>
+      <c r="N205">
+        <v>1.25</v>
+      </c>
+      <c r="O205">
+        <v>4.75</v>
+      </c>
+      <c r="P205">
+        <v>10</v>
+      </c>
+      <c r="Q205">
+        <v>-1.75</v>
+      </c>
+      <c r="R205">
+        <v>1.875</v>
+      </c>
+      <c r="S205">
+        <v>1.925</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>1.875</v>
+      </c>
+      <c r="V205">
+        <v>1.925</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5574442</v>
+        <v>5579144</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83">
+        <v>1.45</v>
+      </c>
+      <c r="L83">
+        <v>4.2</v>
+      </c>
+      <c r="M83">
+        <v>5.5</v>
+      </c>
+      <c r="N83">
+        <v>1.5</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>5.25</v>
+      </c>
+      <c r="Q83">
+        <v>-1</v>
+      </c>
+      <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
+        <v>1.95</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.8</v>
+      </c>
+      <c r="V83">
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
+        <v>0.95</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K83">
-        <v>1.125</v>
-      </c>
-      <c r="L83">
-        <v>7.5</v>
-      </c>
-      <c r="M83">
-        <v>15</v>
-      </c>
-      <c r="N83">
-        <v>1.2</v>
-      </c>
-      <c r="O83">
-        <v>6</v>
-      </c>
-      <c r="P83">
-        <v>11</v>
-      </c>
-      <c r="Q83">
-        <v>-2.25</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
-      </c>
-      <c r="S83">
-        <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>3.5</v>
-      </c>
-      <c r="U83">
-        <v>1.825</v>
-      </c>
-      <c r="V83">
-        <v>1.975</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>10</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>0.825</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5579144</v>
+        <v>5574442</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45068.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>1.45</v>
+        <v>1.125</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="M85">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8077,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5607916</v>
+        <v>5602065</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,76 +8089,76 @@
         <v>45073.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
-        <v>1.925</v>
-      </c>
-      <c r="V86">
-        <v>1.875</v>
-      </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y86">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8166,7 +8166,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5602065</v>
+        <v>5607916</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8178,76 +8178,76 @@
         <v>45073.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
+        <v>1.666</v>
+      </c>
+      <c r="N87">
+        <v>4.333</v>
+      </c>
+      <c r="O87">
         <v>3.6</v>
       </c>
-      <c r="N87">
-        <v>1.4</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -18668,72 +18668,250 @@
         <v>203</v>
       </c>
       <c r="B205">
+        <v>7011608</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45346.33333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>30</v>
+      </c>
+      <c r="G205" t="s">
+        <v>38</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>40</v>
+      </c>
+      <c r="K205">
+        <v>3.4</v>
+      </c>
+      <c r="L205">
+        <v>3.4</v>
+      </c>
+      <c r="M205">
+        <v>1.909</v>
+      </c>
+      <c r="N205">
+        <v>2.9</v>
+      </c>
+      <c r="O205">
+        <v>3.3</v>
+      </c>
+      <c r="P205">
+        <v>2.25</v>
+      </c>
+      <c r="Q205">
+        <v>0.25</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>1.975</v>
+      </c>
+      <c r="V205">
+        <v>1.825</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>2.3</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.4</v>
+      </c>
+      <c r="AA205">
+        <v>-0.5</v>
+      </c>
+      <c r="AB205">
+        <v>-0.5</v>
+      </c>
+      <c r="AC205">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7011611</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F206" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206" t="s">
+        <v>33</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>42</v>
+      </c>
+      <c r="K206">
+        <v>2.75</v>
+      </c>
+      <c r="L206">
+        <v>3.2</v>
+      </c>
+      <c r="M206">
+        <v>2.3</v>
+      </c>
+      <c r="N206">
+        <v>3.3</v>
+      </c>
+      <c r="O206">
+        <v>3.2</v>
+      </c>
+      <c r="P206">
+        <v>2</v>
+      </c>
+      <c r="Q206">
+        <v>0.25</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.775</v>
+      </c>
+      <c r="W206">
+        <v>2.3</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>1</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
         <v>7809824</v>
       </c>
-      <c r="C205" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="2">
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
         <v>45347.5</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F207" t="s">
         <v>35</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G207" t="s">
         <v>34</v>
       </c>
-      <c r="K205">
+      <c r="K207">
         <v>1.333</v>
       </c>
-      <c r="L205">
+      <c r="L207">
         <v>4.333</v>
       </c>
-      <c r="M205">
+      <c r="M207">
         <v>7.5</v>
       </c>
-      <c r="N205">
+      <c r="N207">
         <v>1.25</v>
       </c>
-      <c r="O205">
+      <c r="O207">
         <v>4.75</v>
       </c>
-      <c r="P205">
+      <c r="P207">
         <v>10</v>
       </c>
-      <c r="Q205">
+      <c r="Q207">
         <v>-1.75</v>
       </c>
-      <c r="R205">
+      <c r="R207">
         <v>1.875</v>
       </c>
-      <c r="S205">
+      <c r="S207">
         <v>1.925</v>
       </c>
-      <c r="T205">
+      <c r="T207">
         <v>3</v>
       </c>
-      <c r="U205">
+      <c r="U207">
         <v>1.875</v>
       </c>
-      <c r="V205">
+      <c r="V207">
         <v>1.925</v>
       </c>
-      <c r="W205">
+      <c r="W207">
         <v>0</v>
       </c>
-      <c r="X205">
+      <c r="X207">
         <v>0</v>
       </c>
-      <c r="Y205">
+      <c r="Y207">
         <v>0</v>
       </c>
-      <c r="Z205">
+      <c r="Z207">
         <v>0</v>
       </c>
-      <c r="AA205">
+      <c r="AA207">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11095,6 +11095,95 @@
         <v>1</v>
       </c>
     </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7810273</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45350.5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120" t="s">
+        <v>39</v>
+      </c>
+      <c r="K120">
+        <v>9</v>
+      </c>
+      <c r="L120">
+        <v>5</v>
+      </c>
+      <c r="M120">
+        <v>1.25</v>
+      </c>
+      <c r="N120">
+        <v>8</v>
+      </c>
+      <c r="O120">
+        <v>5.25</v>
+      </c>
+      <c r="P120">
+        <v>1.285</v>
+      </c>
+      <c r="Q120">
+        <v>1.75</v>
+      </c>
+      <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
+        <v>1.975</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
+        <v>1.825</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB120">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC120">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11184,6 +11184,169 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7898044</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45352.5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" t="s">
+        <v>32</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121" t="s">
+        <v>39</v>
+      </c>
+      <c r="K121">
+        <v>1.727</v>
+      </c>
+      <c r="L121">
+        <v>3.2</v>
+      </c>
+      <c r="M121">
+        <v>4.5</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
+        <v>3</v>
+      </c>
+      <c r="P121">
+        <v>3.4</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.775</v>
+      </c>
+      <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
+        <v>1.875</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>2.4</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>1.025</v>
+      </c>
+      <c r="AB121">
+        <v>0.925</v>
+      </c>
+      <c r="AC121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7011616</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="K122">
+        <v>2.2</v>
+      </c>
+      <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>2.25</v>
+      </c>
+      <c r="O122">
+        <v>2.875</v>
+      </c>
+      <c r="P122">
+        <v>3.1</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2.025</v>
+      </c>
+      <c r="S122">
+        <v>1.775</v>
+      </c>
+      <c r="T122">
+        <v>1.75</v>
+      </c>
+      <c r="U122">
+        <v>1.775</v>
+      </c>
+      <c r="V122">
+        <v>2.025</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11295,6 +11295,15 @@
       <c r="G122" t="s">
         <v>37</v>
       </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>41</v>
+      </c>
       <c r="K122">
         <v>2.2</v>
       </c>
@@ -11326,24 +11335,193 @@
         <v>1.75</v>
       </c>
       <c r="U122">
+        <v>1.8</v>
+      </c>
+      <c r="V122">
+        <v>2</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>1.875</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>-0.5</v>
+      </c>
+      <c r="AA122">
+        <v>0.3875</v>
+      </c>
+      <c r="AB122">
+        <v>0.4</v>
+      </c>
+      <c r="AC122">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7011612</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45353.47916666666</v>
+      </c>
+      <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>40</v>
+      </c>
+      <c r="K123">
+        <v>1.85</v>
+      </c>
+      <c r="L123">
+        <v>3.3</v>
+      </c>
+      <c r="M123">
+        <v>3.75</v>
+      </c>
+      <c r="N123">
+        <v>1.85</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3.75</v>
+      </c>
+      <c r="Q123">
+        <v>-0.5</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2.025</v>
+      </c>
+      <c r="V123">
         <v>1.775</v>
       </c>
-      <c r="V122">
+      <c r="W123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-0.5</v>
+      </c>
+      <c r="AC123">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7011613</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45354.375</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124">
+        <v>3.6</v>
+      </c>
+      <c r="L124">
+        <v>3.4</v>
+      </c>
+      <c r="M124">
+        <v>1.833</v>
+      </c>
+      <c r="N124">
+        <v>2.75</v>
+      </c>
+      <c r="O124">
+        <v>3.2</v>
+      </c>
+      <c r="P124">
+        <v>2.3</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.75</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
         <v>2.025</v>
       </c>
-      <c r="W122">
+      <c r="V124">
+        <v>1.775</v>
+      </c>
+      <c r="W124">
         <v>0</v>
       </c>
-      <c r="X122">
+      <c r="X124">
         <v>0</v>
       </c>
-      <c r="Y122">
+      <c r="Y124">
         <v>0</v>
       </c>
-      <c r="Z122">
+      <c r="Z124">
         <v>0</v>
       </c>
-      <c r="AA122">
+      <c r="AA124">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11473,6 +11473,15 @@
       <c r="G124" t="s">
         <v>30</v>
       </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="s">
+        <v>39</v>
+      </c>
       <c r="K124">
         <v>3.6</v>
       </c>
@@ -11483,45 +11492,214 @@
         <v>1.833</v>
       </c>
       <c r="N124">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q124">
         <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
+        <v>1.75</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.8</v>
+      </c>
+      <c r="AB124">
+        <v>0.95</v>
+      </c>
+      <c r="AC124">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7011615</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45354.5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125" t="s">
+        <v>39</v>
+      </c>
+      <c r="K125">
+        <v>4.75</v>
+      </c>
+      <c r="L125">
+        <v>3.8</v>
+      </c>
+      <c r="M125">
+        <v>1.571</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>1.7</v>
+      </c>
+      <c r="Q125">
+        <v>0.75</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
+        <v>1.975</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.7</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.925</v>
+      </c>
+      <c r="AB125">
+        <v>0.825</v>
+      </c>
+      <c r="AC125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7011620</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45359.5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s">
+        <v>38</v>
+      </c>
+      <c r="K126">
+        <v>2.2</v>
+      </c>
+      <c r="L126">
+        <v>3.25</v>
+      </c>
+      <c r="M126">
+        <v>2.8</v>
+      </c>
+      <c r="N126">
+        <v>2.3</v>
+      </c>
+      <c r="O126">
+        <v>3.25</v>
+      </c>
+      <c r="P126">
+        <v>2.625</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.775</v>
+      </c>
+      <c r="S126">
         <v>2.025</v>
       </c>
-      <c r="V124">
-        <v>1.775</v>
-      </c>
-      <c r="W124">
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
+        <v>1.825</v>
+      </c>
+      <c r="W126">
         <v>0</v>
       </c>
-      <c r="X124">
+      <c r="X126">
         <v>0</v>
       </c>
-      <c r="Y124">
+      <c r="Y126">
         <v>0</v>
       </c>
-      <c r="Z124">
+      <c r="Z126">
         <v>0</v>
       </c>
-      <c r="AA124">
+      <c r="AA126">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11651,6 +11651,15 @@
       <c r="G126" t="s">
         <v>38</v>
       </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>39</v>
+      </c>
       <c r="K126">
         <v>2.2</v>
       </c>
@@ -11661,45 +11670,199 @@
         <v>2.8</v>
       </c>
       <c r="N126">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
         <v>2.25</v>
       </c>
       <c r="U126">
+        <v>1.85</v>
+      </c>
+      <c r="V126">
+        <v>1.95</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>2</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7011617</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45361.35416666666</v>
+      </c>
+      <c r="F127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127">
+        <v>2.3</v>
+      </c>
+      <c r="L127">
+        <v>3.1</v>
+      </c>
+      <c r="M127">
+        <v>2.8</v>
+      </c>
+      <c r="N127">
+        <v>2.25</v>
+      </c>
+      <c r="O127">
+        <v>3.1</v>
+      </c>
+      <c r="P127">
+        <v>2.875</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>2.025</v>
+      </c>
+      <c r="S127">
+        <v>1.775</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
+        <v>1.85</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7011618</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="K128">
+        <v>1.4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>7</v>
+      </c>
+      <c r="N128">
+        <v>1.45</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>6</v>
+      </c>
+      <c r="Q128">
+        <v>-1</v>
+      </c>
+      <c r="R128">
+        <v>1.775</v>
+      </c>
+      <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
         <v>1.975</v>
       </c>
-      <c r="V126">
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="W126">
+      <c r="W128">
         <v>0</v>
       </c>
-      <c r="X126">
+      <c r="X128">
         <v>0</v>
       </c>
-      <c r="Y126">
+      <c r="Y128">
         <v>0</v>
       </c>
-      <c r="Z126">
+      <c r="Z128">
         <v>0</v>
       </c>
-      <c r="AA126">
+      <c r="AA128">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7011617</v>
+        <v>7011619</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11732,64 +11732,79 @@
         <v>28</v>
       </c>
       <c r="E127" s="2">
-        <v>45361.35416666666</v>
+        <v>45360.33333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127" t="s">
+        <v>41</v>
       </c>
       <c r="K127">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.8</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11797,7 +11812,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7011618</v>
+        <v>7011621</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11806,64 +11821,257 @@
         <v>28</v>
       </c>
       <c r="E128" s="2">
-        <v>45361.45833333334</v>
+        <v>45360.4375</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>40</v>
       </c>
       <c r="K128">
         <v>1.4</v>
       </c>
       <c r="L128">
+        <v>4.333</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128">
+        <v>1.533</v>
+      </c>
+      <c r="O128">
         <v>4</v>
       </c>
-      <c r="M128">
-        <v>7</v>
-      </c>
-      <c r="N128">
-        <v>1.45</v>
-      </c>
-      <c r="O128">
-        <v>3.8</v>
-      </c>
       <c r="P128">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
         <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>0</v>
       </c>
       <c r="AA128">
+        <v>-0</v>
+      </c>
+      <c r="AB128">
+        <v>0.825</v>
+      </c>
+      <c r="AC128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7011617</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45361.35416666666</v>
+      </c>
+      <c r="F129" t="s">
+        <v>37</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
         <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K129">
+        <v>2.3</v>
+      </c>
+      <c r="L129">
+        <v>3.1</v>
+      </c>
+      <c r="M129">
+        <v>2.8</v>
+      </c>
+      <c r="N129">
+        <v>2.05</v>
+      </c>
+      <c r="O129">
+        <v>3.25</v>
+      </c>
+      <c r="P129">
+        <v>3.2</v>
+      </c>
+      <c r="Q129">
+        <v>-0.25</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>1.05</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0.825</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-0.5</v>
+      </c>
+      <c r="AC129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7011618</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>40</v>
+      </c>
+      <c r="K130">
+        <v>1.4</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>7</v>
+      </c>
+      <c r="N130">
+        <v>1.55</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
+        <v>5.25</v>
+      </c>
+      <c r="Q130">
+        <v>-1</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.85</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
+        <v>1.8</v>
+      </c>
+      <c r="W130">
+        <v>0.55</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.95</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>1</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12074,6 +12074,347 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7011624</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45366.5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>40</v>
+      </c>
+      <c r="K131">
+        <v>2.1</v>
+      </c>
+      <c r="L131">
+        <v>3.1</v>
+      </c>
+      <c r="M131">
+        <v>3.2</v>
+      </c>
+      <c r="N131">
+        <v>1.85</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>3.5</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.775</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.95</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7011625</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F132" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>40</v>
+      </c>
+      <c r="K132">
+        <v>1.85</v>
+      </c>
+      <c r="L132">
+        <v>3.1</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
+        <v>1.727</v>
+      </c>
+      <c r="O132">
+        <v>3.2</v>
+      </c>
+      <c r="P132">
+        <v>4.75</v>
+      </c>
+      <c r="Q132">
+        <v>-0.75</v>
+      </c>
+      <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
+        <v>1.825</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.975</v>
+      </c>
+      <c r="V132">
+        <v>1.725</v>
+      </c>
+      <c r="W132">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>0.4875</v>
+      </c>
+      <c r="AA132">
+        <v>-0.5</v>
+      </c>
+      <c r="AB132">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7011622</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>41</v>
+      </c>
+      <c r="K133">
+        <v>1.85</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>3.8</v>
+      </c>
+      <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
+        <v>3.1</v>
+      </c>
+      <c r="P133">
+        <v>3.6</v>
+      </c>
+      <c r="Q133">
+        <v>-0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
+        <v>1.725</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>0.825</v>
+      </c>
+      <c r="AB133">
+        <v>-0.5</v>
+      </c>
+      <c r="AC133">
+        <v>0.3625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7011623</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45368.5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" t="s">
+        <v>33</v>
+      </c>
+      <c r="K134">
+        <v>2.9</v>
+      </c>
+      <c r="L134">
+        <v>3.75</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>2.75</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
+        <v>2.15</v>
+      </c>
+      <c r="Q134">
+        <v>0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
+        <v>1.825</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12346,73 +12346,177 @@
         <v>132</v>
       </c>
       <c r="B134">
+        <v>7011626</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45368.375</v>
+      </c>
+      <c r="F134" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134">
+        <v>4.333</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>1.571</v>
+      </c>
+      <c r="N134">
+        <v>4.5</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>1.55</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <v>1.8</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>1.875</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>0.55</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>1</v>
+      </c>
+      <c r="AB134">
+        <v>0.875</v>
+      </c>
+      <c r="AC134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
         <v>7011623</v>
       </c>
-      <c r="C134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" t="s">
-        <v>28</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
         <v>45368.5</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>38</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G135" t="s">
         <v>33</v>
       </c>
-      <c r="K134">
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>39</v>
+      </c>
+      <c r="K135">
         <v>2.9</v>
       </c>
-      <c r="L134">
+      <c r="L135">
         <v>3.75</v>
       </c>
-      <c r="M134">
-        <v>2</v>
-      </c>
-      <c r="N134">
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
         <v>2.75</v>
       </c>
-      <c r="O134">
+      <c r="O135">
         <v>3.5</v>
       </c>
-      <c r="P134">
+      <c r="P135">
         <v>2.15</v>
       </c>
-      <c r="Q134">
+      <c r="Q135">
         <v>0.25</v>
       </c>
-      <c r="R134">
-        <v>1.825</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
+      <c r="R135">
+        <v>1.85</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
         <v>2.25</v>
       </c>
-      <c r="U134">
-        <v>1.975</v>
-      </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
-      </c>
-      <c r="Y134">
-        <v>0</v>
-      </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
-      <c r="AA134">
-        <v>0</v>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>1.85</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>1.15</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.95</v>
+      </c>
+      <c r="AB135">
+        <v>0.95</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12519,6 +12519,154 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7011630</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45381.39583333334</v>
+      </c>
+      <c r="F136" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="K136">
+        <v>2.3</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>2.75</v>
+      </c>
+      <c r="N136">
+        <v>2.3</v>
+      </c>
+      <c r="O136">
+        <v>3.2</v>
+      </c>
+      <c r="P136">
+        <v>2.75</v>
+      </c>
+      <c r="Q136">
+        <v>-0.25</v>
+      </c>
+      <c r="R136">
+        <v>2.05</v>
+      </c>
+      <c r="S136">
+        <v>1.75</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
+        <v>1.925</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7011629</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
+        <v>34</v>
+      </c>
+      <c r="K137">
+        <v>2.1</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>3.1</v>
+      </c>
+      <c r="N137">
+        <v>2.15</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
+        <v>3.1</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
+        <v>1.875</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12524,7 +12524,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7011630</v>
+        <v>7011627</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12533,49 +12533,49 @@
         <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>45381.39583333334</v>
+        <v>45382.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12590,80 +12590,6 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>7011629</v>
-      </c>
-      <c r="C137" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
-      <c r="K137">
-        <v>2.1</v>
-      </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
-        <v>3.1</v>
-      </c>
-      <c r="N137">
-        <v>2.15</v>
-      </c>
-      <c r="O137">
-        <v>3.2</v>
-      </c>
-      <c r="P137">
-        <v>3.1</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>1.9</v>
-      </c>
-      <c r="S137">
-        <v>1.9</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.925</v>
-      </c>
-      <c r="V137">
-        <v>1.875</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12524,7 +12524,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7011627</v>
+        <v>7011628</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12533,64 +12533,346 @@
         <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>45382.45833333334</v>
+        <v>45380.39583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>39</v>
       </c>
       <c r="K136">
+        <v>3.5</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>1.727</v>
+      </c>
+      <c r="N136">
+        <v>2.9</v>
+      </c>
+      <c r="O136">
+        <v>3.75</v>
+      </c>
+      <c r="P136">
         <v>1.95</v>
       </c>
-      <c r="L136">
-        <v>3.3</v>
-      </c>
-      <c r="M136">
-        <v>3.4</v>
-      </c>
-      <c r="N136">
+      <c r="Q136">
+        <v>0.5</v>
+      </c>
+      <c r="R136">
+        <v>1.75</v>
+      </c>
+      <c r="S136">
         <v>1.95</v>
       </c>
-      <c r="O136">
-        <v>3.3</v>
-      </c>
-      <c r="P136">
-        <v>3.3</v>
-      </c>
-      <c r="Q136">
-        <v>-0.5</v>
-      </c>
-      <c r="R136">
-        <v>2.025</v>
-      </c>
-      <c r="S136">
-        <v>1.775</v>
-      </c>
       <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
+        <v>1.85</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>0.95</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.95</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7011631</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45380.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>6</v>
+      </c>
+      <c r="J137" t="s">
+        <v>39</v>
+      </c>
+      <c r="K137">
+        <v>6</v>
+      </c>
+      <c r="L137">
+        <v>5.5</v>
+      </c>
+      <c r="M137">
+        <v>1.3</v>
+      </c>
+      <c r="N137">
+        <v>7</v>
+      </c>
+      <c r="O137">
+        <v>7</v>
+      </c>
+      <c r="P137">
+        <v>1.25</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
+        <v>3.5</v>
+      </c>
+      <c r="U137">
+        <v>1.85</v>
+      </c>
+      <c r="V137">
+        <v>1.95</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>0.25</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.95</v>
+      </c>
+      <c r="AB137">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7011630</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45381.39583333334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>37</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138">
+        <v>2.3</v>
+      </c>
+      <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2.75</v>
+      </c>
+      <c r="N138">
+        <v>2.5</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
+        <v>2.5</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>2.25</v>
       </c>
-      <c r="U136">
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>-0</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7011629</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>39</v>
+      </c>
+      <c r="K139">
+        <v>2.1</v>
+      </c>
+      <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>3.1</v>
+      </c>
+      <c r="N139">
+        <v>2.05</v>
+      </c>
+      <c r="O139">
+        <v>3</v>
+      </c>
+      <c r="P139">
+        <v>3.5</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
         <v>1.9</v>
       </c>
-      <c r="V136">
+      <c r="V139">
         <v>1.9</v>
       </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
-      </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AA136">
-        <v>0</v>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>2.5</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>0.95</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12875,6 +12875,95 @@
         <v>0.8999999999999999</v>
       </c>
     </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7011627</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45382.45833333334</v>
+      </c>
+      <c r="F140" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>40</v>
+      </c>
+      <c r="K140">
+        <v>1.95</v>
+      </c>
+      <c r="L140">
+        <v>3.3</v>
+      </c>
+      <c r="M140">
+        <v>3.4</v>
+      </c>
+      <c r="N140">
+        <v>2.05</v>
+      </c>
+      <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
+        <v>3.3</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
+        <v>1.975</v>
+      </c>
+      <c r="W140">
+        <v>1.05</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12964,6 +12964,95 @@
         <v>0.9750000000000001</v>
       </c>
     </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7011632</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45387.54166666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>39</v>
+      </c>
+      <c r="K141">
+        <v>2.1</v>
+      </c>
+      <c r="L141">
+        <v>3.1</v>
+      </c>
+      <c r="M141">
+        <v>3.2</v>
+      </c>
+      <c r="N141">
+        <v>2.1</v>
+      </c>
+      <c r="O141">
+        <v>3.1</v>
+      </c>
+      <c r="P141">
+        <v>3.2</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>2.2</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.95</v>
+      </c>
+      <c r="AB141">
+        <v>0.8</v>
+      </c>
+      <c r="AC141">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13053,6 +13053,362 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7011634</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45388.375</v>
+      </c>
+      <c r="F142" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>40</v>
+      </c>
+      <c r="K142">
+        <v>2.55</v>
+      </c>
+      <c r="L142">
+        <v>3.25</v>
+      </c>
+      <c r="M142">
+        <v>2.4</v>
+      </c>
+      <c r="N142">
+        <v>2.625</v>
+      </c>
+      <c r="O142">
+        <v>3.2</v>
+      </c>
+      <c r="P142">
+        <v>2.375</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
+        <v>2</v>
+      </c>
+      <c r="W142">
+        <v>1.625</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>1</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
+        <v>-0.5</v>
+      </c>
+      <c r="AC142">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7011633</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143" t="s">
+        <v>40</v>
+      </c>
+      <c r="K143">
+        <v>1.222</v>
+      </c>
+      <c r="L143">
+        <v>5.5</v>
+      </c>
+      <c r="M143">
+        <v>8.5</v>
+      </c>
+      <c r="N143">
+        <v>1.181</v>
+      </c>
+      <c r="O143">
+        <v>7</v>
+      </c>
+      <c r="P143">
+        <v>9</v>
+      </c>
+      <c r="Q143">
+        <v>-2.25</v>
+      </c>
+      <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
+        <v>1.85</v>
+      </c>
+      <c r="T143">
+        <v>3.75</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
+        <v>1.825</v>
+      </c>
+      <c r="W143">
+        <v>0.181</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>-0.5</v>
+      </c>
+      <c r="AA143">
+        <v>0.425</v>
+      </c>
+      <c r="AB143">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7011635</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45389.39583333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>40</v>
+      </c>
+      <c r="K144">
+        <v>1.4</v>
+      </c>
+      <c r="L144">
+        <v>4.333</v>
+      </c>
+      <c r="M144">
+        <v>6</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>3.75</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.75</v>
+      </c>
+      <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>1.9</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.75</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7011636</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45389.54166666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
+        <v>38</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>41</v>
+      </c>
+      <c r="K145">
+        <v>1.727</v>
+      </c>
+      <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
+        <v>4</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>1.95</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>1.8</v>
+      </c>
+      <c r="V145">
+        <v>2</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.6</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.95</v>
+      </c>
+      <c r="AB145">
+        <v>-0.5</v>
+      </c>
+      <c r="AC145">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13409,6 +13409,169 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7011638</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45394.5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>41</v>
+      </c>
+      <c r="K146">
+        <v>2.9</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>2.3</v>
+      </c>
+      <c r="N146">
+        <v>2.875</v>
+      </c>
+      <c r="O146">
+        <v>2.8</v>
+      </c>
+      <c r="P146">
+        <v>2.45</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>2.05</v>
+      </c>
+      <c r="S146">
+        <v>1.75</v>
+      </c>
+      <c r="T146">
+        <v>1.75</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>1.8</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>-0</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7011640</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45396.39583333334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>32</v>
+      </c>
+      <c r="K147">
+        <v>1.727</v>
+      </c>
+      <c r="L147">
+        <v>3.25</v>
+      </c>
+      <c r="M147">
+        <v>4.333</v>
+      </c>
+      <c r="N147">
+        <v>1.95</v>
+      </c>
+      <c r="O147">
+        <v>3.1</v>
+      </c>
+      <c r="P147">
+        <v>3.6</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
+        <v>1.975</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13503,7 +13503,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7011640</v>
+        <v>7011639</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13512,64 +13512,168 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45396.39583333334</v>
+        <v>45395.39583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>39</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L147">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N147">
+        <v>2.8</v>
+      </c>
+      <c r="O147">
+        <v>3.4</v>
+      </c>
+      <c r="P147">
+        <v>2.15</v>
+      </c>
+      <c r="Q147">
+        <v>0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.85</v>
+      </c>
+      <c r="S147">
         <v>1.95</v>
       </c>
-      <c r="O147">
-        <v>3.1</v>
-      </c>
-      <c r="P147">
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>1.75</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>1.15</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.95</v>
+      </c>
+      <c r="AB147">
+        <v>0.75</v>
+      </c>
+      <c r="AC147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7011637</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45395.5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>35</v>
+      </c>
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>40</v>
+      </c>
+      <c r="K148">
+        <v>1.833</v>
+      </c>
+      <c r="L148">
+        <v>3.4</v>
+      </c>
+      <c r="M148">
         <v>3.6</v>
       </c>
-      <c r="Q147">
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
+        <v>3.4</v>
+      </c>
+      <c r="P148">
+        <v>3.8</v>
+      </c>
+      <c r="Q148">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.975</v>
-      </c>
-      <c r="S147">
-        <v>1.825</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>1.975</v>
-      </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
-      </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
-        <v>0</v>
+      <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.8</v>
+      </c>
+      <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
+        <v>0.8</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.8</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.8</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13676,6 +13676,184 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7011640</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45396.39583333334</v>
+      </c>
+      <c r="F149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>32</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>41</v>
+      </c>
+      <c r="K149">
+        <v>1.727</v>
+      </c>
+      <c r="L149">
+        <v>3.25</v>
+      </c>
+      <c r="M149">
+        <v>4.333</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.8</v>
+      </c>
+      <c r="P149">
+        <v>3.8</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.775</v>
+      </c>
+      <c r="V149">
+        <v>1.925</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>2.8</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>0.875</v>
+      </c>
+      <c r="AB149">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7012356</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>40</v>
+      </c>
+      <c r="K150">
+        <v>2.625</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>2.1</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150">
+        <v>1.615</v>
+      </c>
+      <c r="Q150">
+        <v>0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.975</v>
+      </c>
+      <c r="S150">
+        <v>1.825</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>3</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC150">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13854,6 +13854,80 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7020806</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>30</v>
+      </c>
+      <c r="K151">
+        <v>2.5</v>
+      </c>
+      <c r="L151">
+        <v>3.2</v>
+      </c>
+      <c r="M151">
+        <v>2.5</v>
+      </c>
+      <c r="N151">
+        <v>2.05</v>
+      </c>
+      <c r="O151">
+        <v>3.25</v>
+      </c>
+      <c r="P151">
+        <v>3.1</v>
+      </c>
+      <c r="Q151">
+        <v>-0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.85</v>
+      </c>
+      <c r="S151">
+        <v>1.95</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>1.9</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13859,7 +13859,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7020806</v>
+        <v>7020807</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13868,63 +13868,152 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45403.5</v>
+        <v>45401.39583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151" t="s">
+        <v>39</v>
       </c>
       <c r="K151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N151">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P151">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q151">
         <v>-0.25</v>
       </c>
       <c r="R151">
+        <v>1.775</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>2.4</v>
+      </c>
+      <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>1.025</v>
+      </c>
+      <c r="AB151">
+        <v>1.025</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7020806</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152">
+        <v>2.5</v>
+      </c>
+      <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>2.5</v>
+      </c>
+      <c r="N152">
+        <v>2.05</v>
+      </c>
+      <c r="O152">
+        <v>3.25</v>
+      </c>
+      <c r="P152">
+        <v>3.1</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
         <v>1.85</v>
       </c>
-      <c r="S151">
+      <c r="S152">
         <v>1.95</v>
       </c>
-      <c r="T151">
+      <c r="T152">
         <v>2.5</v>
       </c>
-      <c r="U151">
+      <c r="U152">
         <v>1.9</v>
       </c>
-      <c r="V151">
+      <c r="V152">
         <v>1.9</v>
       </c>
-      <c r="W151">
+      <c r="W152">
         <v>0</v>
       </c>
-      <c r="X151">
+      <c r="X152">
         <v>0</v>
       </c>
-      <c r="Y151">
+      <c r="Y152">
         <v>0</v>
       </c>
-      <c r="Z151">
+      <c r="Z152">
         <v>0</v>
       </c>
-      <c r="AA151">
+      <c r="AA152">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -13975,31 +13975,31 @@
         <v>2.5</v>
       </c>
       <c r="N152">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O152">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
         <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
         <v>0</v>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13948,72 +13948,339 @@
         <v>150</v>
       </c>
       <c r="B152">
+        <v>7029131</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45402.39583333334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>41</v>
+      </c>
+      <c r="K152">
+        <v>1.166</v>
+      </c>
+      <c r="L152">
+        <v>7</v>
+      </c>
+      <c r="M152">
+        <v>9</v>
+      </c>
+      <c r="N152">
+        <v>1.2</v>
+      </c>
+      <c r="O152">
+        <v>6</v>
+      </c>
+      <c r="P152">
+        <v>11</v>
+      </c>
+      <c r="Q152">
+        <v>-2</v>
+      </c>
+      <c r="R152">
+        <v>1.825</v>
+      </c>
+      <c r="S152">
+        <v>1.975</v>
+      </c>
+      <c r="T152">
+        <v>3.25</v>
+      </c>
+      <c r="U152">
+        <v>1.825</v>
+      </c>
+      <c r="V152">
+        <v>1.975</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>5</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB152">
+        <v>0.825</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7025505</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45402.5</v>
+      </c>
+      <c r="F153" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>40</v>
+      </c>
+      <c r="K153">
+        <v>2.1</v>
+      </c>
+      <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>2.25</v>
+      </c>
+      <c r="O153">
+        <v>3</v>
+      </c>
+      <c r="P153">
+        <v>3</v>
+      </c>
+      <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>1.8</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>1.725</v>
+      </c>
+      <c r="V153">
+        <v>1.975</v>
+      </c>
+      <c r="W153">
+        <v>1.25</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>1</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AC153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7027687</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45403.39583333334</v>
+      </c>
+      <c r="F154" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154">
+        <v>2.75</v>
+      </c>
+      <c r="L154">
+        <v>3.25</v>
+      </c>
+      <c r="M154">
+        <v>2.25</v>
+      </c>
+      <c r="N154">
+        <v>3.75</v>
+      </c>
+      <c r="O154">
+        <v>3.6</v>
+      </c>
+      <c r="P154">
+        <v>1.75</v>
+      </c>
+      <c r="Q154">
+        <v>0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.75</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.8</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>0.75</v>
+      </c>
+      <c r="Z154">
+        <v>-0.5</v>
+      </c>
+      <c r="AA154">
+        <v>0.475</v>
+      </c>
+      <c r="AB154">
+        <v>0.4</v>
+      </c>
+      <c r="AC154">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
         <v>7020806</v>
       </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="2">
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
         <v>45403.5</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F155" t="s">
         <v>29</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G155" t="s">
         <v>30</v>
       </c>
-      <c r="K152">
+      <c r="K155">
         <v>2.5</v>
       </c>
-      <c r="L152">
+      <c r="L155">
         <v>3.2</v>
       </c>
-      <c r="M152">
+      <c r="M155">
         <v>2.5</v>
       </c>
-      <c r="N152">
+      <c r="N155">
         <v>2.2</v>
       </c>
-      <c r="O152">
+      <c r="O155">
         <v>3.2</v>
       </c>
-      <c r="P152">
+      <c r="P155">
         <v>2.9</v>
       </c>
-      <c r="Q152">
+      <c r="Q155">
         <v>-0.25</v>
       </c>
-      <c r="R152">
-        <v>2</v>
-      </c>
-      <c r="S152">
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
         <v>1.8</v>
       </c>
-      <c r="T152">
+      <c r="T155">
         <v>2.5</v>
       </c>
-      <c r="U152">
+      <c r="U155">
         <v>1.925</v>
       </c>
-      <c r="V152">
+      <c r="V155">
         <v>1.875</v>
       </c>
-      <c r="W152">
+      <c r="W155">
         <v>0</v>
       </c>
-      <c r="X152">
+      <c r="X155">
         <v>0</v>
       </c>
-      <c r="Y152">
+      <c r="Y155">
         <v>0</v>
       </c>
-      <c r="Z152">
+      <c r="Z155">
         <v>0</v>
       </c>
-      <c r="AA152">
+      <c r="AA155">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +661,10 @@
         <v>0.95</v>
       </c>
       <c r="Y2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>2.2</v>
       </c>
       <c r="Y3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA3">
         <v>0.8999999999999999</v>
@@ -833,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -919,10 +919,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z5">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -1005,10 +1005,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>0.825</v>
@@ -1091,10 +1091,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>-0.5</v>
@@ -1177,10 +1177,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z8">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1263,10 +1263,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0.4125</v>
@@ -1435,10 +1435,10 @@
         <v>1.7</v>
       </c>
       <c r="Y11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
         <v>-0.5</v>
@@ -1521,10 +1521,10 @@
         <v>2.6</v>
       </c>
       <c r="Y12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
         <v>0.925</v>
@@ -1607,10 +1607,10 @@
         <v>1.2</v>
       </c>
       <c r="Y13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>0.8</v>
@@ -1951,10 +1951,10 @@
         <v>2.5</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
         <v>0.8</v>
@@ -2037,10 +2037,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2123,10 +2123,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2295,10 +2295,10 @@
         <v>7.5</v>
       </c>
       <c r="Y21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>0.475</v>
@@ -2381,10 +2381,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2467,10 +2467,10 @@
         <v>0.571</v>
       </c>
       <c r="Y23">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2553,10 +2553,10 @@
         <v>1.625</v>
       </c>
       <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z24">
-        <v>-1</v>
       </c>
       <c r="AA24">
         <v>1.025</v>
@@ -2725,10 +2725,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2811,10 +2811,10 @@
         <v>1.6</v>
       </c>
       <c r="Y27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
         <v>1.025</v>
@@ -2897,10 +2897,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3069,10 +3069,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3327,10 +3327,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3499,10 +3499,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>0.8</v>
@@ -3585,10 +3585,10 @@
         <v>1.05</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3757,10 +3757,10 @@
         <v>1.25</v>
       </c>
       <c r="Y38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3843,10 +3843,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3929,10 +3929,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>1</v>
@@ -4015,10 +4015,10 @@
         <v>2.2</v>
       </c>
       <c r="Y41">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4187,10 +4187,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4273,10 +4273,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4445,10 +4445,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z46">
-        <v>-1</v>
       </c>
       <c r="AA46">
         <v>1</v>
@@ -4617,10 +4617,10 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
         <v>0.875</v>
@@ -4703,10 +4703,10 @@
         <v>2.1</v>
       </c>
       <c r="Y49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA49">
         <v>0.95</v>
@@ -4789,10 +4789,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
@@ -4961,10 +4961,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z52">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.9750000000000001</v>
@@ -5133,10 +5133,10 @@
         <v>1.45</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5219,10 +5219,10 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
         <v>0.4875</v>
@@ -5305,10 +5305,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>0.925</v>
@@ -5391,10 +5391,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>0.925</v>
@@ -5477,10 +5477,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -5563,10 +5563,10 @@
         <v>1.15</v>
       </c>
       <c r="Y59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
         <v>-0.5</v>
@@ -5649,10 +5649,10 @@
         <v>2.75</v>
       </c>
       <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5735,10 +5735,10 @@
         <v>4.5</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -5821,10 +5821,10 @@
         <v>4</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
         <v>0.825</v>
@@ -5907,10 +5907,10 @@
         <v>0.909</v>
       </c>
       <c r="Y63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>1</v>
@@ -5993,10 +5993,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6079,10 +6079,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA65">
         <v>0.925</v>
@@ -6165,10 +6165,10 @@
         <v>0.7</v>
       </c>
       <c r="Y66">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA66">
         <v>0.4625</v>
@@ -6337,10 +6337,10 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
         <v>0.8500000000000001</v>
@@ -6767,10 +6767,10 @@
         <v>0.55</v>
       </c>
       <c r="Y73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA73">
         <v>-0.5</v>
@@ -6853,10 +6853,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -6939,10 +6939,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
         <v>0.4125</v>
@@ -7025,10 +7025,10 @@
         <v>0.363</v>
       </c>
       <c r="Y76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>0.925</v>
@@ -7111,10 +7111,10 @@
         <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>0.825</v>
@@ -7283,10 +7283,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>0.8999999999999999</v>
@@ -7369,10 +7369,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>0.8</v>
@@ -7541,10 +7541,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>0.95</v>
@@ -7627,10 +7627,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7713,10 +7713,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7799,10 +7799,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -7885,10 +7885,10 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z86">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -7971,10 +7971,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>-1</v>
@@ -8057,10 +8057,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>0.95</v>
@@ -8143,10 +8143,10 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8229,10 +8229,10 @@
         <v>0.444</v>
       </c>
       <c r="Y90">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8487,10 +8487,10 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>0.825</v>
@@ -8573,10 +8573,10 @@
         <v>1.55</v>
       </c>
       <c r="Y94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
@@ -8659,10 +8659,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
         <v>0.95</v>
@@ -8745,10 +8745,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>0.7250000000000001</v>
@@ -8917,10 +8917,10 @@
         <v>1.2</v>
       </c>
       <c r="Y98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9089,10 +9089,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>0.95</v>
@@ -9347,10 +9347,10 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>0.8500000000000001</v>
@@ -9519,10 +9519,10 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
         <v>0.95</v>
@@ -9691,10 +9691,10 @@
         <v>2</v>
       </c>
       <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
       </c>
       <c r="AA107">
         <v>0.95</v>
@@ -9777,10 +9777,10 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
         <v>0.7749999999999999</v>
@@ -9949,10 +9949,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>-1</v>
@@ -10035,10 +10035,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
         <v>0.875</v>
@@ -10293,10 +10293,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10379,10 +10379,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>0.825</v>
@@ -10551,10 +10551,10 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10637,10 +10637,10 @@
         <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA118">
         <v>0.8</v>
@@ -10723,10 +10723,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -10809,10 +10809,10 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="Y120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
         <v>0.9750000000000001</v>
@@ -10895,10 +10895,10 @@
         <v>2.4</v>
       </c>
       <c r="Y121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
         <v>0.925</v>
@@ -11067,10 +11067,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>-0.5</v>
@@ -11153,10 +11153,10 @@
         <v>1</v>
       </c>
       <c r="Y124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
         <v>0.95</v>
@@ -11239,10 +11239,10 @@
         <v>0.7</v>
       </c>
       <c r="Y125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
         <v>0.825</v>
@@ -11325,10 +11325,10 @@
         <v>2</v>
       </c>
       <c r="Y126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -11497,10 +11497,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z128">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA128">
         <v>0.825</v>
@@ -11583,10 +11583,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>-0.5</v>
@@ -11669,10 +11669,10 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
         <v>1</v>
@@ -11755,10 +11755,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>0.7749999999999999</v>
@@ -11841,10 +11841,10 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
         <v>0.9750000000000001</v>
@@ -12013,10 +12013,10 @@
         <v>0.55</v>
       </c>
       <c r="Y134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA134">
         <v>0.875</v>
@@ -12099,10 +12099,10 @@
         <v>1.15</v>
       </c>
       <c r="Y135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA135">
         <v>0.95</v>
@@ -12185,10 +12185,10 @@
         <v>0.95</v>
       </c>
       <c r="Y136">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12271,10 +12271,10 @@
         <v>0.25</v>
       </c>
       <c r="Y137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
         <v>0.8500000000000001</v>
@@ -12443,10 +12443,10 @@
         <v>2.5</v>
       </c>
       <c r="Y139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12529,10 +12529,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -12615,10 +12615,10 @@
         <v>2.2</v>
       </c>
       <c r="Y141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
         <v>0.8</v>
@@ -12701,10 +12701,10 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
         <v>-0.5</v>
@@ -12787,10 +12787,10 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA143">
         <v>0.9750000000000001</v>
@@ -12873,10 +12873,10 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>0.8999999999999999</v>
@@ -13131,10 +13131,10 @@
         <v>1.15</v>
       </c>
       <c r="Y147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
         <v>0.75</v>
@@ -13217,10 +13217,10 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>0.8</v>
@@ -13389,10 +13389,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z150">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
         <v>0.8500000000000001</v>
@@ -13475,10 +13475,10 @@
         <v>2.4</v>
       </c>
       <c r="Y151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA151">
         <v>1.025</v>
@@ -13647,10 +13647,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>0.7250000000000001</v>
@@ -13733,16 +13733,102 @@
         <v>0.75</v>
       </c>
       <c r="Y154">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA154">
         <v>0.4</v>
       </c>
       <c r="AB154">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7020806</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155">
+        <v>2.5</v>
+      </c>
+      <c r="K155">
+        <v>3.2</v>
+      </c>
+      <c r="L155">
+        <v>2.5</v>
+      </c>
+      <c r="M155">
+        <v>2.2</v>
+      </c>
+      <c r="N155">
+        <v>3.2</v>
+      </c>
+      <c r="O155">
+        <v>2.9</v>
+      </c>
+      <c r="P155">
+        <v>-0.25</v>
+      </c>
+      <c r="Q155">
+        <v>2</v>
+      </c>
+      <c r="R155">
+        <v>1.8</v>
+      </c>
+      <c r="S155">
+        <v>2.5</v>
+      </c>
+      <c r="T155">
+        <v>1.925</v>
+      </c>
+      <c r="U155">
+        <v>1.875</v>
+      </c>
+      <c r="V155">
+        <v>-1</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>1.9</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.8</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7071263</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -498,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +598,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -613,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -681,16 +684,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -699,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -767,16 +770,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -785,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -853,16 +856,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -871,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -939,16 +942,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1025,16 +1028,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1111,16 +1114,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1129,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1197,16 +1200,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1283,16 +1286,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1301,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1369,16 +1372,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1387,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1455,16 +1458,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1473,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1541,16 +1544,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1559,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1627,16 +1630,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1713,16 +1716,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1731,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1799,16 +1802,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1817,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1885,16 +1888,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1903,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1971,16 +1974,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2057,16 +2060,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2075,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2143,16 +2146,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2161,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2229,16 +2232,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2247,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2315,16 +2318,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2333,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2401,16 +2404,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2419,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2487,16 +2490,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2505,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2573,16 +2576,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2591,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2659,16 +2662,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2677,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2745,16 +2748,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2763,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2831,16 +2834,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2849,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2917,17 +2920,17 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" t="s">
-        <v>35</v>
-      </c>
       <c r="G29">
         <v>2</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3003,16 +3006,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3021,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3089,17 +3092,17 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3175,17 +3178,17 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
       <c r="G32">
         <v>2</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3261,16 +3264,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
         <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3279,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3347,16 +3350,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3365,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3433,16 +3436,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3451,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3519,16 +3522,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3537,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3605,16 +3608,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3623,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3691,16 +3694,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3709,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3777,16 +3780,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3795,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3863,16 +3866,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3881,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3949,16 +3952,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3967,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4035,16 +4038,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4053,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4121,16 +4124,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4139,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4207,16 +4210,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4225,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4293,16 +4296,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4311,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4379,16 +4382,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4397,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4465,16 +4468,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4483,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4551,16 +4554,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4569,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4637,16 +4640,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4655,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4723,16 +4726,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4809,16 +4812,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4827,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4895,16 +4898,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4913,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4981,16 +4984,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4999,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5067,16 +5070,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5085,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5153,16 +5156,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5171,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5239,16 +5242,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5257,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5325,16 +5328,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5343,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5411,16 +5414,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5497,17 +5500,17 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="s">
-        <v>34</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5583,16 +5586,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5669,16 +5672,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5687,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5755,16 +5758,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5773,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5841,16 +5844,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5859,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5927,16 +5930,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6013,16 +6016,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
         <v>30</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6031,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6099,16 +6102,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6185,16 +6188,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6203,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6271,16 +6274,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6289,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6357,16 +6360,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6375,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6443,16 +6446,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6461,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6529,16 +6532,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6547,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6615,16 +6618,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6633,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6701,16 +6704,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6719,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6787,16 +6790,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
         <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6805,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6873,16 +6876,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6891,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6959,16 +6962,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6977,7 +6980,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7045,16 +7048,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7063,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7131,16 +7134,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7149,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7217,16 +7220,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7303,16 +7306,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7321,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7389,16 +7392,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7407,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7475,16 +7478,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7493,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7561,16 +7564,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7579,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7647,16 +7650,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7665,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7733,16 +7736,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7751,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7819,16 +7822,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7837,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7905,16 +7908,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7923,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7991,16 +7994,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8009,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,16 +8080,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8095,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8163,16 +8166,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8181,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8249,16 +8252,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8267,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8335,16 +8338,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8353,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8421,16 +8424,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8507,16 +8510,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8525,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8593,16 +8596,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8611,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8679,16 +8682,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8697,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8765,16 +8768,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
         <v>31</v>
-      </c>
-      <c r="F97" t="s">
-        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8783,7 +8786,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8851,16 +8854,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
         <v>33</v>
-      </c>
-      <c r="F98" t="s">
-        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8869,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8937,16 +8940,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8955,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9023,16 +9026,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9041,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9109,16 +9112,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9127,7 +9130,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9195,16 +9198,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9213,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9281,16 +9284,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9299,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9367,16 +9370,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9385,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9453,16 +9456,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9471,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9539,16 +9542,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9557,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9625,16 +9628,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9643,7 +9646,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9711,16 +9714,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" t="s">
         <v>36</v>
-      </c>
-      <c r="F108" t="s">
-        <v>35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9729,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9797,16 +9800,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9815,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9883,16 +9886,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9901,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9969,16 +9972,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
         <v>32</v>
-      </c>
-      <c r="F111" t="s">
-        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9987,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10055,17 +10058,17 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
         <v>29</v>
       </c>
-      <c r="F112" t="s">
-        <v>28</v>
-      </c>
       <c r="G112">
         <v>2</v>
       </c>
@@ -10073,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10141,17 +10144,17 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
         <v>37</v>
       </c>
-      <c r="F113" t="s">
-        <v>36</v>
-      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -10159,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10227,16 +10230,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>34</v>
-      </c>
-      <c r="F114" t="s">
-        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10245,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10313,16 +10316,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10331,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10399,16 +10402,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10417,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10485,16 +10488,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10503,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10571,16 +10574,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10589,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10657,16 +10660,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10675,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10743,16 +10746,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10761,7 +10764,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10829,16 +10832,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10847,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10915,16 +10918,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10933,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11001,16 +11004,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11019,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11087,16 +11090,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11105,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11173,16 +11176,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11191,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11259,16 +11262,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11277,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11345,16 +11348,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11363,7 +11366,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11431,16 +11434,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11517,16 +11520,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11535,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11603,16 +11606,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11621,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11689,16 +11692,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11707,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11775,16 +11778,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11793,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11861,16 +11864,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11879,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11947,16 +11950,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11965,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12033,16 +12036,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12051,7 +12054,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12119,16 +12122,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" t="s">
         <v>35</v>
-      </c>
-      <c r="F136" t="s">
-        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12137,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12205,16 +12208,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" t="s">
         <v>31</v>
-      </c>
-      <c r="F137" t="s">
-        <v>30</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12223,7 +12226,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12291,16 +12294,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12309,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12377,16 +12380,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12395,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12463,16 +12466,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12481,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12549,16 +12552,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12567,7 +12570,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12635,16 +12638,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12653,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12721,16 +12724,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" t="s">
         <v>30</v>
-      </c>
-      <c r="F143" t="s">
-        <v>29</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12739,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12807,16 +12810,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12825,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12893,16 +12896,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12979,16 +12982,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -12997,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13065,16 +13068,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13151,16 +13154,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13169,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13237,16 +13240,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13255,7 +13258,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13323,16 +13326,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13341,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13409,16 +13412,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13427,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13495,16 +13498,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13513,7 +13516,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13581,16 +13584,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13599,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13667,16 +13670,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13685,7 +13688,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13753,16 +13756,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13771,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13829,6 +13832,71 @@
       </c>
       <c r="AB155">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="E156" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" t="s">
+        <v>30</v>
+      </c>
+      <c r="J156">
+        <v>1.85</v>
+      </c>
+      <c r="K156">
+        <v>3.4</v>
+      </c>
+      <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
+        <v>1.85</v>
+      </c>
+      <c r="N156">
+        <v>3.4</v>
+      </c>
+      <c r="O156">
+        <v>3.6</v>
+      </c>
+      <c r="P156">
+        <v>-0.5</v>
+      </c>
+      <c r="Q156">
+        <v>1.9</v>
+      </c>
+      <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>2.5</v>
+      </c>
+      <c r="T156">
+        <v>1.85</v>
+      </c>
+      <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7071263</t>
+    <t>7065195</t>
+  </si>
+  <si>
+    <t>7062589</t>
+  </si>
+  <si>
+    <t>7060565</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -501,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,16 +604,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -616,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -684,16 +690,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -702,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -770,16 +776,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -788,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -856,16 +862,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -942,16 +948,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -960,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1028,16 +1034,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1114,16 +1120,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1132,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1200,16 +1206,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1286,16 +1292,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1304,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1372,16 +1378,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1390,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1458,16 +1464,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1476,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1544,16 +1550,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1630,16 +1636,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1648,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1716,16 +1722,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1734,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1802,16 +1808,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1820,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1888,16 +1894,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1906,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1974,16 +1980,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1992,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2060,16 +2066,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2078,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2146,16 +2152,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2164,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2232,16 +2238,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2250,7 +2256,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2318,16 +2324,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2404,16 +2410,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2422,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2490,16 +2496,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2508,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2576,16 +2582,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2594,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2662,16 +2668,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2680,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2748,16 +2754,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
         <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2766,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2834,16 +2840,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2852,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2920,16 +2926,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2938,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3006,16 +3012,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3024,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3092,16 +3098,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3178,16 +3184,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3196,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3264,16 +3270,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3282,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3350,16 +3356,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3368,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3436,16 +3442,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3454,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3522,16 +3528,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
         <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>35</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3540,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3608,16 +3614,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3626,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3694,16 +3700,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3712,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3780,16 +3786,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3798,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3866,16 +3872,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3884,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3952,16 +3958,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3970,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4038,16 +4044,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4056,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4124,16 +4130,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4142,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4210,16 +4216,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4228,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4296,16 +4302,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4314,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4382,16 +4388,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4400,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4468,16 +4474,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4486,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4554,16 +4560,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4572,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4640,16 +4646,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4658,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4726,16 +4732,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4744,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4812,16 +4818,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4830,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4898,16 +4904,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4916,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4984,17 +4990,17 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" t="s">
-        <v>36</v>
-      </c>
       <c r="G53">
         <v>0</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5070,16 +5076,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
         <v>35</v>
-      </c>
-      <c r="F54" t="s">
-        <v>33</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5088,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5156,16 +5162,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5174,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5242,16 +5248,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5260,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5328,16 +5334,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5346,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5414,16 +5420,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5432,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5500,16 +5506,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5518,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5586,16 +5592,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5604,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5672,16 +5678,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5690,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5758,16 +5764,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5776,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5844,16 +5850,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5862,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5930,16 +5936,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5948,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6016,16 +6022,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6034,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6102,16 +6108,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
         <v>33</v>
-      </c>
-      <c r="F66" t="s">
-        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6120,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6188,16 +6194,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6206,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6274,16 +6280,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6292,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6360,16 +6366,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6378,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6446,16 +6452,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6464,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6532,16 +6538,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6550,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6618,16 +6624,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6636,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6704,16 +6710,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6722,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6790,16 +6796,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6808,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6876,16 +6882,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6894,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6962,16 +6968,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6980,7 +6986,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7048,16 +7054,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7066,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7134,16 +7140,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7152,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7220,16 +7226,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7238,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7306,16 +7312,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7324,7 +7330,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7392,16 +7398,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7410,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7478,16 +7484,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7496,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7564,16 +7570,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7582,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7650,16 +7656,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7668,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7736,16 +7742,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7754,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7822,16 +7828,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7840,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7908,16 +7914,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7926,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7994,16 +8000,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8012,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8080,16 +8086,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8098,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8166,16 +8172,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8184,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8252,16 +8258,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8270,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8338,16 +8344,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8356,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8424,16 +8430,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8442,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8510,16 +8516,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8528,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8596,16 +8602,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
         <v>31</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8614,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8682,16 +8688,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8700,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8768,16 +8774,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8786,7 +8792,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8854,16 +8860,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8872,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8940,16 +8946,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8958,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9026,16 +9032,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9044,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9112,16 +9118,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9130,7 +9136,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9198,16 +9204,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9216,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9284,16 +9290,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9302,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9370,16 +9376,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
         <v>36</v>
-      </c>
-      <c r="F104" t="s">
-        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9388,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9456,16 +9462,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9474,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9542,16 +9548,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9560,7 +9566,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9628,16 +9634,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" t="s">
         <v>32</v>
-      </c>
-      <c r="F107" t="s">
-        <v>30</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9646,7 +9652,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9714,16 +9720,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9732,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9800,16 +9806,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9818,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9886,16 +9892,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9904,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9972,16 +9978,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9990,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10058,16 +10064,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10076,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10144,16 +10150,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10162,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10230,16 +10236,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10248,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10316,16 +10322,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10334,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10402,16 +10408,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" t="s">
         <v>37</v>
-      </c>
-      <c r="F116" t="s">
-        <v>35</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10420,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10488,16 +10494,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10506,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10574,16 +10580,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10592,7 +10598,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10660,16 +10666,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10678,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10746,16 +10752,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10764,7 +10770,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10832,16 +10838,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10850,7 +10856,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10918,16 +10924,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10936,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11004,16 +11010,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11022,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11090,16 +11096,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11108,7 +11114,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11176,16 +11182,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11194,7 +11200,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11262,16 +11268,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11280,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11348,16 +11354,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11366,7 +11372,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11434,16 +11440,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11452,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11520,16 +11526,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11538,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11606,16 +11612,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11624,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11692,16 +11698,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11710,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11778,16 +11784,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" t="s">
         <v>34</v>
-      </c>
-      <c r="F132" t="s">
-        <v>32</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11796,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11864,16 +11870,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11882,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11950,16 +11956,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11968,7 +11974,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12036,16 +12042,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12054,7 +12060,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12122,16 +12128,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12140,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12208,16 +12214,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12226,7 +12232,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12294,16 +12300,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12312,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12380,16 +12386,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12398,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12466,16 +12472,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12484,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12552,16 +12558,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12570,7 +12576,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12638,16 +12644,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12656,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12724,16 +12730,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12742,7 +12748,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12810,16 +12816,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12828,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12896,16 +12902,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12914,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12982,16 +12988,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13000,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13068,16 +13074,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13086,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13154,16 +13160,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13172,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13240,16 +13246,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13258,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13326,16 +13332,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150" t="s">
         <v>33</v>
-      </c>
-      <c r="F150" t="s">
-        <v>31</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13344,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13412,16 +13418,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13430,7 +13436,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13498,16 +13504,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13516,7 +13522,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13584,16 +13590,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13602,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13670,16 +13676,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13688,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13756,16 +13762,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13774,7 +13780,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13842,60 +13848,190 @@
         <v>27</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.44791666666</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J156">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="K156">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N156">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
         <v>-0.5</v>
       </c>
       <c r="Q156">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
         <v>2.5</v>
       </c>
       <c r="T156">
+        <v>1.95</v>
+      </c>
+      <c r="U156">
         <v>1.85</v>
       </c>
-      <c r="U156">
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45410.54166666666</v>
+      </c>
+      <c r="E157" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+      <c r="J157">
+        <v>4.75</v>
+      </c>
+      <c r="K157">
+        <v>4.2</v>
+      </c>
+      <c r="L157">
+        <v>1.5</v>
+      </c>
+      <c r="M157">
+        <v>4.75</v>
+      </c>
+      <c r="N157">
+        <v>4.2</v>
+      </c>
+      <c r="O157">
+        <v>1.5</v>
+      </c>
+      <c r="P157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
         <v>1.95</v>
       </c>
-      <c r="V156">
-        <v>0</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="X156">
+      <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.8</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45411.5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158">
+        <v>1.571</v>
+      </c>
+      <c r="K158">
+        <v>4</v>
+      </c>
+      <c r="L158">
+        <v>4.333</v>
+      </c>
+      <c r="M158">
+        <v>1.45</v>
+      </c>
+      <c r="N158">
+        <v>4.2</v>
+      </c>
+      <c r="O158">
+        <v>5.25</v>
+      </c>
+      <c r="P158">
+        <v>-1</v>
+      </c>
+      <c r="Q158">
+        <v>1.775</v>
+      </c>
+      <c r="R158">
+        <v>2.025</v>
+      </c>
+      <c r="S158">
+        <v>2.25</v>
+      </c>
+      <c r="T158">
+        <v>1.9</v>
+      </c>
+      <c r="U158">
+        <v>1.9</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -97,12 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7065195</t>
-  </si>
-  <si>
-    <t>7062589</t>
-  </si>
-  <si>
     <t>7060565</t>
   </si>
   <si>
@@ -112,16 +106,16 @@
     <t>Araz FK</t>
   </si>
   <si>
+    <t>FK Qarabag</t>
+  </si>
+  <si>
     <t>Sabail FC</t>
   </si>
   <si>
-    <t>FK Qarabag</t>
+    <t>Sabah</t>
   </si>
   <si>
     <t>FK Kapaz</t>
-  </si>
-  <si>
-    <t>Sabah</t>
   </si>
   <si>
     <t>Zira IK</t>
@@ -507,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB158"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +598,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -622,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -687,64 +681,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6943462</v>
+        <v>6942350</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2">
-        <v>45143.47916666666</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="K3">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N3">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
         <v>-1</v>
@@ -753,19 +747,19 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -773,65 +767,65 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6942350</v>
+        <v>6943462</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>45143.58333333334</v>
+        <v>45143.47916666666</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
+        <v>1.775</v>
+      </c>
+      <c r="R4">
+        <v>2.025</v>
+      </c>
+      <c r="S4">
+        <v>2.25</v>
+      </c>
+      <c r="T4">
         <v>1.9</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>1.9</v>
       </c>
-      <c r="S4">
-        <v>2.5</v>
-      </c>
-      <c r="T4">
-        <v>1.85</v>
-      </c>
-      <c r="U4">
-        <v>1.95</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
@@ -839,19 +833,19 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>1.025</v>
+      </c>
+      <c r="AA4">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -859,49 +853,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6943461</v>
+        <v>6940298</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
-        <v>45144.41666666666</v>
+        <v>45144.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O5">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q5">
         <v>1.925</v>
@@ -910,16 +904,16 @@
         <v>1.875</v>
       </c>
       <c r="S5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>3.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -934,10 +928,10 @@
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -945,49 +939,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6940298</v>
+        <v>6943461</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
-        <v>45144.54166666666</v>
+        <v>45144.41666666666</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="M6">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="N6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q6">
         <v>1.925</v>
@@ -996,16 +990,16 @@
         <v>1.875</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>0.5329999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1020,10 +1014,10 @@
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1034,16 +1028,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1052,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1120,16 +1114,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1138,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1206,16 +1200,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1224,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1292,16 +1286,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1310,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1378,25 +1372,25 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
         <v>39</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1461,19 +1455,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943468</v>
+        <v>6943467</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>45157.45833333334</v>
+        <v>45157.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1482,43 +1476,43 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K12">
         <v>3.3</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M12">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P12">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
+        <v>1.825</v>
+      </c>
+      <c r="R12">
         <v>1.975</v>
       </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -1527,16 +1521,16 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1547,19 +1541,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943467</v>
+        <v>6943468</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>45157.54166666666</v>
+        <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1568,43 +1562,43 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K13">
         <v>3.3</v>
       </c>
       <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
         <v>1.909</v>
       </c>
-      <c r="M13">
-        <v>2.9</v>
-      </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q13">
+        <v>1.975</v>
+      </c>
+      <c r="R13">
         <v>1.825</v>
       </c>
-      <c r="R13">
-        <v>1.975</v>
-      </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1613,16 +1607,16 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1633,70 +1627,70 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6944562</v>
+        <v>6940300</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>45158.45833333334</v>
+        <v>45158.54166666666</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="K14">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="M14">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="N14">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q14">
+        <v>1.9</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>2.75</v>
+      </c>
+      <c r="T14">
         <v>1.925</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>1.875</v>
       </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>1.9</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
       <c r="V14">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1705,13 +1699,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.875</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1719,70 +1713,70 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6940300</v>
+        <v>6944562</v>
       </c>
       <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45158.45833333334</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2">
-        <v>45158.54166666666</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L15">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="N15">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q15">
+        <v>1.925</v>
+      </c>
+      <c r="R15">
+        <v>1.875</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
         <v>1.9</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
-        <v>2.75</v>
-      </c>
-      <c r="T15">
-        <v>1.925</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1791,13 +1785,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1808,16 +1802,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1826,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1894,16 +1888,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1980,16 +1974,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1998,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2066,16 +2060,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2084,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2152,16 +2146,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2238,16 +2232,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2256,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2324,16 +2318,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2342,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2410,16 +2404,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2496,16 +2490,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2514,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2582,16 +2576,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2600,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2668,16 +2662,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2686,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2754,16 +2748,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2772,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2840,16 +2834,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2858,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2926,16 +2920,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2944,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3012,16 +3006,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3030,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3098,16 +3092,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3116,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3181,85 +3175,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6977259</v>
+        <v>6976498</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
-        <v>45193.41666666666</v>
+        <v>45193.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J32">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="K32">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="M32">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="P32">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q32">
+        <v>1.85</v>
+      </c>
+      <c r="R32">
         <v>1.95</v>
       </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W32">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3267,85 +3261,85 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6976498</v>
+        <v>6977259</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
-        <v>45193.52083333334</v>
+        <v>45193.41666666666</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M33">
+        <v>1.333</v>
+      </c>
+      <c r="N33">
+        <v>4.2</v>
+      </c>
+      <c r="O33">
+        <v>8.5</v>
+      </c>
+      <c r="P33">
+        <v>-1.5</v>
+      </c>
+      <c r="Q33">
+        <v>1.95</v>
+      </c>
+      <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
         <v>2.5</v>
       </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33">
-        <v>2.625</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>1.85</v>
-      </c>
-      <c r="R33">
-        <v>1.95</v>
-      </c>
-      <c r="S33">
-        <v>2.25</v>
-      </c>
       <c r="T33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z33">
-        <v>-1</v>
-      </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3356,16 +3350,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3374,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3442,16 +3436,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3460,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3528,16 +3522,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3546,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3614,17 +3608,17 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
       </c>
-      <c r="F37" t="s">
-        <v>35</v>
-      </c>
       <c r="G37">
         <v>2</v>
       </c>
@@ -3632,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3700,16 +3694,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3718,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3786,16 +3780,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3872,16 +3866,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3890,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3958,16 +3952,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3976,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4044,16 +4038,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4062,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4130,16 +4124,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4148,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4216,16 +4210,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4234,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4299,82 +4293,82 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7011541</v>
+        <v>7011539</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
-        <v>45219.47916666666</v>
+        <v>45219.5625</v>
       </c>
       <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
         <v>39</v>
       </c>
-      <c r="F45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>43</v>
-      </c>
       <c r="J45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O45">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="P45">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
         <v>-1</v>
       </c>
       <c r="W45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4385,82 +4379,82 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7011539</v>
+        <v>7011541</v>
       </c>
       <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45219.47916666666</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="2">
-        <v>45219.5625</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" t="s">
-        <v>37</v>
-      </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
         <v>41</v>
       </c>
       <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>4.2</v>
+      </c>
+      <c r="L46">
+        <v>1.363</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>1.363</v>
+      </c>
+      <c r="P46">
+        <v>1.5</v>
+      </c>
+      <c r="Q46">
+        <v>1.75</v>
+      </c>
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>2.75</v>
+      </c>
+      <c r="T46">
+        <v>1.9</v>
+      </c>
+      <c r="U46">
+        <v>1.9</v>
+      </c>
+      <c r="V46">
+        <v>-1</v>
+      </c>
+      <c r="W46">
         <v>3</v>
       </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>2.25</v>
-      </c>
-      <c r="M46">
-        <v>3.75</v>
-      </c>
-      <c r="N46">
-        <v>3.2</v>
-      </c>
-      <c r="O46">
-        <v>1.85</v>
-      </c>
-      <c r="P46">
-        <v>0.5</v>
-      </c>
-      <c r="Q46">
-        <v>1.9</v>
-      </c>
-      <c r="R46">
-        <v>1.9</v>
-      </c>
-      <c r="S46">
-        <v>2.5</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>-1</v>
-      </c>
-      <c r="W46">
-        <v>-1</v>
-      </c>
       <c r="X46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA46">
-        <v>1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4471,85 +4465,85 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7011540</v>
+        <v>7011538</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
-        <v>45220.33333333334</v>
+        <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J47">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="K47">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L47">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P47">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W47">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4557,85 +4551,85 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7011538</v>
+        <v>7011540</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
-        <v>45220.45833333334</v>
+        <v>45220.33333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="K48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L48">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="V48">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4646,16 +4640,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4664,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4732,16 +4726,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4750,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4815,55 +4809,55 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7011544</v>
+        <v>7011543</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
-        <v>45227.375</v>
+        <v>45227.5</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K51">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="L51">
+        <v>3.1</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>1.8</v>
-      </c>
-      <c r="N51">
-        <v>3.6</v>
-      </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
         <v>-0.5</v>
       </c>
       <c r="Q51">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
         <v>2.25</v>
@@ -4875,19 +4869,19 @@
         <v>1.825</v>
       </c>
       <c r="V51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>0.9750000000000001</v>
@@ -4901,55 +4895,55 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7011543</v>
+        <v>7011544</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
-        <v>45227.5</v>
+        <v>45227.375</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K52">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="L52">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P52">
         <v>-0.5</v>
       </c>
       <c r="Q52">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R52">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
         <v>2.25</v>
@@ -4961,19 +4955,19 @@
         <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
         <v>0.9750000000000001</v>
@@ -4990,16 +4984,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5008,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5076,16 +5070,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5094,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5162,16 +5156,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5180,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5248,16 +5242,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5266,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5334,16 +5328,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
         <v>33</v>
-      </c>
-      <c r="F57" t="s">
-        <v>34</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5352,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5420,25 +5414,25 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
         <v>40</v>
-      </c>
-      <c r="F58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>42</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5506,16 +5500,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5524,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5592,16 +5586,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5610,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5678,16 +5672,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5696,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5764,16 +5758,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5782,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5850,16 +5844,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5868,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5936,16 +5930,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
         <v>36</v>
-      </c>
-      <c r="F64" t="s">
-        <v>38</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5954,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6022,16 +6016,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6040,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6108,16 +6102,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6126,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6194,16 +6188,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6212,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6280,16 +6274,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6298,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6363,85 +6357,85 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7011557</v>
+        <v>7011558</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
-        <v>45256.35416666666</v>
+        <v>45256.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J69">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="K69">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="M69">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="P69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q69">
+        <v>1.85</v>
+      </c>
+      <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>1.925</v>
+      </c>
+      <c r="U69">
         <v>1.875</v>
       </c>
-      <c r="R69">
-        <v>1.925</v>
-      </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>1.6</v>
-      </c>
-      <c r="U69">
-        <v>2.3</v>
-      </c>
       <c r="V69">
         <v>-1</v>
       </c>
       <c r="W69">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
+        <v>0.425</v>
+      </c>
+      <c r="Z69">
         <v>-0.5</v>
       </c>
-      <c r="Z69">
-        <v>0.4625</v>
-      </c>
       <c r="AA69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6449,85 +6443,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7011558</v>
+        <v>7011557</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
-        <v>45256.45833333334</v>
+        <v>45256.35416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J70">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="K70">
+        <v>3.6</v>
+      </c>
+      <c r="L70">
+        <v>4.75</v>
+      </c>
+      <c r="M70">
+        <v>2.1</v>
+      </c>
+      <c r="N70">
+        <v>3.3</v>
+      </c>
+      <c r="O70">
         <v>3</v>
       </c>
-      <c r="L70">
-        <v>2.2</v>
-      </c>
-      <c r="M70">
-        <v>3.1</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <v>2.2</v>
-      </c>
       <c r="P70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
         <v>2</v>
       </c>
       <c r="T70">
-        <v>1.925</v>
+        <v>1.6</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>2.3</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6535,85 +6529,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7011562</v>
+        <v>7011565</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
-        <v>45262.375</v>
+        <v>45262.47916666666</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J71">
+        <v>2.375</v>
+      </c>
+      <c r="K71">
+        <v>3.2</v>
+      </c>
+      <c r="L71">
+        <v>2.625</v>
+      </c>
+      <c r="M71">
         <v>2.2</v>
       </c>
-      <c r="K71">
-        <v>3.4</v>
-      </c>
-      <c r="L71">
-        <v>2.7</v>
-      </c>
-      <c r="M71">
-        <v>1.615</v>
-      </c>
       <c r="N71">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
         <v>2.25</v>
       </c>
       <c r="T71">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
         <v>-1</v>
       </c>
       <c r="W71">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6621,85 +6615,85 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7011565</v>
+        <v>7011562</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
-        <v>45262.47916666666</v>
+        <v>45262.375</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J72">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N72">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S72">
         <v>2.25</v>
       </c>
       <c r="T72">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
         <v>-1</v>
       </c>
       <c r="W72">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
         <v>-0.5</v>
       </c>
-      <c r="Z72">
-        <v>0.425</v>
-      </c>
-      <c r="AA72">
-        <v>0.875</v>
-      </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6710,16 +6704,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6728,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6796,16 +6790,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6814,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6882,16 +6876,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6900,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6968,16 +6962,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6986,7 +6980,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7054,16 +7048,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7072,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7140,16 +7134,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7158,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7226,16 +7220,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7244,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7312,16 +7306,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" t="s">
         <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>39</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7330,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7398,16 +7392,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7416,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7484,16 +7478,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7502,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7570,16 +7564,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7588,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7656,16 +7650,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7674,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7742,16 +7736,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7760,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7828,16 +7822,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7914,16 +7908,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7932,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7997,49 +7991,49 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7011577</v>
+        <v>7011578</v>
       </c>
       <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45284.47916666666</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="2">
-        <v>45284.20833333334</v>
-      </c>
-      <c r="E88" t="s">
-        <v>39</v>
-      </c>
-      <c r="F88" t="s">
-        <v>31</v>
-      </c>
       <c r="G88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J88">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L88">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="M88">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="N88">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O88">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -8051,31 +8045,31 @@
         <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y88">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8086,16 +8080,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8104,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8169,49 +8163,49 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7011578</v>
+        <v>7011577</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
-        <v>45284.47916666666</v>
+        <v>45284.20833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J90">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="K90">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L90">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="M90">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="N90">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O90">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="P90">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>1.8</v>
@@ -8223,31 +8217,31 @@
         <v>2.5</v>
       </c>
       <c r="T90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8258,17 +8252,17 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
         <v>35</v>
       </c>
-      <c r="F91" t="s">
-        <v>37</v>
-      </c>
       <c r="G91">
         <v>0</v>
       </c>
@@ -8276,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8341,85 +8335,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7011584</v>
+        <v>7011583</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
-        <v>45313.33333333334</v>
+        <v>45313.4375</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J92">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K92">
+        <v>3.1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
         <v>2.75</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>3.25</v>
-      </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P92">
         <v>0.25</v>
       </c>
       <c r="Q92">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S92">
+        <v>2.25</v>
+      </c>
+      <c r="T92">
+        <v>1.825</v>
+      </c>
+      <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.75</v>
       </c>
-      <c r="T92">
-        <v>1.775</v>
-      </c>
-      <c r="U92">
-        <v>2.025</v>
-      </c>
-      <c r="V92">
-        <v>-1</v>
-      </c>
       <c r="W92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8427,85 +8421,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7011583</v>
+        <v>7011584</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
-        <v>45313.4375</v>
+        <v>45313.33333333334</v>
       </c>
       <c r="E93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" t="s">
         <v>34</v>
       </c>
-      <c r="F93" t="s">
-        <v>39</v>
-      </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J93">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="M93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P93">
         <v>0.25</v>
       </c>
       <c r="Q93">
+        <v>1.85</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.75</v>
       </c>
-      <c r="R93">
-        <v>2.05</v>
-      </c>
-      <c r="S93">
-        <v>2.25</v>
-      </c>
       <c r="T93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8513,85 +8507,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7011586</v>
+        <v>7011582</v>
       </c>
       <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45314.5</v>
+      </c>
+      <c r="E94" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="2">
-        <v>45314.39583333334</v>
-      </c>
-      <c r="E94" t="s">
-        <v>38</v>
-      </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J94">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="L94">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="M94">
-        <v>2.4</v>
+        <v>1.222</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O94">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q94">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8599,85 +8593,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7011582</v>
+        <v>7011586</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
-        <v>45314.5</v>
+        <v>45314.39583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J95">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="K95">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="M95">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="N95">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="P95">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y95">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8688,16 +8682,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8706,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8771,64 +8765,64 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7011550</v>
+        <v>7011589</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
-        <v>45318.33333333334</v>
+        <v>45318.4375</v>
       </c>
       <c r="E97" t="s">
         <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>1</v>
       </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J97">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="K97">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="L97">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O97">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="P97">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
         <v>-1</v>
@@ -8837,19 +8831,19 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8857,85 +8851,85 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7011589</v>
+        <v>7011550</v>
       </c>
       <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45318.33333333334</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="2">
-        <v>45318.4375</v>
-      </c>
-      <c r="E98" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" t="s">
-        <v>35</v>
-      </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J98">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="K98">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="M98">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="N98">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="O98">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="P98">
+        <v>1.75</v>
+      </c>
+      <c r="Q98">
+        <v>1.9</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>3</v>
+      </c>
+      <c r="T98">
+        <v>1.9</v>
+      </c>
+      <c r="U98">
+        <v>1.9</v>
+      </c>
+      <c r="V98">
+        <v>-1</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>0.25</v>
       </c>
-      <c r="Q98">
-        <v>1.85</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>1.975</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>-1</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>1.2</v>
-      </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8946,16 +8940,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8964,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9032,16 +9026,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9050,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9115,85 +9109,85 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7011593</v>
+        <v>7011594</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
-        <v>45325.33333333334</v>
+        <v>45325.4375</v>
       </c>
       <c r="E101" t="s">
         <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
         <v>41</v>
       </c>
       <c r="J101">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="K101">
+        <v>3.5</v>
+      </c>
+      <c r="L101">
         <v>4</v>
       </c>
-      <c r="L101">
-        <v>1.4</v>
-      </c>
       <c r="M101">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O101">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X101">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9201,85 +9195,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7011594</v>
+        <v>7011593</v>
       </c>
       <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45325.33333333334</v>
+      </c>
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" t="s">
         <v>30</v>
-      </c>
-      <c r="D102" s="2">
-        <v>45325.4375</v>
-      </c>
-      <c r="E102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F102" t="s">
-        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J102">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="K102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N102">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="P102">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q102">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9290,16 +9284,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9376,16 +9370,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9394,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9462,16 +9456,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9480,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9548,16 +9542,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9566,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9634,16 +9628,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9652,7 +9646,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9720,16 +9714,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9738,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9803,85 +9797,85 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7011599</v>
+        <v>7011598</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
-        <v>45335.42708333334</v>
+        <v>45335.52083333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
         <v>40</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>43</v>
-      </c>
       <c r="J109">
+        <v>2.5</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>2.6</v>
+      </c>
+      <c r="M109">
+        <v>3.2</v>
+      </c>
+      <c r="N109">
+        <v>2.875</v>
+      </c>
+      <c r="O109">
+        <v>2.2</v>
+      </c>
+      <c r="P109">
+        <v>0.25</v>
+      </c>
+      <c r="Q109">
+        <v>1.85</v>
+      </c>
+      <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
         <v>1.8</v>
       </c>
-      <c r="K109">
-        <v>3.4</v>
-      </c>
-      <c r="L109">
-        <v>3.8</v>
-      </c>
-      <c r="M109">
-        <v>1.8</v>
-      </c>
-      <c r="N109">
-        <v>3.1</v>
-      </c>
-      <c r="O109">
-        <v>4.2</v>
-      </c>
-      <c r="P109">
-        <v>-0.5</v>
-      </c>
-      <c r="Q109">
-        <v>1.9</v>
-      </c>
-      <c r="R109">
-        <v>1.9</v>
-      </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
-      <c r="T109">
-        <v>1.975</v>
-      </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W109">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9889,85 +9883,85 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7011598</v>
+        <v>7011599</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
-        <v>45335.52083333334</v>
+        <v>45335.42708333334</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J110">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L110">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O110">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
         <v>2</v>
       </c>
       <c r="T110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V110">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9978,16 +9972,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9996,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10064,16 +10058,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10082,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10150,16 +10144,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10168,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10236,16 +10230,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10254,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10322,16 +10316,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10340,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10405,85 +10399,85 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7011608</v>
+        <v>7011611</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
-        <v>45346.33333333334</v>
+        <v>45346.4375</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J116">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K116">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L116">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N116">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P116">
         <v>0.25</v>
       </c>
       <c r="Q116">
+        <v>2</v>
+      </c>
+      <c r="R116">
         <v>1.8</v>
       </c>
-      <c r="R116">
-        <v>2</v>
-      </c>
       <c r="S116">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T116">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W116">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10491,85 +10485,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7011611</v>
+        <v>7011608</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
-        <v>45346.4375</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
         <v>35</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J117">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L117">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M117">
+        <v>2.9</v>
+      </c>
+      <c r="N117">
         <v>3.3</v>
       </c>
-      <c r="N117">
-        <v>3.2</v>
-      </c>
       <c r="O117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P117">
         <v>0.25</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
+        <v>-1</v>
+      </c>
+      <c r="W117">
         <v>2.3</v>
       </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10577,58 +10571,58 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7011607</v>
+        <v>7809824</v>
       </c>
       <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="E118" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="2">
-        <v>45347.39583333334</v>
-      </c>
-      <c r="E118" t="s">
-        <v>31</v>
-      </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J118">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O118">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P118">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="T118">
         <v>1.8</v>
@@ -10637,25 +10631,25 @@
         <v>2</v>
       </c>
       <c r="V118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10663,58 +10657,58 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7809824</v>
+        <v>7011607</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
-        <v>45347.5</v>
+        <v>45347.39583333334</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J119">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K119">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O119">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P119">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T119">
         <v>1.8</v>
@@ -10723,25 +10717,25 @@
         <v>2</v>
       </c>
       <c r="V119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10752,16 +10746,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10770,7 +10764,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10838,16 +10832,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10856,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10921,85 +10915,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7011616</v>
+        <v>7011612</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
-        <v>45353.375</v>
+        <v>45353.47916666666</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J122">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="K122">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
+        <v>1.85</v>
+      </c>
+      <c r="N122">
+        <v>3.3</v>
+      </c>
+      <c r="O122">
+        <v>3.75</v>
+      </c>
+      <c r="P122">
+        <v>-0.5</v>
+      </c>
+      <c r="Q122">
+        <v>1.9</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
         <v>2.25</v>
       </c>
-      <c r="N122">
-        <v>2.875</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
-      <c r="P122">
-        <v>-0.25</v>
-      </c>
-      <c r="Q122">
+      <c r="T122">
         <v>2.025</v>
       </c>
-      <c r="R122">
+      <c r="U122">
         <v>1.775</v>
       </c>
-      <c r="S122">
-        <v>1.75</v>
-      </c>
-      <c r="T122">
-        <v>1.8</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
       <c r="V122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W122">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>-0.5</v>
       </c>
-      <c r="Z122">
+      <c r="AB122">
         <v>0.3875</v>
-      </c>
-      <c r="AA122">
-        <v>0.4</v>
-      </c>
-      <c r="AB122">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11007,85 +11001,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7011612</v>
+        <v>7011616</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
-        <v>45353.47916666666</v>
+        <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J123">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="K123">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
+        <v>-0.25</v>
+      </c>
+      <c r="Q123">
+        <v>2.025</v>
+      </c>
+      <c r="R123">
+        <v>1.775</v>
+      </c>
+      <c r="S123">
+        <v>1.75</v>
+      </c>
+      <c r="T123">
+        <v>1.8</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>-1</v>
+      </c>
+      <c r="W123">
+        <v>1.875</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
         <v>-0.5</v>
       </c>
-      <c r="Q123">
-        <v>1.9</v>
-      </c>
-      <c r="R123">
-        <v>1.9</v>
-      </c>
-      <c r="S123">
-        <v>2.25</v>
-      </c>
-      <c r="T123">
-        <v>2.025</v>
-      </c>
-      <c r="U123">
-        <v>1.775</v>
-      </c>
-      <c r="V123">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA123">
+        <v>0.4</v>
+      </c>
+      <c r="AB123">
         <v>-0.5</v>
-      </c>
-      <c r="AB123">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11096,16 +11090,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11114,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11182,16 +11176,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11200,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11268,16 +11262,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11286,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11354,16 +11348,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11372,7 +11366,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11440,16 +11434,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11458,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11523,67 +11517,67 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7011617</v>
+        <v>7011618</v>
       </c>
       <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="E129" t="s">
         <v>30</v>
       </c>
-      <c r="D129" s="2">
-        <v>45361.35416666666</v>
-      </c>
-      <c r="E129" t="s">
-        <v>39</v>
-      </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J129">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="K129">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M129">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="N129">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P129">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q129">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
         <v>1.8</v>
       </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
       <c r="V129">
-        <v>1.05</v>
+        <v>0.55</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11592,16 +11586,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11609,67 +11603,67 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7011618</v>
+        <v>7011617</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J130">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L130">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M130">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="N130">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>0.55</v>
+        <v>1.05</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -11678,16 +11672,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11698,16 +11692,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11784,16 +11778,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11802,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11870,16 +11864,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11888,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11956,16 +11950,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11974,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12042,16 +12036,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12060,7 +12054,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12125,65 +12119,65 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7011628</v>
+        <v>7011631</v>
       </c>
       <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45380.5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" t="s">
         <v>30</v>
       </c>
-      <c r="D136" s="2">
-        <v>45380.39583333334</v>
-      </c>
-      <c r="E136" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" t="s">
-        <v>37</v>
-      </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J136">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="K136">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L136">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N136">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="O136">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="P136">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R136">
         <v>1.95</v>
       </c>
       <c r="S136">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T136">
+        <v>1.85</v>
+      </c>
+      <c r="U136">
         <v>1.95</v>
       </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
       <c r="V136">
         <v>-1</v>
       </c>
@@ -12191,7 +12185,7 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="Y136">
         <v>-1</v>
@@ -12200,10 +12194,10 @@
         <v>0.95</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12211,65 +12205,65 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7011631</v>
+        <v>7011628</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
-        <v>45380.5</v>
+        <v>45380.39583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>1</v>
       </c>
-      <c r="H137">
-        <v>6</v>
-      </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J137">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L137">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="M137">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="O137">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="P137">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q137">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R137">
         <v>1.95</v>
       </c>
       <c r="S137">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T137">
+        <v>1.95</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="U137">
-        <v>1.95</v>
-      </c>
       <c r="V137">
         <v>-1</v>
       </c>
@@ -12277,7 +12271,7 @@
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="Y137">
         <v>-1</v>
@@ -12286,10 +12280,10 @@
         <v>0.95</v>
       </c>
       <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12297,85 +12291,85 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7011630</v>
+        <v>7011629</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
-        <v>45381.39583333334</v>
+        <v>45381.5</v>
       </c>
       <c r="E138" t="s">
         <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J138">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K138">
         <v>3.2</v>
       </c>
       <c r="L138">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
+        <v>2.05</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>-0.25</v>
+      </c>
+      <c r="Q138">
+        <v>1.85</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>1.9</v>
+      </c>
+      <c r="U138">
+        <v>1.9</v>
+      </c>
+      <c r="V138">
+        <v>-1</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>2.5</v>
       </c>
-      <c r="N138">
-        <v>3.25</v>
-      </c>
-      <c r="O138">
-        <v>2.5</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>1.9</v>
-      </c>
-      <c r="R138">
-        <v>1.9</v>
-      </c>
-      <c r="S138">
-        <v>2.5</v>
-      </c>
-      <c r="T138">
-        <v>1.975</v>
-      </c>
-      <c r="U138">
-        <v>1.825</v>
-      </c>
-      <c r="V138">
-        <v>-1</v>
-      </c>
-      <c r="W138">
-        <v>2.25</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12383,22 +12377,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7011629</v>
+        <v>7011630</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
-        <v>45381.5</v>
+        <v>45381.39583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12407,61 +12401,61 @@
         <v>41</v>
       </c>
       <c r="J139">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K139">
         <v>3.2</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M139">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="P139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z139">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12472,16 +12466,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12490,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12558,16 +12552,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12576,7 +12570,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12641,67 +12635,67 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7011634</v>
+        <v>7011633</v>
       </c>
       <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="E142" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="E142" t="s">
-        <v>39</v>
-      </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J142">
-        <v>2.55</v>
+        <v>1.222</v>
       </c>
       <c r="K142">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="L142">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="M142">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="O142">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="P142">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="T142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.625</v>
+        <v>0.181</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12710,16 +12704,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12727,67 +12721,67 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7011633</v>
+        <v>7011634</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
-        <v>45388.54166666666</v>
+        <v>45388.375</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
         <v>32</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J143">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="K143">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="L143">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="M143">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="N143">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="P143">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="T143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>0.181</v>
+        <v>1.625</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -12796,16 +12790,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
+        <v>1</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>-0.5</v>
       </c>
-      <c r="Z143">
-        <v>0.425</v>
-      </c>
-      <c r="AA143">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12813,46 +12807,46 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7011635</v>
+        <v>7011636</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
-        <v>45389.39583333334</v>
+        <v>45389.54166666666</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
         <v>38</v>
       </c>
       <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>41</v>
+      </c>
+      <c r="J144">
+        <v>1.727</v>
+      </c>
+      <c r="K144">
+        <v>3.6</v>
+      </c>
+      <c r="L144">
         <v>4</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144" t="s">
-        <v>42</v>
-      </c>
-      <c r="J144">
-        <v>1.4</v>
-      </c>
-      <c r="K144">
-        <v>4.333</v>
-      </c>
-      <c r="L144">
-        <v>6</v>
       </c>
       <c r="M144">
         <v>1.727</v>
       </c>
       <c r="N144">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P144">
         <v>-0.5</v>
@@ -12867,31 +12861,31 @@
         <v>2.25</v>
       </c>
       <c r="T144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12899,46 +12893,46 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7011636</v>
+        <v>7011635</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
-        <v>45389.54166666666</v>
+        <v>45389.39583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145">
+        <v>4</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
         <v>40</v>
       </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="I145" t="s">
-        <v>43</v>
-      </c>
       <c r="J145">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M145">
         <v>1.727</v>
       </c>
       <c r="N145">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
         <v>-0.5</v>
@@ -12953,31 +12947,31 @@
         <v>2.25</v>
       </c>
       <c r="T145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W145">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -12988,16 +12982,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13006,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13074,16 +13068,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13092,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13160,16 +13154,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13178,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13243,82 +13237,82 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7011640</v>
+        <v>7012356</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>45396.39583333334</v>
+        <v>45396.5</v>
       </c>
       <c r="E149" t="s">
         <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G149">
         <v>3</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>40</v>
+      </c>
+      <c r="J149">
+        <v>2.625</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>2.1</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149">
+        <v>1.615</v>
+      </c>
+      <c r="P149">
+        <v>0.75</v>
+      </c>
+      <c r="Q149">
+        <v>1.975</v>
+      </c>
+      <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>2.75</v>
+      </c>
+      <c r="T149">
+        <v>1.85</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>3</v>
       </c>
-      <c r="I149" t="s">
-        <v>43</v>
-      </c>
-      <c r="J149">
-        <v>1.727</v>
-      </c>
-      <c r="K149">
-        <v>3.25</v>
-      </c>
-      <c r="L149">
-        <v>4.333</v>
-      </c>
-      <c r="M149">
-        <v>1.7</v>
-      </c>
-      <c r="N149">
-        <v>3.8</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
-      </c>
-      <c r="P149">
-        <v>-0.75</v>
-      </c>
-      <c r="Q149">
-        <v>1.925</v>
-      </c>
-      <c r="R149">
-        <v>1.875</v>
-      </c>
-      <c r="S149">
-        <v>3.25</v>
-      </c>
-      <c r="T149">
-        <v>1.775</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>-1</v>
-      </c>
       <c r="W149">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13329,16 +13323,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7012356</v>
+        <v>7011640</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
-        <v>45396.5</v>
+        <v>45396.39583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
         <v>33</v>
@@ -13347,64 +13341,64 @@
         <v>3</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J150">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K150">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L150">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="M150">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O150">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q150">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T150">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
         <v>-1</v>
@@ -13418,16 +13412,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13436,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13501,82 +13495,82 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7029131</v>
+        <v>7025505</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
-        <v>45402.39583333334</v>
+        <v>45402.5</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J152">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="K152">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="L152">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M152">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="N152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O152">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P152">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U152">
         <v>1.975</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W152">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -13587,82 +13581,82 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7025505</v>
+        <v>7029131</v>
       </c>
       <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45402.39583333334</v>
+      </c>
+      <c r="E153" t="s">
         <v>30</v>
       </c>
-      <c r="D153" s="2">
-        <v>45402.5</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>36</v>
       </c>
-      <c r="F153" t="s">
-        <v>37</v>
-      </c>
       <c r="G153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J153">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="K153">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M153">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P153">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T153">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U153">
         <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -13676,16 +13670,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13694,7 +13688,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13762,17 +13756,17 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" t="s">
         <v>31</v>
       </c>
-      <c r="F155" t="s">
-        <v>32</v>
-      </c>
       <c r="G155">
         <v>0</v>
       </c>
@@ -13780,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13844,65 +13838,86 @@
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>27</v>
+      <c r="B156">
+        <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
-        <v>45410.44791666666</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>40</v>
       </c>
       <c r="J156">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="N156">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
         <v>-0.5</v>
       </c>
       <c r="Q156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
         <v>2.5</v>
       </c>
       <c r="T156">
+        <v>1.85</v>
+      </c>
+      <c r="U156">
         <v>1.95</v>
       </c>
-      <c r="U156">
-        <v>1.85</v>
-      </c>
       <c r="V156">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>0.95</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13910,55 +13925,55 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
-        <v>45410.54166666666</v>
+        <v>45411.5</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J157">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="K157">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L157">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="N157">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q157">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
         <v>0</v>
@@ -13967,71 +13982,6 @@
         <v>0</v>
       </c>
       <c r="X157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>29</v>
-      </c>
-      <c r="C158" t="s">
-        <v>30</v>
-      </c>
-      <c r="D158" s="2">
-        <v>45411.5</v>
-      </c>
-      <c r="E158" t="s">
-        <v>36</v>
-      </c>
-      <c r="F158" t="s">
-        <v>31</v>
-      </c>
-      <c r="J158">
-        <v>1.571</v>
-      </c>
-      <c r="K158">
-        <v>4</v>
-      </c>
-      <c r="L158">
-        <v>4.333</v>
-      </c>
-      <c r="M158">
-        <v>1.45</v>
-      </c>
-      <c r="N158">
-        <v>4.2</v>
-      </c>
-      <c r="O158">
-        <v>5.25</v>
-      </c>
-      <c r="P158">
-        <v>-1</v>
-      </c>
-      <c r="Q158">
-        <v>1.775</v>
-      </c>
-      <c r="R158">
-        <v>2.025</v>
-      </c>
-      <c r="S158">
-        <v>2.25</v>
-      </c>
-      <c r="T158">
-        <v>1.9</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>0</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -103,10 +103,10 @@
     <t>Araz FK</t>
   </si>
   <si>
-    <t>Sabail FC</t>
+    <t>FK Qarabag</t>
   </si>
   <si>
-    <t>FK Qarabag</t>
+    <t>Sabail FC</t>
   </si>
   <si>
     <t>FK Kapaz</t>
@@ -678,64 +678,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6943462</v>
+        <v>6942350</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45143.47916666666</v>
+        <v>45143.58333333334</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="K3">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N3">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
         <v>-1</v>
@@ -744,19 +744,19 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -764,65 +764,65 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6942350</v>
+        <v>6943462</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45143.58333333334</v>
+        <v>45143.47916666666</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
       </c>
       <c r="J4">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
+        <v>1.775</v>
+      </c>
+      <c r="R4">
+        <v>2.025</v>
+      </c>
+      <c r="S4">
+        <v>2.25</v>
+      </c>
+      <c r="T4">
         <v>1.9</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>1.9</v>
       </c>
-      <c r="S4">
-        <v>2.5</v>
-      </c>
-      <c r="T4">
-        <v>1.85</v>
-      </c>
-      <c r="U4">
-        <v>1.95</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
@@ -830,19 +830,19 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>1.025</v>
+      </c>
+      <c r="AA4">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1022,22 +1022,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6943463</v>
+        <v>6943465</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>45150.47916666666</v>
+        <v>45150.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1046,25 +1046,25 @@
         <v>39</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="K7">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O7">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q7">
         <v>1.775</v>
@@ -1076,13 +1076,13 @@
         <v>2.25</v>
       </c>
       <c r="T7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>0.571</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1091,16 +1091,16 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1108,22 +1108,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6943465</v>
+        <v>6943463</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>45150.58333333334</v>
+        <v>45150.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N8">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="P8">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q8">
         <v>1.775</v>
@@ -1162,13 +1162,13 @@
         <v>2.25</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>0.571</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1177,16 +1177,16 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>-0.5</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1203,7 +1203,7 @@
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
@@ -1292,7 +1292,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1452,19 +1452,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943468</v>
+        <v>6943467</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>45157.45833333334</v>
+        <v>45157.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1476,40 +1476,40 @@
         <v>38</v>
       </c>
       <c r="J12">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K12">
         <v>3.3</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M12">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P12">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
+        <v>1.825</v>
+      </c>
+      <c r="R12">
         <v>1.975</v>
       </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -1518,16 +1518,16 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1538,19 +1538,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943467</v>
+        <v>6943468</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>45157.54166666666</v>
+        <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,40 +1562,40 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K13">
         <v>3.3</v>
       </c>
       <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
         <v>1.909</v>
       </c>
-      <c r="M13">
-        <v>2.9</v>
-      </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q13">
+        <v>1.975</v>
+      </c>
+      <c r="R13">
         <v>1.825</v>
       </c>
-      <c r="R13">
-        <v>1.975</v>
-      </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1604,16 +1604,16 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1633,7 +1633,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1980,7 +1980,7 @@
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>45165.57291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -2493,10 +2493,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
         <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2840,7 +2840,7 @@
         <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2914,85 +2914,85 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6976496</v>
+        <v>6976495</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>45186.52083333334</v>
+        <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J29">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="K29">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
+        <v>-0.25</v>
+      </c>
+      <c r="Q29">
+        <v>1.925</v>
+      </c>
+      <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
+        <v>2.25</v>
+      </c>
+      <c r="T29">
+        <v>1.975</v>
+      </c>
+      <c r="U29">
+        <v>1.825</v>
+      </c>
+      <c r="V29">
+        <v>-1</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
         <v>-0.5</v>
       </c>
-      <c r="Q29">
-        <v>1.975</v>
-      </c>
-      <c r="R29">
-        <v>1.825</v>
-      </c>
-      <c r="S29">
-        <v>2.5</v>
-      </c>
-      <c r="T29">
-        <v>1.95</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>0.909</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
+      <c r="Z29">
+        <v>0.4375</v>
+      </c>
+      <c r="AA29">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3000,85 +3000,85 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6976495</v>
+        <v>6976496</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="2">
-        <v>45186.39583333334</v>
+        <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30">
+        <v>1.533</v>
+      </c>
+      <c r="K30">
+        <v>3.6</v>
+      </c>
+      <c r="L30">
+        <v>5.5</v>
+      </c>
+      <c r="M30">
+        <v>1.909</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
+        <v>3.6</v>
+      </c>
+      <c r="P30">
+        <v>-0.5</v>
+      </c>
+      <c r="Q30">
+        <v>1.975</v>
+      </c>
+      <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>2.5</v>
       </c>
-      <c r="K30">
-        <v>3.1</v>
-      </c>
-      <c r="L30">
-        <v>2.55</v>
-      </c>
-      <c r="M30">
-        <v>2.2</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>3.3</v>
-      </c>
-      <c r="P30">
-        <v>-0.25</v>
-      </c>
-      <c r="Q30">
-        <v>1.925</v>
-      </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>2.25</v>
-      </c>
       <c r="T30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3181,7 +3181,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -3356,7 +3356,7 @@
         <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -3516,85 +3516,85 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6976506</v>
+        <v>6976503</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>45199.45833333334</v>
+        <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J36">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="K36">
+        <v>3.2</v>
+      </c>
+      <c r="L36">
+        <v>2.5</v>
+      </c>
+      <c r="M36">
+        <v>3.4</v>
+      </c>
+      <c r="N36">
         <v>3.1</v>
       </c>
-      <c r="L36">
-        <v>2.3</v>
-      </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>3.2</v>
-      </c>
       <c r="O36">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="P36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
         <v>2.25</v>
       </c>
       <c r="T36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3602,85 +3602,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6976503</v>
+        <v>6976506</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45199.375</v>
+        <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J37">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="K37">
+        <v>3.1</v>
+      </c>
+      <c r="L37">
+        <v>2.3</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
         <v>3.2</v>
       </c>
-      <c r="L37">
-        <v>2.5</v>
-      </c>
-      <c r="M37">
-        <v>3.4</v>
-      </c>
-      <c r="N37">
-        <v>3.1</v>
-      </c>
       <c r="O37">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="P37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
         <v>2.25</v>
       </c>
       <c r="T37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X37">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3688,85 +3688,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6976505</v>
+        <v>6976502</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>45200.375</v>
+        <v>45200.47916666666</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38">
+        <v>2.5</v>
+      </c>
+      <c r="K38">
+        <v>3.4</v>
+      </c>
+      <c r="L38">
         <v>2.375</v>
       </c>
-      <c r="K38">
-        <v>3.3</v>
-      </c>
-      <c r="L38">
-        <v>2.55</v>
-      </c>
       <c r="M38">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
         <v>3.2</v>
       </c>
       <c r="O38">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="P38">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q38">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3774,85 +3774,85 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6976502</v>
+        <v>6976505</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2">
-        <v>45200.47916666666</v>
+        <v>45200.375</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N39">
         <v>3.2</v>
       </c>
       <c r="O39">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="P39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q39">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
         <v>1.8</v>
       </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
       <c r="V39">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4044,7 +4044,7 @@
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4118,49 +4118,49 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7011535</v>
+        <v>7011534</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2">
-        <v>45207.52083333334</v>
+        <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J43">
-        <v>4.8</v>
+        <v>2.25</v>
       </c>
       <c r="K43">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="O43">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q43">
         <v>1.975</v>
@@ -4169,34 +4169,34 @@
         <v>1.825</v>
       </c>
       <c r="S43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4204,49 +4204,49 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7011534</v>
+        <v>7011535</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>45207.39583333334</v>
+        <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44">
-        <v>2.25</v>
+        <v>4.8</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L44">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="P44">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q44">
         <v>1.975</v>
@@ -4255,34 +4255,34 @@
         <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4290,82 +4290,82 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7011541</v>
+        <v>7011539</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45219.47916666666</v>
+        <v>45219.5625</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O45">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="P45">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
         <v>-1</v>
       </c>
       <c r="W45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4376,82 +4376,82 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7011539</v>
+        <v>7011541</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2">
-        <v>45219.5625</v>
+        <v>45219.47916666666</v>
       </c>
       <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
         <v>29</v>
       </c>
-      <c r="F46" t="s">
-        <v>34</v>
-      </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>4.2</v>
+      </c>
+      <c r="L46">
+        <v>1.363</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46">
         <v>4</v>
       </c>
-      <c r="I46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46">
+      <c r="O46">
+        <v>1.363</v>
+      </c>
+      <c r="P46">
+        <v>1.5</v>
+      </c>
+      <c r="Q46">
+        <v>1.75</v>
+      </c>
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>2.75</v>
+      </c>
+      <c r="T46">
+        <v>1.9</v>
+      </c>
+      <c r="U46">
+        <v>1.9</v>
+      </c>
+      <c r="V46">
+        <v>-1</v>
+      </c>
+      <c r="W46">
         <v>3</v>
       </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>2.25</v>
-      </c>
-      <c r="M46">
-        <v>3.75</v>
-      </c>
-      <c r="N46">
-        <v>3.2</v>
-      </c>
-      <c r="O46">
-        <v>1.85</v>
-      </c>
-      <c r="P46">
-        <v>0.5</v>
-      </c>
-      <c r="Q46">
-        <v>1.9</v>
-      </c>
-      <c r="R46">
-        <v>1.9</v>
-      </c>
-      <c r="S46">
-        <v>2.5</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>-1</v>
-      </c>
-      <c r="W46">
-        <v>-1</v>
-      </c>
       <c r="X46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA46">
-        <v>1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4806,55 +4806,55 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7011543</v>
+        <v>7011544</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2">
-        <v>45227.5</v>
+        <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
         <v>-0.5</v>
       </c>
       <c r="Q51">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
         <v>2.25</v>
@@ -4866,19 +4866,19 @@
         <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>0.9750000000000001</v>
@@ -4892,55 +4892,55 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7011544</v>
+        <v>7011543</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2">
-        <v>45227.375</v>
+        <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K52">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="L52">
+        <v>3.1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
         <v>3</v>
       </c>
-      <c r="M52">
-        <v>1.8</v>
-      </c>
-      <c r="N52">
-        <v>3.6</v>
-      </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
         <v>-0.5</v>
       </c>
       <c r="Q52">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S52">
         <v>2.25</v>
@@ -4952,19 +4952,19 @@
         <v>1.825</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W52">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.9750000000000001</v>
@@ -5162,7 +5162,7 @@
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5245,7 +5245,7 @@
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
         <v>36</v>
@@ -5322,67 +5322,67 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7011591</v>
+        <v>7011547</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2">
-        <v>45234.375</v>
+        <v>45234.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
       </c>
       <c r="J57">
-        <v>1.125</v>
+        <v>2.75</v>
       </c>
       <c r="K57">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="M57">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O57">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="P57">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q57">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>1.725</v>
+      </c>
+      <c r="U57">
         <v>1.975</v>
       </c>
-      <c r="S57">
-        <v>3</v>
-      </c>
-      <c r="T57">
-        <v>1.925</v>
-      </c>
-      <c r="U57">
-        <v>1.875</v>
-      </c>
       <c r="V57">
-        <v>0.181</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5391,16 +5391,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5408,67 +5408,67 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7011547</v>
+        <v>7011591</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2">
-        <v>45234.45833333334</v>
+        <v>45234.375</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
       </c>
       <c r="J58">
-        <v>2.75</v>
+        <v>1.125</v>
       </c>
       <c r="K58">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="L58">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="N58">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O58">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="P58">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q58">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T58">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>0.181</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5477,16 +5477,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5924,67 +5924,67 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7011553</v>
+        <v>7011555</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2">
-        <v>45242.5</v>
+        <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
         <v>39</v>
       </c>
       <c r="J64">
-        <v>1.222</v>
+        <v>1.95</v>
       </c>
       <c r="K64">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M64">
-        <v>1.166</v>
+        <v>1.85</v>
       </c>
       <c r="N64">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U64">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>0.1659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -5993,16 +5993,16 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6010,85 +6010,85 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7011555</v>
+        <v>7011553</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>45242.39583333334</v>
+        <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
         <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>39</v>
       </c>
       <c r="J65">
-        <v>1.95</v>
+        <v>1.222</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>1.166</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P65">
+        <v>-2.25</v>
+      </c>
+      <c r="Q65">
+        <v>1.925</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>3.5</v>
+      </c>
+      <c r="T65">
+        <v>1.925</v>
+      </c>
+      <c r="U65">
+        <v>1.775</v>
+      </c>
+      <c r="V65">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
         <v>-0.5</v>
       </c>
-      <c r="Q65">
-        <v>1.9</v>
-      </c>
-      <c r="R65">
-        <v>1.9</v>
-      </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
-      <c r="T65">
-        <v>1.825</v>
-      </c>
-      <c r="U65">
-        <v>1.975</v>
-      </c>
-      <c r="V65">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W65">
-        <v>-1</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6108,7 +6108,7 @@
         <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6277,7 +6277,7 @@
         <v>45255.29166666666</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -6354,85 +6354,85 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7011558</v>
+        <v>7011557</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45256.45833333334</v>
+        <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
         <v>40</v>
       </c>
       <c r="J69">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="K69">
+        <v>3.6</v>
+      </c>
+      <c r="L69">
+        <v>4.75</v>
+      </c>
+      <c r="M69">
+        <v>2.1</v>
+      </c>
+      <c r="N69">
+        <v>3.3</v>
+      </c>
+      <c r="O69">
         <v>3</v>
       </c>
-      <c r="L69">
-        <v>2.2</v>
-      </c>
-      <c r="M69">
-        <v>3.1</v>
-      </c>
-      <c r="N69">
-        <v>3</v>
-      </c>
-      <c r="O69">
-        <v>2.2</v>
-      </c>
       <c r="P69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q69">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
         <v>2</v>
       </c>
       <c r="T69">
-        <v>1.925</v>
+        <v>1.6</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>2.3</v>
       </c>
       <c r="V69">
         <v>-1</v>
       </c>
       <c r="W69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6440,85 +6440,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7011557</v>
+        <v>7011558</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45256.35416666666</v>
+        <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>40</v>
       </c>
       <c r="J70">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="K70">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="M70">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="P70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q70">
+        <v>1.85</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>1.925</v>
+      </c>
+      <c r="U70">
         <v>1.875</v>
       </c>
-      <c r="R70">
-        <v>1.925</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>1.6</v>
-      </c>
-      <c r="U70">
-        <v>2.3</v>
-      </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
+        <v>0.425</v>
+      </c>
+      <c r="Z70">
         <v>-0.5</v>
       </c>
-      <c r="Z70">
-        <v>0.4625</v>
-      </c>
       <c r="AA70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6624,7 +6624,7 @@
         <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6698,85 +6698,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7011563</v>
+        <v>7011566</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45263.33333333334</v>
+        <v>45263.41666666666</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J73">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="K73">
+        <v>3.1</v>
+      </c>
+      <c r="L73">
         <v>3.4</v>
       </c>
-      <c r="L73">
-        <v>1.85</v>
-      </c>
       <c r="M73">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N73">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q73">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R73">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6784,85 +6784,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7011566</v>
+        <v>7011563</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45263.41666666666</v>
+        <v>45263.33333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74">
+        <v>3.6</v>
+      </c>
+      <c r="K74">
+        <v>3.4</v>
+      </c>
+      <c r="L74">
+        <v>1.85</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>3.75</v>
+      </c>
+      <c r="O74">
+        <v>1.55</v>
+      </c>
+      <c r="P74">
         <v>1</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74">
-        <v>2</v>
-      </c>
-      <c r="K74">
-        <v>3.1</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>2.15</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-      <c r="O74">
-        <v>3.1</v>
-      </c>
-      <c r="P74">
-        <v>-0.25</v>
-      </c>
       <c r="Q74">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6879,7 +6879,7 @@
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
         <v>35</v>
@@ -6968,7 +6968,7 @@
         <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7214,67 +7214,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7011571</v>
+        <v>7011568</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45270.33333333334</v>
+        <v>45270.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="s">
         <v>39</v>
       </c>
       <c r="J79">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O79">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P79">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q79">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R79">
         <v>1.95</v>
       </c>
       <c r="S79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>0.363</v>
+        <v>0.75</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7300,67 +7300,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7011568</v>
+        <v>7011571</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2">
-        <v>45270.45833333334</v>
+        <v>45270.33333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
         <v>39</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K80">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="N80">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P80">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q80">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R80">
         <v>1.95</v>
       </c>
       <c r="S80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>0.75</v>
+        <v>0.363</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7369,13 +7369,13 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7481,7 +7481,7 @@
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
         <v>35</v>
@@ -7739,7 +7739,7 @@
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
         <v>34</v>
@@ -7914,7 +7914,7 @@
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8332,85 +8332,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7011584</v>
+        <v>7011583</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2">
-        <v>45313.33333333334</v>
+        <v>45313.4375</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J92">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K92">
+        <v>3.1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
         <v>2.75</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>3.25</v>
-      </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P92">
         <v>0.25</v>
       </c>
       <c r="Q92">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S92">
+        <v>2.25</v>
+      </c>
+      <c r="T92">
+        <v>1.825</v>
+      </c>
+      <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.75</v>
       </c>
-      <c r="T92">
-        <v>1.775</v>
-      </c>
-      <c r="U92">
-        <v>2.025</v>
-      </c>
-      <c r="V92">
-        <v>-1</v>
-      </c>
       <c r="W92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8418,85 +8418,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7011583</v>
+        <v>7011584</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45313.4375</v>
+        <v>45313.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J93">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="M93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P93">
         <v>0.25</v>
       </c>
       <c r="Q93">
+        <v>1.85</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.75</v>
       </c>
-      <c r="R93">
-        <v>2.05</v>
-      </c>
-      <c r="S93">
-        <v>2.25</v>
-      </c>
       <c r="T93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8513,7 +8513,7 @@
         <v>45314.5</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
         <v>28</v>
@@ -8688,7 +8688,7 @@
         <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8774,7 +8774,7 @@
         <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9201,10 +9201,10 @@
         <v>45325.33333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
         <v>29</v>
-      </c>
-      <c r="F102" t="s">
-        <v>30</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9545,7 +9545,7 @@
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
         <v>32</v>
@@ -9634,7 +9634,7 @@
         <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9966,82 +9966,82 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7011603</v>
+        <v>7011602</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2">
-        <v>45339.375</v>
+        <v>45339.47916666666</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111">
+        <v>1.8</v>
+      </c>
+      <c r="K111">
         <v>3</v>
       </c>
-      <c r="H111">
-        <v>2</v>
-      </c>
-      <c r="I111" t="s">
-        <v>39</v>
-      </c>
-      <c r="J111">
-        <v>1.666</v>
-      </c>
-      <c r="K111">
-        <v>3.2</v>
-      </c>
       <c r="L111">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M111">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="N111">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
         <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB111">
         <v>-1</v>
@@ -10052,82 +10052,82 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7011602</v>
+        <v>7011603</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2">
-        <v>45339.47916666666</v>
+        <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J112">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L112">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M112">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="N112">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
         <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W112">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
+        <v>0.45</v>
+      </c>
+      <c r="Z112">
         <v>-0.5</v>
       </c>
-      <c r="Z112">
-        <v>0.4125</v>
-      </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
         <v>-1</v>
@@ -10138,85 +10138,85 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7011606</v>
+        <v>7011605</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J113">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K113">
+        <v>2.8</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
         <v>2.9</v>
       </c>
-      <c r="L113">
-        <v>3.2</v>
-      </c>
-      <c r="M113">
-        <v>2.1</v>
-      </c>
       <c r="N113">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="P113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>1.7</v>
+      </c>
+      <c r="S113">
+        <v>2.25</v>
+      </c>
+      <c r="T113">
+        <v>1.975</v>
+      </c>
+      <c r="U113">
         <v>1.825</v>
       </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.75</v>
-      </c>
-      <c r="T113">
+      <c r="V113">
+        <v>-1</v>
+      </c>
+      <c r="W113">
         <v>1.8</v>
       </c>
-      <c r="U113">
-        <v>2</v>
-      </c>
-      <c r="V113">
-        <v>1.1</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
         <v>0.825</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10224,85 +10224,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7011605</v>
+        <v>7011606</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2">
-        <v>45340.35416666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J114">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N114">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O114">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R114">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W114">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10405,7 +10405,7 @@
         <v>45346.4375</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
         <v>32</v>
@@ -10663,7 +10663,7 @@
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -10752,7 +10752,7 @@
         <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -11084,64 +11084,64 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7011613</v>
+        <v>7011615</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2">
-        <v>45354.375</v>
+        <v>45354.5</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
         <v>29</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I124" t="s">
         <v>38</v>
       </c>
       <c r="J124">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="K124">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L124">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P124">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
         <v>2.5</v>
       </c>
       <c r="T124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U124">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
         <v>-1</v>
@@ -11150,16 +11150,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11170,64 +11170,64 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7011615</v>
+        <v>7011613</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45354.5</v>
+        <v>45354.375</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
         <v>30</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
         <v>38</v>
       </c>
       <c r="J125">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="K125">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L125">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O125">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P125">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
         <v>2.5</v>
       </c>
       <c r="T125">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V125">
         <v>-1</v>
@@ -11236,16 +11236,16 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -11265,7 +11265,7 @@
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -11514,67 +11514,67 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7011618</v>
+        <v>7011617</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>39</v>
       </c>
       <c r="J129">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L129">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M129">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="N129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O129">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q129">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>0.55</v>
+        <v>1.05</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11583,16 +11583,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11600,67 +11600,67 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7011617</v>
+        <v>7011618</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45361.35416666666</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="s">
         <v>39</v>
       </c>
       <c r="J130">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="K130">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M130">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="N130">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P130">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
         <v>1.8</v>
       </c>
-      <c r="U130">
-        <v>2</v>
-      </c>
       <c r="V130">
-        <v>1.05</v>
+        <v>0.55</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -11669,16 +11669,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11698,7 +11698,7 @@
         <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11944,64 +11944,64 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7011626</v>
+        <v>7011623</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2">
-        <v>45368.375</v>
+        <v>45368.5</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
         <v>38</v>
       </c>
       <c r="J134">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L134">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M134">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="P134">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q134">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
         <v>-1</v>
@@ -12010,16 +12010,16 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12030,64 +12030,64 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7011623</v>
+        <v>7011626</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2">
-        <v>45368.5</v>
+        <v>45368.375</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135" t="s">
         <v>38</v>
       </c>
       <c r="J135">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="K135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M135">
+        <v>4.5</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135">
+        <v>1.55</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>1.8</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
         <v>2.75</v>
       </c>
-      <c r="N135">
-        <v>3.5</v>
-      </c>
-      <c r="O135">
-        <v>2.15</v>
-      </c>
-      <c r="P135">
-        <v>0.25</v>
-      </c>
-      <c r="Q135">
-        <v>1.85</v>
-      </c>
-      <c r="R135">
-        <v>1.95</v>
-      </c>
-      <c r="S135">
-        <v>2.25</v>
-      </c>
       <c r="T135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
         <v>-1</v>
@@ -12096,16 +12096,16 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12214,7 +12214,7 @@
         <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12297,7 +12297,7 @@
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
         <v>36</v>
@@ -12727,10 +12727,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" t="s">
         <v>30</v>
-      </c>
-      <c r="F143" t="s">
-        <v>29</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -13062,82 +13062,82 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7011639</v>
+        <v>7011637</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45395.39583333334</v>
+        <v>45395.5</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J147">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="K147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L147">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N147">
         <v>3.4</v>
       </c>
       <c r="O147">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q147">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S147">
         <v>2.25</v>
       </c>
       <c r="T147">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13148,82 +13148,82 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7011637</v>
+        <v>7011639</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45395.5</v>
+        <v>45395.39583333334</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>38</v>
+      </c>
+      <c r="J148">
         <v>3</v>
       </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148" t="s">
-        <v>39</v>
-      </c>
-      <c r="J148">
-        <v>1.833</v>
-      </c>
       <c r="K148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="M148">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N148">
         <v>3.4</v>
       </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="P148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
         <v>2.25</v>
       </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA148">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13234,82 +13234,82 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7012356</v>
+        <v>7011640</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2">
-        <v>45396.5</v>
+        <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>3</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J149">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L149">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="M149">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="N149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O149">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q149">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13320,82 +13320,82 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7011640</v>
+        <v>7012356</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2">
-        <v>45396.39583333334</v>
+        <v>45396.5</v>
       </c>
       <c r="E150" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" t="s">
         <v>29</v>
-      </c>
-      <c r="F150" t="s">
-        <v>31</v>
       </c>
       <c r="G150">
         <v>3</v>
       </c>
       <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>39</v>
+      </c>
+      <c r="J150">
+        <v>2.625</v>
+      </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <v>2.1</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150">
+        <v>1.615</v>
+      </c>
+      <c r="P150">
+        <v>0.75</v>
+      </c>
+      <c r="Q150">
+        <v>1.975</v>
+      </c>
+      <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>2.75</v>
+      </c>
+      <c r="T150">
+        <v>1.85</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>3</v>
       </c>
-      <c r="I150" t="s">
-        <v>40</v>
-      </c>
-      <c r="J150">
-        <v>1.727</v>
-      </c>
-      <c r="K150">
-        <v>3.25</v>
-      </c>
-      <c r="L150">
-        <v>4.333</v>
-      </c>
-      <c r="M150">
-        <v>1.7</v>
-      </c>
-      <c r="N150">
-        <v>3.8</v>
-      </c>
-      <c r="O150">
-        <v>3.8</v>
-      </c>
-      <c r="P150">
-        <v>-0.75</v>
-      </c>
-      <c r="Q150">
-        <v>1.925</v>
-      </c>
-      <c r="R150">
-        <v>1.875</v>
-      </c>
-      <c r="S150">
-        <v>3.25</v>
-      </c>
-      <c r="T150">
-        <v>1.775</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>-1</v>
-      </c>
       <c r="W150">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
         <v>-1</v>
@@ -13587,7 +13587,7 @@
         <v>45402.39583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
         <v>35</v>
@@ -13664,22 +13664,22 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7027687</v>
+        <v>7020806</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
       </c>
       <c r="D154" s="2">
-        <v>45403.39583333334</v>
+        <v>45403.5</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -13688,40 +13688,40 @@
         <v>38</v>
       </c>
       <c r="J154">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K154">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N154">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O154">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="P154">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q154">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T154">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
         <v>-1</v>
@@ -13730,19 +13730,19 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="Y154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA154">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13750,22 +13750,22 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7020806</v>
+        <v>7027687</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
       </c>
       <c r="D155" s="2">
-        <v>45403.5</v>
+        <v>45403.39583333334</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -13774,40 +13774,40 @@
         <v>38</v>
       </c>
       <c r="J155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K155">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M155">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O155">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="P155">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>2.75</v>
+      </c>
+      <c r="T155">
         <v>1.8</v>
       </c>
-      <c r="S155">
-        <v>2.5</v>
-      </c>
-      <c r="T155">
-        <v>1.925</v>
-      </c>
       <c r="U155">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V155">
         <v>-1</v>
@@ -13816,19 +13816,19 @@
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB155">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13848,7 +13848,7 @@
         <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13922,85 +13922,85 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7062589</v>
+        <v>7060566</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2">
-        <v>45410.54166666666</v>
+        <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>1</v>
       </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J157">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="K157">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L157">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N157">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O157">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q157">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T157">
+        <v>1.775</v>
+      </c>
+      <c r="U157">
+        <v>1.925</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>1.9</v>
       </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>3.75</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14094,85 +14094,85 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7060566</v>
+        <v>7062589</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="2">
-        <v>45410.35416666666</v>
+        <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
         <v>0</v>
       </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
       <c r="I159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J159">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="K159">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L159">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="M159">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="N159">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O159">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="P159">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q159">
+        <v>1.75</v>
+      </c>
+      <c r="R159">
         <v>1.95</v>
       </c>
-      <c r="R159">
-        <v>1.85</v>
-      </c>
       <c r="S159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T159">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:28">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -103,10 +103,10 @@
     <t>Araz FK</t>
   </si>
   <si>
-    <t>FK Qarabag</t>
+    <t>Sabail FC</t>
   </si>
   <si>
-    <t>Sabail FC</t>
+    <t>FK Qarabag</t>
   </si>
   <si>
     <t>FK Kapaz</t>
@@ -678,65 +678,65 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6942350</v>
+        <v>6943462</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45143.58333333334</v>
+        <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
       </c>
       <c r="J3">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q3">
+        <v>1.775</v>
+      </c>
+      <c r="R3">
+        <v>2.025</v>
+      </c>
+      <c r="S3">
+        <v>2.25</v>
+      </c>
+      <c r="T3">
         <v>1.9</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>1.9</v>
       </c>
-      <c r="S3">
-        <v>2.5</v>
-      </c>
-      <c r="T3">
-        <v>1.85</v>
-      </c>
-      <c r="U3">
-        <v>1.95</v>
-      </c>
       <c r="V3">
         <v>-1</v>
       </c>
@@ -744,19 +744,19 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>1.025</v>
+      </c>
+      <c r="AA3">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -764,64 +764,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6943462</v>
+        <v>6942350</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45143.47916666666</v>
+        <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="K4">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N4">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
         <v>-1</v>
@@ -830,19 +830,19 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1022,22 +1022,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6943465</v>
+        <v>6943463</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>45150.58333333334</v>
+        <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1046,25 +1046,25 @@
         <v>39</v>
       </c>
       <c r="J7">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M7">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="P7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
         <v>1.775</v>
@@ -1076,13 +1076,13 @@
         <v>2.25</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>0.571</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1091,16 +1091,16 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>-0.5</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1108,22 +1108,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6943463</v>
+        <v>6943465</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>45150.47916666666</v>
+        <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O8">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q8">
         <v>1.775</v>
@@ -1162,13 +1162,13 @@
         <v>2.25</v>
       </c>
       <c r="T8">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>0.571</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1177,16 +1177,16 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1203,7 +1203,7 @@
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
@@ -1292,7 +1292,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1452,19 +1452,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943467</v>
+        <v>6943468</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>45157.54166666666</v>
+        <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1476,40 +1476,40 @@
         <v>38</v>
       </c>
       <c r="J12">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K12">
         <v>3.3</v>
       </c>
       <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
         <v>1.909</v>
       </c>
-      <c r="M12">
-        <v>2.9</v>
-      </c>
       <c r="N12">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O12">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q12">
+        <v>1.975</v>
+      </c>
+      <c r="R12">
         <v>1.825</v>
       </c>
-      <c r="R12">
-        <v>1.975</v>
-      </c>
       <c r="S12">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -1518,16 +1518,16 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1538,19 +1538,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943468</v>
+        <v>6943467</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>45157.45833333334</v>
+        <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,40 +1562,40 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K13">
         <v>3.3</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M13">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P13">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q13">
+        <v>1.825</v>
+      </c>
+      <c r="R13">
         <v>1.975</v>
       </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1604,16 +1604,16 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1633,7 +1633,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1882,85 +1882,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6940301</v>
+        <v>6943471</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>45164.52083333334</v>
+        <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K17">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="N17">
         <v>3.4</v>
       </c>
       <c r="O17">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
         <v>2.25</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U17">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1968,85 +1968,85 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6943471</v>
+        <v>6940301</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>45164.41666666666</v>
+        <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
         <v>3.4</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="P18">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
         <v>2.25</v>
       </c>
       <c r="T18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2054,85 +2054,85 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6942352</v>
+        <v>6943470</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>45165.57291666666</v>
+        <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W19">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2140,85 +2140,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6943470</v>
+        <v>6942352</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>45165.47916666666</v>
+        <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P20">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
         <v>1.95</v>
       </c>
-      <c r="S20">
-        <v>2.5</v>
-      </c>
-      <c r="T20">
-        <v>1.9</v>
-      </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2312,85 +2312,85 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6943474</v>
+        <v>6943473</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>45171.5625</v>
+        <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="K22">
         <v>3.8</v>
       </c>
       <c r="L22">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O22">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R22">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
         <v>2.25</v>
       </c>
       <c r="T22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2398,85 +2398,85 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6943473</v>
+        <v>6943474</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>45171.45833333334</v>
+        <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="K23">
         <v>3.8</v>
       </c>
       <c r="L23">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="M23">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O23">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
         <v>2.25</v>
       </c>
       <c r="T23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2484,85 +2484,85 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6942353</v>
+        <v>6943472</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>45172.52083333334</v>
+        <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L24">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="P24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V24">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2570,85 +2570,85 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6943472</v>
+        <v>6942353</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>45172.41666666666</v>
+        <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J25">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="M25">
+        <v>6.5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>1.3</v>
+      </c>
+      <c r="P25">
+        <v>1.5</v>
+      </c>
+      <c r="Q25">
+        <v>1.925</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
         <v>2.75</v>
       </c>
-      <c r="N25">
-        <v>2.7</v>
-      </c>
-      <c r="O25">
-        <v>2.625</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1.9</v>
-      </c>
-      <c r="R25">
-        <v>1.9</v>
-      </c>
-      <c r="S25">
-        <v>2.25</v>
-      </c>
       <c r="T25">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U25">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2742,85 +2742,85 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6976493</v>
+        <v>6976497</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45185.45833333334</v>
+        <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>2.5</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>2.6</v>
+      </c>
+      <c r="M27">
+        <v>2.6</v>
+      </c>
+      <c r="N27">
+        <v>2.9</v>
+      </c>
+      <c r="O27">
+        <v>2.6</v>
+      </c>
+      <c r="P27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>3.6</v>
-      </c>
-      <c r="L27">
-        <v>1.571</v>
-      </c>
-      <c r="M27">
-        <v>3.8</v>
-      </c>
-      <c r="N27">
-        <v>3.4</v>
-      </c>
-      <c r="O27">
-        <v>1.75</v>
-      </c>
-      <c r="P27">
-        <v>0.5</v>
-      </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
         <v>2.25</v>
       </c>
       <c r="T27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2828,85 +2828,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6976497</v>
+        <v>6976493</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>45185.375</v>
+        <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J28">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L28">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="M28">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N28">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O28">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
         <v>2.25</v>
       </c>
       <c r="T28">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3009,7 +3009,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -3172,85 +3172,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6976498</v>
+        <v>6977259</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>45193.52083333334</v>
+        <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J32">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L32">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M32">
+        <v>1.333</v>
+      </c>
+      <c r="N32">
+        <v>4.2</v>
+      </c>
+      <c r="O32">
+        <v>8.5</v>
+      </c>
+      <c r="P32">
+        <v>-1.5</v>
+      </c>
+      <c r="Q32">
+        <v>1.95</v>
+      </c>
+      <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
         <v>2.5</v>
       </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-      <c r="O32">
-        <v>2.625</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1.85</v>
-      </c>
-      <c r="R32">
-        <v>1.95</v>
-      </c>
-      <c r="S32">
-        <v>2.25</v>
-      </c>
       <c r="T32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3258,85 +3258,85 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6977259</v>
+        <v>6976498</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="2">
-        <v>45193.41666666666</v>
+        <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="M33">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N33">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="P33">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q33">
+        <v>1.85</v>
+      </c>
+      <c r="R33">
         <v>1.95</v>
       </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
       <c r="S33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W33">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3356,7 +3356,7 @@
         <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -3611,7 +3611,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
         <v>32</v>
@@ -3688,85 +3688,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6976502</v>
+        <v>6976505</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>45200.47916666666</v>
+        <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="K38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L38">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="M38">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N38">
         <v>3.2</v>
       </c>
       <c r="O38">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="P38">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q38">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
         <v>1.8</v>
       </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
       <c r="V38">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3774,85 +3774,85 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6976505</v>
+        <v>6976502</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2">
-        <v>45200.375</v>
+        <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J39">
+        <v>2.5</v>
+      </c>
+      <c r="K39">
+        <v>3.4</v>
+      </c>
+      <c r="L39">
         <v>2.375</v>
       </c>
-      <c r="K39">
-        <v>3.3</v>
-      </c>
-      <c r="L39">
-        <v>2.55</v>
-      </c>
       <c r="M39">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N39">
         <v>3.2</v>
       </c>
       <c r="O39">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="P39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q39">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3946,73 +3946,73 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7011532</v>
+        <v>7011533</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2">
-        <v>45206.45833333334</v>
+        <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J41">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="M41">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="N41">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O41">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q41">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R41">
         <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T41">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
         <v>-1</v>
       </c>
       <c r="W41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y41">
         <v>-1</v>
@@ -4021,10 +4021,10 @@
         <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4032,73 +4032,73 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7011533</v>
+        <v>7011532</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2">
-        <v>45206.375</v>
+        <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J42">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L42">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="N42">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P42">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X42">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
@@ -4107,10 +4107,10 @@
         <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4216,7 +4216,7 @@
         <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4290,82 +4290,82 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7011539</v>
+        <v>7011541</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45219.5625</v>
+        <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
         <v>30</v>
       </c>
-      <c r="F45" t="s">
-        <v>34</v>
-      </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>4.2</v>
+      </c>
+      <c r="L45">
+        <v>1.363</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
         <v>4</v>
       </c>
-      <c r="I45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45">
+      <c r="O45">
+        <v>1.363</v>
+      </c>
+      <c r="P45">
+        <v>1.5</v>
+      </c>
+      <c r="Q45">
+        <v>1.75</v>
+      </c>
+      <c r="R45">
+        <v>1.95</v>
+      </c>
+      <c r="S45">
+        <v>2.75</v>
+      </c>
+      <c r="T45">
+        <v>1.9</v>
+      </c>
+      <c r="U45">
+        <v>1.9</v>
+      </c>
+      <c r="V45">
+        <v>-1</v>
+      </c>
+      <c r="W45">
         <v>3</v>
       </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>2.25</v>
-      </c>
-      <c r="M45">
-        <v>3.75</v>
-      </c>
-      <c r="N45">
-        <v>3.2</v>
-      </c>
-      <c r="O45">
-        <v>1.85</v>
-      </c>
-      <c r="P45">
-        <v>0.5</v>
-      </c>
-      <c r="Q45">
-        <v>1.9</v>
-      </c>
-      <c r="R45">
-        <v>1.9</v>
-      </c>
-      <c r="S45">
-        <v>2.5</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>-1</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
       <c r="X45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA45">
-        <v>1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4376,82 +4376,82 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7011541</v>
+        <v>7011539</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2">
-        <v>45219.47916666666</v>
+        <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K46">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O46">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="P46">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q46">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
         <v>-1</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4462,85 +4462,85 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7011538</v>
+        <v>7011540</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45220.45833333334</v>
+        <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J47">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="K47">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4548,85 +4548,85 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7011540</v>
+        <v>7011538</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2">
-        <v>45220.33333333334</v>
+        <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J48">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="K48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L48">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P48">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U48">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4818,7 +4818,7 @@
         <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5245,7 +5245,7 @@
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
         <v>36</v>
@@ -5322,67 +5322,67 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7011547</v>
+        <v>7011591</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2">
-        <v>45234.45833333334</v>
+        <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
       </c>
       <c r="J57">
-        <v>2.75</v>
+        <v>1.125</v>
       </c>
       <c r="K57">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="L57">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="N57">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O57">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="P57">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q57">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T57">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>0.181</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5391,16 +5391,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5408,67 +5408,67 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7011591</v>
+        <v>7011547</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2">
-        <v>45234.375</v>
+        <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
       </c>
       <c r="J58">
-        <v>1.125</v>
+        <v>2.75</v>
       </c>
       <c r="K58">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="M58">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="N58">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O58">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="P58">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q58">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R58">
+        <v>2.05</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>1.725</v>
+      </c>
+      <c r="U58">
         <v>1.975</v>
       </c>
-      <c r="S58">
-        <v>3</v>
-      </c>
-      <c r="T58">
-        <v>1.925</v>
-      </c>
-      <c r="U58">
-        <v>1.875</v>
-      </c>
       <c r="V58">
-        <v>0.181</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5477,16 +5477,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5494,85 +5494,85 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7011548</v>
+        <v>7011551</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45235.47916666666</v>
+        <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>38</v>
       </c>
       <c r="J59">
+        <v>3.6</v>
+      </c>
+      <c r="K59">
+        <v>3.25</v>
+      </c>
+      <c r="L59">
+        <v>1.909</v>
+      </c>
+      <c r="M59">
+        <v>3.1</v>
+      </c>
+      <c r="N59">
+        <v>3.2</v>
+      </c>
+      <c r="O59">
+        <v>2.15</v>
+      </c>
+      <c r="P59">
+        <v>0.25</v>
+      </c>
+      <c r="Q59">
+        <v>1.85</v>
+      </c>
+      <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>2.25</v>
       </c>
-      <c r="K59">
-        <v>3.3</v>
-      </c>
-      <c r="L59">
-        <v>2.75</v>
-      </c>
-      <c r="M59">
-        <v>1.85</v>
-      </c>
-      <c r="N59">
-        <v>3.3</v>
-      </c>
-      <c r="O59">
-        <v>3.75</v>
-      </c>
-      <c r="P59">
+      <c r="T59">
+        <v>1.9</v>
+      </c>
+      <c r="U59">
+        <v>1.9</v>
+      </c>
+      <c r="V59">
+        <v>-1</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>1.15</v>
+      </c>
+      <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>0.95</v>
+      </c>
+      <c r="AA59">
         <v>-0.5</v>
       </c>
-      <c r="Q59">
-        <v>1.9</v>
-      </c>
-      <c r="R59">
-        <v>1.9</v>
-      </c>
-      <c r="S59">
-        <v>2</v>
-      </c>
-      <c r="T59">
-        <v>1.85</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
-      <c r="V59">
-        <v>-1</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>2.75</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5580,65 +5580,65 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7011551</v>
+        <v>7011548</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>45235.375</v>
+        <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
         <v>38</v>
       </c>
       <c r="J60">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="K60">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L60">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N60">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O60">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
+        <v>1.9</v>
+      </c>
+      <c r="R60">
+        <v>1.9</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
         <v>1.85</v>
       </c>
-      <c r="R60">
+      <c r="U60">
         <v>1.95</v>
       </c>
-      <c r="S60">
-        <v>2.25</v>
-      </c>
-      <c r="T60">
-        <v>1.9</v>
-      </c>
-      <c r="U60">
-        <v>1.9</v>
-      </c>
       <c r="V60">
         <v>-1</v>
       </c>
@@ -5646,19 +5646,19 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1.15</v>
+        <v>2.75</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>0.95</v>
-      </c>
-      <c r="AA60">
-        <v>-0.5</v>
-      </c>
-      <c r="AB60">
-        <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -6019,10 +6019,10 @@
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
         <v>29</v>
-      </c>
-      <c r="F65" t="s">
-        <v>30</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6108,7 +6108,7 @@
         <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6182,85 +6182,85 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7011559</v>
+        <v>7011561</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2">
-        <v>45255.375</v>
+        <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J67">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L67">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M67">
         <v>2.15</v>
       </c>
       <c r="N67">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6268,85 +6268,85 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7011561</v>
+        <v>7011559</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45255.29166666666</v>
+        <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J68">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="K68">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
         <v>2.15</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6526,85 +6526,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7011565</v>
+        <v>7011562</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45262.47916666666</v>
+        <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
         <v>40</v>
       </c>
       <c r="J71">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L71">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="M71">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N71">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q71">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S71">
         <v>2.25</v>
       </c>
       <c r="T71">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
         <v>-1</v>
       </c>
       <c r="W71">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
         <v>-0.5</v>
       </c>
-      <c r="Z71">
-        <v>0.425</v>
-      </c>
-      <c r="AA71">
-        <v>0.875</v>
-      </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6612,85 +6612,85 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7011562</v>
+        <v>7011565</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2">
-        <v>45262.375</v>
+        <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
         <v>40</v>
       </c>
       <c r="J72">
+        <v>2.375</v>
+      </c>
+      <c r="K72">
+        <v>3.2</v>
+      </c>
+      <c r="L72">
+        <v>2.625</v>
+      </c>
+      <c r="M72">
         <v>2.2</v>
       </c>
-      <c r="K72">
-        <v>3.4</v>
-      </c>
-      <c r="L72">
-        <v>2.7</v>
-      </c>
-      <c r="M72">
-        <v>1.615</v>
-      </c>
       <c r="N72">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q72">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
         <v>2.25</v>
       </c>
       <c r="T72">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
         <v>-1</v>
       </c>
       <c r="W72">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB72">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6698,85 +6698,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7011566</v>
+        <v>7011563</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45263.41666666666</v>
+        <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73">
+        <v>3.6</v>
+      </c>
+      <c r="K73">
+        <v>3.4</v>
+      </c>
+      <c r="L73">
+        <v>1.85</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>3.75</v>
+      </c>
+      <c r="O73">
+        <v>1.55</v>
+      </c>
+      <c r="P73">
         <v>1</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73">
-        <v>3.1</v>
-      </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
-        <v>2.15</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>-0.25</v>
-      </c>
       <c r="Q73">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6784,85 +6784,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7011563</v>
+        <v>7011566</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45263.33333333334</v>
+        <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J74">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="K74">
+        <v>3.1</v>
+      </c>
+      <c r="L74">
         <v>3.4</v>
       </c>
-      <c r="L74">
-        <v>1.85</v>
-      </c>
       <c r="M74">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N74">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q74">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6879,7 +6879,7 @@
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
         <v>35</v>
@@ -6968,7 +6968,7 @@
         <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7042,85 +7042,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7011567</v>
+        <v>7011570</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2">
-        <v>45269.41666666666</v>
+        <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J77">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
         <v>4</v>
       </c>
       <c r="M77">
+        <v>1.75</v>
+      </c>
+      <c r="N77">
+        <v>3.5</v>
+      </c>
+      <c r="O77">
+        <v>4.2</v>
+      </c>
+      <c r="P77">
+        <v>-0.5</v>
+      </c>
+      <c r="Q77">
+        <v>1.8</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
         <v>2.25</v>
       </c>
-      <c r="N77">
-        <v>2.75</v>
-      </c>
-      <c r="O77">
-        <v>3.5</v>
-      </c>
-      <c r="P77">
-        <v>-0.25</v>
-      </c>
-      <c r="Q77">
-        <v>1.95</v>
-      </c>
-      <c r="R77">
-        <v>1.85</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
       <c r="T77">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7128,85 +7128,85 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7011570</v>
+        <v>7011567</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45269.33333333334</v>
+        <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J78">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K78">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
         <v>4</v>
       </c>
       <c r="M78">
+        <v>2.25</v>
+      </c>
+      <c r="N78">
+        <v>2.75</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <v>-0.25</v>
+      </c>
+      <c r="Q78">
+        <v>1.95</v>
+      </c>
+      <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>2.025</v>
+      </c>
+      <c r="U78">
+        <v>1.775</v>
+      </c>
+      <c r="V78">
+        <v>-1</v>
+      </c>
+      <c r="W78">
         <v>1.75</v>
       </c>
-      <c r="N78">
-        <v>3.5</v>
-      </c>
-      <c r="O78">
-        <v>4.2</v>
-      </c>
-      <c r="P78">
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>-0.5</v>
       </c>
-      <c r="Q78">
-        <v>1.8</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>2.25</v>
-      </c>
-      <c r="T78">
-        <v>1.825</v>
-      </c>
-      <c r="U78">
-        <v>1.975</v>
-      </c>
-      <c r="V78">
-        <v>-1</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>3.2</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7214,67 +7214,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7011568</v>
+        <v>7011571</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45270.45833333334</v>
+        <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>39</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K79">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M79">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P79">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q79">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R79">
         <v>1.95</v>
       </c>
       <c r="S79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>0.75</v>
+        <v>0.363</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7300,67 +7300,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7011571</v>
+        <v>7011568</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2">
-        <v>45270.33333333334</v>
+        <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="s">
         <v>39</v>
       </c>
       <c r="J80">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O80">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P80">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q80">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R80">
         <v>1.95</v>
       </c>
       <c r="S80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>0.363</v>
+        <v>0.75</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7369,13 +7369,13 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7481,7 +7481,7 @@
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
         <v>35</v>
@@ -7739,7 +7739,7 @@
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
         <v>34</v>
@@ -7914,7 +7914,7 @@
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7988,49 +7988,49 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7011578</v>
+        <v>7011577</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2">
-        <v>45284.47916666666</v>
+        <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J88">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="K88">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L88">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="M88">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="N88">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O88">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="P88">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -8042,31 +8042,31 @@
         <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8160,49 +8160,49 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7011577</v>
+        <v>7011578</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2">
-        <v>45284.20833333334</v>
+        <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="K90">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L90">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="M90">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="N90">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O90">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q90">
         <v>1.8</v>
@@ -8214,31 +8214,31 @@
         <v>2.5</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y90">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8332,85 +8332,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7011583</v>
+        <v>7011584</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2">
-        <v>45313.4375</v>
+        <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J92">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K92">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P92">
         <v>0.25</v>
       </c>
       <c r="Q92">
+        <v>1.85</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
         <v>1.75</v>
       </c>
-      <c r="R92">
-        <v>2.05</v>
-      </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
       <c r="T92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V92">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8418,85 +8418,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7011584</v>
+        <v>7011583</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45313.33333333334</v>
+        <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J93">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K93">
+        <v>3.1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
         <v>2.75</v>
       </c>
-      <c r="L93">
-        <v>2.875</v>
-      </c>
-      <c r="M93">
-        <v>3.25</v>
-      </c>
       <c r="N93">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P93">
         <v>0.25</v>
       </c>
       <c r="Q93">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
+        <v>2.25</v>
+      </c>
+      <c r="T93">
+        <v>1.825</v>
+      </c>
+      <c r="U93">
+        <v>1.975</v>
+      </c>
+      <c r="V93">
         <v>1.75</v>
       </c>
-      <c r="T93">
-        <v>1.775</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>-1</v>
-      </c>
       <c r="W93">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8504,85 +8504,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7011582</v>
+        <v>7011586</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45314.5</v>
+        <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="K94">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="M94">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="N94">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="P94">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y94">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8590,85 +8590,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7011586</v>
+        <v>7011582</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2">
-        <v>45314.39583333334</v>
+        <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J95">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="L95">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="M95">
-        <v>2.4</v>
+        <v>1.222</v>
       </c>
       <c r="N95">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O95">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q95">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z95">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8688,7 +8688,7 @@
         <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8774,7 +8774,7 @@
         <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8934,85 +8934,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7011588</v>
+        <v>7011587</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2">
-        <v>45319.4375</v>
+        <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J99">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="K99">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="N99">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T99">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9020,85 +9020,85 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7011587</v>
+        <v>7011588</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2">
-        <v>45319.33333333334</v>
+        <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J100">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="K100">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
+        <v>1.533</v>
+      </c>
+      <c r="N100">
+        <v>3.8</v>
+      </c>
+      <c r="O100">
+        <v>5.25</v>
+      </c>
+      <c r="P100">
+        <v>-1</v>
+      </c>
+      <c r="Q100">
         <v>1.95</v>
       </c>
-      <c r="N100">
-        <v>3.3</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>-0.5</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W100">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9106,85 +9106,85 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7011594</v>
+        <v>7011593</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2">
-        <v>45325.4375</v>
+        <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J101">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="P101">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9192,85 +9192,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7011593</v>
+        <v>7011594</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2">
-        <v>45325.33333333334</v>
+        <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J102">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="K102">
+        <v>3.5</v>
+      </c>
+      <c r="L102">
         <v>4</v>
       </c>
-      <c r="L102">
-        <v>1.4</v>
-      </c>
       <c r="M102">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O102">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q102">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R102">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X102">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9278,85 +9278,85 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7011595</v>
+        <v>7011596</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2">
-        <v>45326.4375</v>
+        <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J103">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L103">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="M103">
         <v>3.4</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O103">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P103">
         <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
         <v>2</v>
       </c>
       <c r="T103">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9364,85 +9364,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7011596</v>
+        <v>7011595</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2">
-        <v>45326.33333333334</v>
+        <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J104">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="K104">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="M104">
         <v>3.4</v>
       </c>
       <c r="N104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P104">
         <v>0.25</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
         <v>2</v>
       </c>
       <c r="T104">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9545,7 +9545,7 @@
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
         <v>32</v>
@@ -9634,7 +9634,7 @@
         <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9708,67 +9708,67 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7011598</v>
+        <v>7011600</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2">
-        <v>45335.52083333334</v>
+        <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
         <v>1</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>39</v>
       </c>
       <c r="J108">
+        <v>1.666</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>3.8</v>
+      </c>
+      <c r="M108">
+        <v>1.727</v>
+      </c>
+      <c r="N108">
+        <v>3.5</v>
+      </c>
+      <c r="O108">
+        <v>3.8</v>
+      </c>
+      <c r="P108">
+        <v>-0.75</v>
+      </c>
+      <c r="Q108">
+        <v>1.975</v>
+      </c>
+      <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
         <v>2.5</v>
       </c>
-      <c r="K108">
-        <v>3</v>
-      </c>
-      <c r="L108">
-        <v>2.6</v>
-      </c>
-      <c r="M108">
-        <v>3.2</v>
-      </c>
-      <c r="N108">
-        <v>2.875</v>
-      </c>
-      <c r="O108">
-        <v>2.2</v>
-      </c>
-      <c r="P108">
-        <v>0.25</v>
-      </c>
-      <c r="Q108">
-        <v>1.85</v>
-      </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
       <c r="T108">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -9777,16 +9777,16 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9880,67 +9880,67 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7011600</v>
+        <v>7011598</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2">
-        <v>45335.33333333334</v>
+        <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
         <v>39</v>
       </c>
       <c r="J110">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="M110">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N110">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="P110">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -9949,16 +9949,16 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9966,82 +9966,82 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7011602</v>
+        <v>7011603</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2">
-        <v>45339.47916666666</v>
+        <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J111">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L111">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M111">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
         <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
+        <v>0.45</v>
+      </c>
+      <c r="Z111">
         <v>-0.5</v>
       </c>
-      <c r="Z111">
-        <v>0.4125</v>
-      </c>
       <c r="AA111">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
         <v>-1</v>
@@ -10052,82 +10052,82 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7011603</v>
+        <v>7011602</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2">
-        <v>45339.375</v>
+        <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112">
+        <v>1.8</v>
+      </c>
+      <c r="K112">
         <v>3</v>
       </c>
-      <c r="H112">
-        <v>2</v>
-      </c>
-      <c r="I112" t="s">
-        <v>39</v>
-      </c>
-      <c r="J112">
-        <v>1.666</v>
-      </c>
-      <c r="K112">
-        <v>3.2</v>
-      </c>
       <c r="L112">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M112">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
         <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB112">
         <v>-1</v>
@@ -10396,85 +10396,85 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7011611</v>
+        <v>7011608</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2">
-        <v>45346.4375</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J116">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M116">
+        <v>2.9</v>
+      </c>
+      <c r="N116">
         <v>3.3</v>
       </c>
-      <c r="N116">
-        <v>3.2</v>
-      </c>
       <c r="O116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P116">
         <v>0.25</v>
       </c>
       <c r="Q116">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
+        <v>-1</v>
+      </c>
+      <c r="W116">
         <v>2.3</v>
       </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10482,85 +10482,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7011608</v>
+        <v>7011611</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2">
-        <v>45346.33333333334</v>
+        <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J117">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L117">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P117">
         <v>0.25</v>
       </c>
       <c r="Q117">
+        <v>2</v>
+      </c>
+      <c r="R117">
         <v>1.8</v>
       </c>
-      <c r="R117">
-        <v>2</v>
-      </c>
       <c r="S117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W117">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10663,7 +10663,7 @@
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -10752,7 +10752,7 @@
         <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10912,85 +10912,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7011612</v>
+        <v>7011616</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>45353.47916666666</v>
+        <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J122">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="K122">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N122">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
+        <v>-0.25</v>
+      </c>
+      <c r="Q122">
+        <v>2.025</v>
+      </c>
+      <c r="R122">
+        <v>1.775</v>
+      </c>
+      <c r="S122">
+        <v>1.75</v>
+      </c>
+      <c r="T122">
+        <v>1.8</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>-1</v>
+      </c>
+      <c r="W122">
+        <v>1.875</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
         <v>-0.5</v>
       </c>
-      <c r="Q122">
-        <v>1.9</v>
-      </c>
-      <c r="R122">
-        <v>1.9</v>
-      </c>
-      <c r="S122">
-        <v>2.25</v>
-      </c>
-      <c r="T122">
-        <v>2.025</v>
-      </c>
-      <c r="U122">
-        <v>1.775</v>
-      </c>
-      <c r="V122">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA122">
+        <v>0.4</v>
+      </c>
+      <c r="AB122">
         <v>-0.5</v>
-      </c>
-      <c r="AB122">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -10998,85 +10998,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7011616</v>
+        <v>7011612</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2">
-        <v>45353.375</v>
+        <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J123">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
+        <v>1.85</v>
+      </c>
+      <c r="N123">
+        <v>3.3</v>
+      </c>
+      <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
+        <v>-0.5</v>
+      </c>
+      <c r="Q123">
+        <v>1.9</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
         <v>2.25</v>
       </c>
-      <c r="N123">
-        <v>2.875</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>-0.25</v>
-      </c>
-      <c r="Q123">
+      <c r="T123">
         <v>2.025</v>
       </c>
-      <c r="R123">
+      <c r="U123">
         <v>1.775</v>
       </c>
-      <c r="S123">
-        <v>1.75</v>
-      </c>
-      <c r="T123">
-        <v>1.8</v>
-      </c>
-      <c r="U123">
-        <v>2</v>
-      </c>
       <c r="V123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W123">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
         <v>-0.5</v>
       </c>
-      <c r="Z123">
+      <c r="AB123">
         <v>0.3875</v>
-      </c>
-      <c r="AA123">
-        <v>0.4</v>
-      </c>
-      <c r="AB123">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11084,64 +11084,64 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7011615</v>
+        <v>7011613</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2">
-        <v>45354.5</v>
+        <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
         <v>29</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
         <v>38</v>
       </c>
       <c r="J124">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L124">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P124">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
         <v>2.5</v>
       </c>
       <c r="T124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V124">
         <v>-1</v>
@@ -11150,16 +11150,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11170,64 +11170,64 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7011613</v>
+        <v>7011615</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45354.375</v>
+        <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
         <v>30</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I125" t="s">
         <v>38</v>
       </c>
       <c r="J125">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="K125">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="M125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N125">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P125">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
         <v>2.5</v>
       </c>
       <c r="T125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U125">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
         <v>-1</v>
@@ -11236,16 +11236,16 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -11265,7 +11265,7 @@
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -11342,82 +11342,82 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7011621</v>
+        <v>7011619</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2">
-        <v>45360.4375</v>
+        <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J127">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="K127">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M127">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O127">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="P127">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q127">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T127">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11428,82 +11428,82 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7011619</v>
+        <v>7011621</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2">
-        <v>45360.33333333334</v>
+        <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J128">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="K128">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M128">
+        <v>1.533</v>
+      </c>
+      <c r="N128">
         <v>4</v>
       </c>
-      <c r="N128">
-        <v>3.4</v>
-      </c>
       <c r="O128">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T128">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11609,7 +11609,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
         <v>33</v>
@@ -11698,7 +11698,7 @@
         <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11772,49 +11772,49 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7011622</v>
+        <v>7011625</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="2">
-        <v>45367.47916666666</v>
+        <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J132">
         <v>1.85</v>
       </c>
       <c r="K132">
+        <v>3.1</v>
+      </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
+      <c r="M132">
+        <v>1.727</v>
+      </c>
+      <c r="N132">
         <v>3.2</v>
       </c>
-      <c r="L132">
-        <v>3.8</v>
-      </c>
-      <c r="M132">
-        <v>1.909</v>
-      </c>
-      <c r="N132">
-        <v>3.1</v>
-      </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P132">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q132">
         <v>1.975</v>
@@ -11832,25 +11832,25 @@
         <v>1.725</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W132">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11858,49 +11858,49 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7011625</v>
+        <v>7011622</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2">
-        <v>45367.375</v>
+        <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.85</v>
       </c>
       <c r="K133">
+        <v>3.2</v>
+      </c>
+      <c r="L133">
+        <v>3.8</v>
+      </c>
+      <c r="M133">
+        <v>1.909</v>
+      </c>
+      <c r="N133">
         <v>3.1</v>
       </c>
-      <c r="L133">
-        <v>4</v>
-      </c>
-      <c r="M133">
-        <v>1.727</v>
-      </c>
-      <c r="N133">
-        <v>3.2</v>
-      </c>
       <c r="O133">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q133">
         <v>1.975</v>
@@ -11918,25 +11918,25 @@
         <v>1.725</v>
       </c>
       <c r="V133">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
+        <v>0.825</v>
+      </c>
+      <c r="AA133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11944,64 +11944,64 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7011623</v>
+        <v>7011626</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2">
-        <v>45368.5</v>
+        <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134" t="s">
         <v>38</v>
       </c>
       <c r="J134">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="K134">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L134">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M134">
+        <v>4.5</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134">
+        <v>1.55</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>1.8</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
         <v>2.75</v>
       </c>
-      <c r="N134">
-        <v>3.5</v>
-      </c>
-      <c r="O134">
-        <v>2.15</v>
-      </c>
-      <c r="P134">
-        <v>0.25</v>
-      </c>
-      <c r="Q134">
-        <v>1.85</v>
-      </c>
-      <c r="R134">
-        <v>1.95</v>
-      </c>
-      <c r="S134">
-        <v>2.25</v>
-      </c>
       <c r="T134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
         <v>-1</v>
@@ -12010,16 +12010,16 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12030,64 +12030,64 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7011626</v>
+        <v>7011623</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2">
-        <v>45368.375</v>
+        <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
         <v>38</v>
       </c>
       <c r="J135">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="K135">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L135">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M135">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N135">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O135">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="P135">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q135">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
         <v>-1</v>
@@ -12096,16 +12096,16 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12214,7 +12214,7 @@
         <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12297,7 +12297,7 @@
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
         <v>36</v>
@@ -12727,10 +12727,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" t="s">
         <v>29</v>
-      </c>
-      <c r="F143" t="s">
-        <v>30</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12804,46 +12804,46 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7011636</v>
+        <v>7011635</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2">
-        <v>45389.54166666666</v>
+        <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J144">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M144">
         <v>1.727</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
         <v>-0.5</v>
@@ -12858,31 +12858,31 @@
         <v>2.25</v>
       </c>
       <c r="T144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12890,46 +12890,46 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7011635</v>
+        <v>7011636</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2">
-        <v>45389.39583333334</v>
+        <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>40</v>
+      </c>
+      <c r="J145">
+        <v>1.727</v>
+      </c>
+      <c r="K145">
+        <v>3.6</v>
+      </c>
+      <c r="L145">
         <v>4</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145" t="s">
-        <v>39</v>
-      </c>
-      <c r="J145">
-        <v>1.4</v>
-      </c>
-      <c r="K145">
-        <v>4.333</v>
-      </c>
-      <c r="L145">
-        <v>6</v>
       </c>
       <c r="M145">
         <v>1.727</v>
       </c>
       <c r="N145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P145">
         <v>-0.5</v>
@@ -12944,31 +12944,31 @@
         <v>2.25</v>
       </c>
       <c r="T145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13062,82 +13062,82 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7011637</v>
+        <v>7011639</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45395.5</v>
+        <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>38</v>
+      </c>
+      <c r="J147">
         <v>3</v>
       </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147" t="s">
-        <v>39</v>
-      </c>
-      <c r="J147">
-        <v>1.833</v>
-      </c>
       <c r="K147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="M147">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N147">
         <v>3.4</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="P147">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
         <v>2.25</v>
       </c>
       <c r="T147">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13148,82 +13148,82 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7011639</v>
+        <v>7011637</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45395.39583333334</v>
+        <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J148">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="K148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N148">
         <v>3.4</v>
       </c>
       <c r="O148">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="P148">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q148">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S148">
         <v>2.25</v>
       </c>
       <c r="T148">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13243,7 +13243,7 @@
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
         <v>31</v>
@@ -13332,7 +13332,7 @@
         <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13492,82 +13492,82 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7025505</v>
+        <v>7029131</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152" s="2">
-        <v>45402.5</v>
+        <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J152">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="K152">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L152">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M152">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O152">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P152">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T152">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U152">
         <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -13578,82 +13578,82 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7029131</v>
+        <v>7025505</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="2">
-        <v>45402.39583333334</v>
+        <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J153">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="K153">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="L153">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M153">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="N153">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P153">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U153">
         <v>1.975</v>
       </c>
       <c r="V153">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W153">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -13664,22 +13664,22 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7020806</v>
+        <v>7027687</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
       </c>
       <c r="D154" s="2">
-        <v>45403.5</v>
+        <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -13688,40 +13688,40 @@
         <v>38</v>
       </c>
       <c r="J154">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K154">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M154">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N154">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O154">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="P154">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q154">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>2.75</v>
+      </c>
+      <c r="T154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2.5</v>
-      </c>
-      <c r="T154">
-        <v>1.925</v>
-      </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V154">
         <v>-1</v>
@@ -13730,19 +13730,19 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB154">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13750,22 +13750,22 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7027687</v>
+        <v>7020806</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
       </c>
       <c r="D155" s="2">
-        <v>45403.39583333334</v>
+        <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -13774,40 +13774,40 @@
         <v>38</v>
       </c>
       <c r="J155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K155">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L155">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N155">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O155">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="P155">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q155">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
         <v>-1</v>
@@ -13816,19 +13816,19 @@
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="Y155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13848,7 +13848,7 @@
         <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -14106,7 +14106,7 @@
         <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7086875</t>
+  </si>
+  <si>
+    <t>7097671</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB160"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +601,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -613,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -681,16 +687,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -699,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -767,16 +773,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -785,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -853,16 +859,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -939,16 +945,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1025,16 +1031,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1111,16 +1117,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1129,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1197,16 +1203,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1283,16 +1289,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1301,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1369,16 +1375,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1387,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1455,16 +1461,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1473,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1541,16 +1547,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1559,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1627,16 +1633,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1713,16 +1719,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1731,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1799,16 +1805,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1817,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1885,16 +1891,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1903,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1971,16 +1977,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2057,16 +2063,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2075,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2143,16 +2149,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2161,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2229,16 +2235,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2247,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2315,16 +2321,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2333,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2401,16 +2407,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2419,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2487,16 +2493,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2505,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2573,16 +2579,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2591,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2659,16 +2665,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2677,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2745,16 +2751,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2763,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2831,16 +2837,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2917,16 +2923,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3003,16 +3009,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3021,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3089,16 +3095,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3107,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3175,16 +3181,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3193,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3261,16 +3267,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3279,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3347,16 +3353,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3365,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3433,16 +3439,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3451,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3519,16 +3525,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
         <v>36</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3537,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3605,16 +3611,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3623,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3691,16 +3697,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3709,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3777,16 +3783,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3795,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3863,16 +3869,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3881,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3949,16 +3955,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3967,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4035,16 +4041,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4053,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4121,16 +4127,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4139,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4207,16 +4213,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4225,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4293,16 +4299,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4311,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4379,16 +4385,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4397,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4465,16 +4471,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4483,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4551,16 +4557,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4569,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4637,16 +4643,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4655,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4723,16 +4729,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4809,16 +4815,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4827,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4895,16 +4901,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4913,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4981,17 +4987,17 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
         <v>37</v>
       </c>
-      <c r="F53" t="s">
-        <v>35</v>
-      </c>
       <c r="G53">
         <v>0</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5067,16 +5073,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
         <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5085,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5153,16 +5159,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5171,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5239,16 +5245,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5257,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5325,16 +5331,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5343,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5411,16 +5417,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5497,16 +5503,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5515,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5583,16 +5589,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5669,16 +5675,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5687,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5755,16 +5761,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5773,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5841,16 +5847,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5859,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5927,16 +5933,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6013,16 +6019,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6031,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6099,16 +6105,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
         <v>32</v>
-      </c>
-      <c r="F66" t="s">
-        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6185,16 +6191,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6203,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6271,16 +6277,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6289,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6357,16 +6363,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6375,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6443,16 +6449,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6461,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6529,16 +6535,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6547,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6615,16 +6621,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6633,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6701,16 +6707,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6719,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6787,16 +6793,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6805,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6873,16 +6879,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6891,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6959,16 +6965,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6977,7 +6983,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7045,16 +7051,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7063,7 +7069,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7131,16 +7137,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7149,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7217,16 +7223,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7235,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7303,16 +7309,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7321,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7389,16 +7395,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7407,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7475,16 +7481,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7493,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7561,16 +7567,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7579,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7647,16 +7653,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7665,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7733,16 +7739,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7751,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7819,16 +7825,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7837,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7905,16 +7911,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7923,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7991,16 +7997,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8009,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,16 +8083,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8095,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8163,16 +8169,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8181,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8249,16 +8255,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8267,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8335,16 +8341,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8353,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8421,16 +8427,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8507,16 +8513,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8525,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8593,16 +8599,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
         <v>30</v>
-      </c>
-      <c r="F95" t="s">
-        <v>28</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8611,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8679,16 +8685,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8697,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8765,16 +8771,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8783,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8851,16 +8857,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8869,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8937,16 +8943,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8955,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9023,16 +9029,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9041,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9109,16 +9115,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9127,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9195,16 +9201,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9213,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9281,16 +9287,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9299,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9367,16 +9373,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
         <v>35</v>
-      </c>
-      <c r="F104" t="s">
-        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9385,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9453,16 +9459,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9471,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9539,16 +9545,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9557,7 +9563,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9625,16 +9631,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s">
         <v>31</v>
-      </c>
-      <c r="F107" t="s">
-        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9643,7 +9649,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9711,16 +9717,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9729,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9797,16 +9803,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9815,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9883,16 +9889,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9901,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9969,16 +9975,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9987,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10055,16 +10061,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10073,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10141,16 +10147,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10159,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10227,16 +10233,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10245,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10313,16 +10319,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10331,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10399,16 +10405,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
         <v>36</v>
-      </c>
-      <c r="F116" t="s">
-        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10417,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10485,16 +10491,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10503,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10571,16 +10577,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10589,7 +10595,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10657,16 +10663,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10675,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10743,16 +10749,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10761,7 +10767,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10829,16 +10835,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10847,7 +10853,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10915,16 +10921,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10933,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11001,16 +11007,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11019,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11087,16 +11093,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11105,7 +11111,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11173,16 +11179,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11191,7 +11197,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11259,16 +11265,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11277,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11345,16 +11351,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11363,7 +11369,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11431,16 +11437,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11517,16 +11523,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11535,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11603,16 +11609,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11621,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11689,16 +11695,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11707,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11775,16 +11781,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" t="s">
         <v>33</v>
-      </c>
-      <c r="F132" t="s">
-        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11793,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11861,16 +11867,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11879,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11947,16 +11953,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11965,7 +11971,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12033,16 +12039,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12051,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12119,16 +12125,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12137,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12205,16 +12211,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12223,7 +12229,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12291,16 +12297,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12309,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12377,16 +12383,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12395,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12463,16 +12469,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12481,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12549,16 +12555,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12567,7 +12573,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12635,16 +12641,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12653,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12721,16 +12727,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12739,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12807,16 +12813,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12825,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12893,16 +12899,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12917,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12979,16 +12985,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -12997,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13065,16 +13071,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13151,16 +13157,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13169,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13237,16 +13243,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13255,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13323,16 +13329,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" t="s">
         <v>32</v>
-      </c>
-      <c r="F150" t="s">
-        <v>30</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13341,7 +13347,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13409,16 +13415,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13427,7 +13433,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13495,16 +13501,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13513,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13581,16 +13587,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13599,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13667,16 +13673,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13685,7 +13691,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13753,16 +13759,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13771,7 +13777,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13839,16 +13845,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13857,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13925,16 +13931,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13943,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14011,16 +14017,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14029,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14097,16 +14103,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14115,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14183,16 +14189,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14201,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14259,6 +14265,136 @@
       </c>
       <c r="AB160">
         <v>1.025</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45416.39583333334</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s">
+        <v>39</v>
+      </c>
+      <c r="J161">
+        <v>4.333</v>
+      </c>
+      <c r="K161">
+        <v>3.75</v>
+      </c>
+      <c r="L161">
+        <v>1.615</v>
+      </c>
+      <c r="M161">
+        <v>3.8</v>
+      </c>
+      <c r="N161">
+        <v>3.6</v>
+      </c>
+      <c r="O161">
+        <v>1.727</v>
+      </c>
+      <c r="P161">
+        <v>0.75</v>
+      </c>
+      <c r="Q161">
+        <v>1.825</v>
+      </c>
+      <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
+        <v>2.5</v>
+      </c>
+      <c r="T161">
+        <v>1.85</v>
+      </c>
+      <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45416.52083333334</v>
+      </c>
+      <c r="E162" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="J162">
+        <v>1.571</v>
+      </c>
+      <c r="K162">
+        <v>3.8</v>
+      </c>
+      <c r="L162">
+        <v>4.75</v>
+      </c>
+      <c r="M162">
+        <v>1.6</v>
+      </c>
+      <c r="N162">
+        <v>3.8</v>
+      </c>
+      <c r="O162">
+        <v>4.5</v>
+      </c>
+      <c r="P162">
+        <v>-1</v>
+      </c>
+      <c r="Q162">
+        <v>2.025</v>
+      </c>
+      <c r="R162">
+        <v>1.775</v>
+      </c>
+      <c r="S162">
+        <v>2.75</v>
+      </c>
+      <c r="T162">
+        <v>1.9</v>
+      </c>
+      <c r="U162">
+        <v>1.9</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7086875</t>
-  </si>
-  <si>
-    <t>7097671</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -504,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +595,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -619,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -687,16 +681,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -705,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -773,16 +767,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -791,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -859,16 +853,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -945,16 +939,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -963,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1031,16 +1025,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1049,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1117,16 +1111,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1135,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1203,16 +1197,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1289,16 +1283,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1307,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1375,16 +1369,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1393,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1461,16 +1455,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1479,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1547,16 +1541,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1565,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1633,16 +1627,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1651,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1719,16 +1713,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1737,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1805,16 +1799,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1823,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1891,16 +1885,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1977,16 +1971,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2063,16 +2057,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2081,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2149,16 +2143,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2167,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2235,16 +2229,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2253,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2321,16 +2315,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2339,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2407,16 +2401,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2425,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2493,16 +2487,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2511,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2579,16 +2573,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2597,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2665,16 +2659,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2683,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2751,16 +2745,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2769,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2837,16 +2831,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2855,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2923,16 +2917,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3009,16 +3003,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
         <v>32</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3027,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3095,16 +3089,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3113,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3181,16 +3175,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3199,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3267,16 +3261,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3285,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3353,16 +3347,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3371,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3439,16 +3433,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3457,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3525,16 +3519,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3543,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3611,16 +3605,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3629,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3697,16 +3691,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3715,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3783,16 +3777,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3869,16 +3863,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3887,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3955,16 +3949,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3973,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4041,16 +4035,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4059,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4127,16 +4121,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4145,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4213,16 +4207,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4231,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4299,16 +4293,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4317,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4385,16 +4379,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4471,16 +4465,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
         <v>33</v>
-      </c>
-      <c r="F47" t="s">
-        <v>35</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4489,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4557,16 +4551,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4575,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4643,16 +4637,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4661,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4729,16 +4723,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4815,16 +4809,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4833,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4901,16 +4895,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4919,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4987,16 +4981,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5005,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5073,16 +5067,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5091,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5159,16 +5153,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
         <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>32</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5177,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5245,16 +5239,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5263,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5331,16 +5325,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5349,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5417,16 +5411,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5435,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5503,16 +5497,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5521,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5589,16 +5583,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5675,16 +5669,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5693,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5761,16 +5755,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5847,16 +5841,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5865,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5933,16 +5927,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
         <v>35</v>
-      </c>
-      <c r="F64" t="s">
-        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5951,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6019,16 +6013,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6037,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6105,16 +6099,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6123,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6191,16 +6185,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
         <v>31</v>
-      </c>
-      <c r="F67" t="s">
-        <v>33</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6209,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6277,16 +6271,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6295,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6363,16 +6357,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6381,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6449,16 +6443,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6467,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6535,16 +6529,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6621,16 +6615,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6639,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6707,16 +6701,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6725,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6793,16 +6787,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6811,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6879,16 +6873,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6897,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6965,16 +6959,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6983,7 +6977,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7051,16 +7045,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7069,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7137,16 +7131,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7155,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7223,16 +7217,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7241,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7309,16 +7303,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" t="s">
         <v>36</v>
-      </c>
-      <c r="F80" t="s">
-        <v>38</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7327,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7395,16 +7389,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7481,16 +7475,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7499,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7567,16 +7561,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7585,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7653,16 +7647,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7671,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7739,16 +7733,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7825,16 +7819,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7843,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7911,16 +7905,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7929,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7997,16 +7991,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8015,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8083,16 +8077,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8169,16 +8163,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8255,16 +8249,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
         <v>34</v>
-      </c>
-      <c r="F91" t="s">
-        <v>36</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8273,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8341,16 +8335,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8359,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8427,16 +8421,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8513,16 +8507,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" t="s">
         <v>37</v>
-      </c>
-      <c r="F94" t="s">
-        <v>39</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8531,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8599,16 +8593,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8617,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8685,16 +8679,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8703,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8771,16 +8765,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8789,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8857,16 +8851,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8875,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8943,16 +8937,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8961,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9029,16 +9023,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9047,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9115,16 +9109,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9133,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9201,16 +9195,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9287,16 +9281,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9305,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9373,16 +9367,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9391,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9459,16 +9453,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9477,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9545,16 +9539,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" t="s">
         <v>32</v>
-      </c>
-      <c r="F106" t="s">
-        <v>34</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9563,7 +9557,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9631,16 +9625,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9717,16 +9711,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9735,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9803,16 +9797,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9821,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9889,16 +9883,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9907,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9975,16 +9969,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9993,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10061,16 +10055,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10079,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10147,16 +10141,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10165,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10233,16 +10227,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10251,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10319,16 +10313,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10337,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10405,16 +10399,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10423,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10491,16 +10485,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10509,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10577,16 +10571,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10595,7 +10589,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10663,16 +10657,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10681,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10749,16 +10743,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10767,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10835,16 +10829,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10853,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10921,16 +10915,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10939,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11007,16 +11001,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11093,16 +11087,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11179,16 +11173,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11265,16 +11259,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11283,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11351,16 +11345,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11369,7 +11363,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11437,16 +11431,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11455,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11523,16 +11517,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11609,16 +11603,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11627,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11695,16 +11689,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11713,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11781,16 +11775,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11799,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11867,16 +11861,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11885,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11953,16 +11947,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11971,7 +11965,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12039,16 +12033,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12057,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12125,16 +12119,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12143,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12211,16 +12205,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12229,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12297,16 +12291,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12315,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12383,16 +12377,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12401,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12469,16 +12463,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12555,16 +12549,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12573,7 +12567,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12641,16 +12635,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12659,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12727,16 +12721,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12745,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12813,16 +12807,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" t="s">
         <v>35</v>
-      </c>
-      <c r="F144" t="s">
-        <v>37</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12831,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12899,16 +12893,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12917,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12985,16 +12979,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13003,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13071,16 +13065,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13089,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13157,16 +13151,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13175,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13243,16 +13237,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" t="s">
         <v>31</v>
-      </c>
-      <c r="F149" t="s">
-        <v>33</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13261,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13329,16 +13323,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13347,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13415,16 +13409,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13433,7 +13427,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13501,16 +13495,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13519,7 +13513,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13587,16 +13581,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13605,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13673,16 +13667,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13691,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13759,16 +13753,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13777,7 +13771,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13845,16 +13839,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13863,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13931,16 +13925,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13949,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14017,16 +14011,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" t="s">
         <v>36</v>
-      </c>
-      <c r="F158" t="s">
-        <v>38</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14035,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14103,16 +14097,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14121,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14189,16 +14183,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14207,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14267,24 +14261,33 @@
         <v>1.025</v>
       </c>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:28">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>27</v>
+      <c r="B161">
+        <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>40</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14296,60 +14299,81 @@
         <v>1.615</v>
       </c>
       <c r="M161">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O161">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="P161">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
         <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W161">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>28</v>
+      <c r="B162">
+        <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G162">
+        <v>5</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>39</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14361,10 +14385,10 @@
         <v>4.75</v>
       </c>
       <c r="M162">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="N162">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O162">
         <v>4.5</v>
@@ -14373,28 +14397,298 @@
         <v>-1</v>
       </c>
       <c r="Q162">
+        <v>1.775</v>
+      </c>
+      <c r="R162">
         <v>2.025</v>
       </c>
-      <c r="R162">
+      <c r="S162">
+        <v>3.25</v>
+      </c>
+      <c r="T162">
+        <v>1.825</v>
+      </c>
+      <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
+        <v>0.5</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>0.825</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7086876</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45417.39583333334</v>
+      </c>
+      <c r="E163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" t="s">
+        <v>33</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163" t="s">
+        <v>38</v>
+      </c>
+      <c r="J163">
+        <v>2.625</v>
+      </c>
+      <c r="K163">
+        <v>3.2</v>
+      </c>
+      <c r="L163">
+        <v>2.4</v>
+      </c>
+      <c r="M163">
+        <v>2.8</v>
+      </c>
+      <c r="N163">
+        <v>2.9</v>
+      </c>
+      <c r="O163">
+        <v>2.4</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>2.05</v>
+      </c>
+      <c r="R163">
+        <v>1.75</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>2.025</v>
+      </c>
+      <c r="U163">
         <v>1.775</v>
       </c>
-      <c r="S162">
+      <c r="V163">
+        <v>-1</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>1.4</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>0.75</v>
+      </c>
+      <c r="AA163">
+        <v>1.025</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7096226</v>
+      </c>
+      <c r="C164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>38</v>
+      </c>
+      <c r="J164">
+        <v>4.5</v>
+      </c>
+      <c r="K164">
+        <v>3.75</v>
+      </c>
+      <c r="L164">
+        <v>1.6</v>
+      </c>
+      <c r="M164">
+        <v>3.2</v>
+      </c>
+      <c r="N164">
+        <v>3.25</v>
+      </c>
+      <c r="O164">
+        <v>2.05</v>
+      </c>
+      <c r="P164">
+        <v>0.25</v>
+      </c>
+      <c r="Q164">
+        <v>2</v>
+      </c>
+      <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2.25</v>
+      </c>
+      <c r="T164">
+        <v>1.95</v>
+      </c>
+      <c r="U164">
+        <v>1.85</v>
+      </c>
+      <c r="V164">
+        <v>-1</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>1.05</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>0.8</v>
+      </c>
+      <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7092324</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45418.5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165" t="s">
+        <v>38</v>
+      </c>
+      <c r="J165">
+        <v>1.833</v>
+      </c>
+      <c r="K165">
+        <v>3.5</v>
+      </c>
+      <c r="L165">
+        <v>3.5</v>
+      </c>
+      <c r="M165">
+        <v>1.533</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165">
+        <v>4.75</v>
+      </c>
+      <c r="P165">
+        <v>-1</v>
+      </c>
+      <c r="Q165">
+        <v>1.825</v>
+      </c>
+      <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
         <v>2.75</v>
       </c>
-      <c r="T162">
-        <v>1.9</v>
-      </c>
-      <c r="U162">
-        <v>1.9</v>
-      </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="X162">
-        <v>0</v>
+      <c r="T165">
+        <v>1.85</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
+        <v>-1</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>3.75</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA165">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7133550</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -498,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +598,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -613,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -681,16 +684,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -699,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -767,16 +770,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -785,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -853,16 +856,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -871,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -939,16 +942,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1025,16 +1028,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1111,16 +1114,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1129,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1197,16 +1200,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1283,16 +1286,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1301,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1369,16 +1372,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1387,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1455,16 +1458,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1473,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1541,16 +1544,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1559,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1627,16 +1630,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1713,16 +1716,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1731,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1799,16 +1802,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1817,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1885,16 +1888,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1903,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1971,16 +1974,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2057,16 +2060,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2075,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2143,16 +2146,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2161,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2229,16 +2232,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2247,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2315,16 +2318,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2333,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2401,16 +2404,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2419,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2487,16 +2490,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2505,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2573,16 +2576,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2591,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2659,16 +2662,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2677,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2745,16 +2748,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2763,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2831,16 +2834,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2849,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2917,17 +2920,17 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" t="s">
-        <v>35</v>
-      </c>
       <c r="G29">
         <v>2</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3003,16 +3006,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3021,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3089,17 +3092,17 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3175,17 +3178,17 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
       <c r="G32">
         <v>2</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3261,16 +3264,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
         <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3279,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3347,16 +3350,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3365,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3433,16 +3436,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3451,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3519,16 +3522,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3537,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3605,16 +3608,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3623,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3691,16 +3694,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3709,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3777,16 +3780,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3795,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3863,16 +3866,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3881,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3949,16 +3952,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3967,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4035,16 +4038,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4053,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4121,16 +4124,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4139,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4207,16 +4210,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4225,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4293,16 +4296,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4311,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4379,16 +4382,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4397,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4465,16 +4468,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4483,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4551,16 +4554,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4569,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4637,16 +4640,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4655,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4723,16 +4726,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4809,16 +4812,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4827,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4895,16 +4898,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4913,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4981,16 +4984,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4999,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5067,16 +5070,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5085,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5153,16 +5156,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5171,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5239,16 +5242,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5257,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5325,16 +5328,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5343,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5411,16 +5414,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5497,17 +5500,17 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="s">
-        <v>34</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5583,16 +5586,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5669,16 +5672,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5687,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5755,16 +5758,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5773,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5841,16 +5844,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5859,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5927,16 +5930,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6013,16 +6016,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
         <v>30</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6031,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6099,16 +6102,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6185,16 +6188,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6203,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6271,16 +6274,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6289,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6357,16 +6360,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6375,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6443,16 +6446,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6461,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6529,16 +6532,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6547,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6615,16 +6618,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6633,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6701,16 +6704,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6719,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6787,16 +6790,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
         <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6805,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6873,16 +6876,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6891,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6959,16 +6962,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6977,7 +6980,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7045,16 +7048,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7063,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7131,16 +7134,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7149,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7217,16 +7220,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7303,16 +7306,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7321,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7389,16 +7392,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7407,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7475,16 +7478,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7493,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7561,16 +7564,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7579,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7647,16 +7650,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7665,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7733,16 +7736,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7751,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7819,16 +7822,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7837,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7905,16 +7908,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7923,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7991,16 +7994,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8009,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,16 +8080,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8095,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8163,16 +8166,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8181,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8249,16 +8252,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8267,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8335,16 +8338,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8353,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8421,16 +8424,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8507,16 +8510,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8525,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8593,16 +8596,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8611,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8679,16 +8682,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8697,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8765,16 +8768,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
         <v>31</v>
-      </c>
-      <c r="F97" t="s">
-        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8783,7 +8786,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8851,16 +8854,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
         <v>33</v>
-      </c>
-      <c r="F98" t="s">
-        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8869,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8937,16 +8940,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8955,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9023,16 +9026,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9041,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9109,16 +9112,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9127,7 +9130,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9195,16 +9198,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9213,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9281,16 +9284,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9299,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9367,16 +9370,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9385,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9453,16 +9456,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9471,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9539,16 +9542,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9557,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9625,16 +9628,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9643,7 +9646,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9711,16 +9714,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" t="s">
         <v>36</v>
-      </c>
-      <c r="F108" t="s">
-        <v>35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9729,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9797,16 +9800,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9815,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9883,16 +9886,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9901,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9969,16 +9972,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
         <v>32</v>
-      </c>
-      <c r="F111" t="s">
-        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9987,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10055,17 +10058,17 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
         <v>29</v>
       </c>
-      <c r="F112" t="s">
-        <v>28</v>
-      </c>
       <c r="G112">
         <v>2</v>
       </c>
@@ -10073,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10141,17 +10144,17 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
         <v>37</v>
       </c>
-      <c r="F113" t="s">
-        <v>36</v>
-      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -10159,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10227,16 +10230,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>34</v>
-      </c>
-      <c r="F114" t="s">
-        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10245,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10313,16 +10316,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10331,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10399,16 +10402,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10417,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10485,16 +10488,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10503,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10571,16 +10574,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10589,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10657,16 +10660,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10675,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10743,16 +10746,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10761,7 +10764,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10829,16 +10832,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10847,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10915,16 +10918,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10933,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11001,16 +11004,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11019,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11087,16 +11090,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11105,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11173,16 +11176,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11191,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11259,16 +11262,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11277,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11345,16 +11348,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11363,7 +11366,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11431,16 +11434,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11517,16 +11520,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11535,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11603,16 +11606,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11621,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11689,16 +11692,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11707,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11775,16 +11778,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11793,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11861,16 +11864,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11879,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11947,16 +11950,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11965,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12033,16 +12036,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12051,7 +12054,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12119,16 +12122,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" t="s">
         <v>35</v>
-      </c>
-      <c r="F136" t="s">
-        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12137,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12205,16 +12208,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" t="s">
         <v>31</v>
-      </c>
-      <c r="F137" t="s">
-        <v>30</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12223,7 +12226,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12291,16 +12294,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12309,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12377,16 +12380,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12395,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12463,16 +12466,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12481,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12549,16 +12552,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12567,7 +12570,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12635,16 +12638,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12653,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12721,16 +12724,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" t="s">
         <v>30</v>
-      </c>
-      <c r="F143" t="s">
-        <v>29</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12739,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12807,16 +12810,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12825,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12893,16 +12896,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12979,16 +12982,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -12997,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13065,16 +13068,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13151,16 +13154,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13169,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13237,16 +13240,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13255,7 +13258,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13323,16 +13326,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13341,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13409,16 +13412,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13427,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13495,16 +13498,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13513,7 +13516,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13581,16 +13584,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13599,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13667,16 +13670,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13685,7 +13688,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13753,16 +13756,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13771,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13839,16 +13842,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13857,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13925,16 +13928,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13943,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14011,16 +14014,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14029,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14097,16 +14100,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14115,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14183,16 +14186,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14201,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14269,16 +14272,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14287,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14355,16 +14358,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14373,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14441,16 +14444,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14459,7 +14462,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14527,16 +14530,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14545,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14613,16 +14616,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14631,7 +14634,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14689,6 +14692,71 @@
       </c>
       <c r="AB165">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45422.5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>35</v>
+      </c>
+      <c r="F166" t="s">
+        <v>32</v>
+      </c>
+      <c r="J166">
+        <v>1.615</v>
+      </c>
+      <c r="K166">
+        <v>3.4</v>
+      </c>
+      <c r="L166">
+        <v>5</v>
+      </c>
+      <c r="M166">
+        <v>1.5</v>
+      </c>
+      <c r="N166">
+        <v>3.6</v>
+      </c>
+      <c r="O166">
+        <v>6</v>
+      </c>
+      <c r="P166">
+        <v>-1</v>
+      </c>
+      <c r="Q166">
+        <v>1.8</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
+        <v>2.75</v>
+      </c>
+      <c r="T166">
+        <v>1.9</v>
+      </c>
+      <c r="U166">
+        <v>1.9</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7133550</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -501,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB166"/>
+  <dimension ref="A1:AB165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,16 +595,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -616,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -684,16 +681,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -702,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -770,16 +767,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -788,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -856,16 +853,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -942,16 +939,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1028,16 +1025,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1114,16 +1111,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1132,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1200,16 +1197,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1218,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1286,16 +1283,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1304,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1372,16 +1369,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1390,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1458,16 +1455,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1476,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1544,16 +1541,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1630,16 +1627,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1648,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1716,16 +1713,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1734,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1802,16 +1799,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1820,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1888,16 +1885,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1906,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1974,16 +1971,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1992,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2060,16 +2057,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2078,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2146,16 +2143,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2164,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2232,16 +2229,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2250,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2318,16 +2315,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2336,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2404,16 +2401,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2422,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2490,16 +2487,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2508,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2576,16 +2573,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2594,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2662,16 +2659,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2680,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2748,16 +2745,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2766,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2834,16 +2831,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2852,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2920,16 +2917,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2938,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3006,16 +3003,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3024,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3092,16 +3089,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3110,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3178,16 +3175,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3196,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3264,16 +3261,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3350,16 +3347,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3368,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3436,16 +3433,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3454,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3522,16 +3519,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3540,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3608,16 +3605,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3626,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3694,16 +3691,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3712,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3780,16 +3777,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3798,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3866,16 +3863,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3884,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3952,16 +3949,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3970,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4038,16 +4035,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4056,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4124,16 +4121,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4142,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4210,16 +4207,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4228,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4296,16 +4293,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4314,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4382,16 +4379,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4400,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4468,16 +4465,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4486,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4554,16 +4551,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4572,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4640,16 +4637,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4658,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4726,16 +4723,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4744,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4812,16 +4809,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4830,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4898,16 +4895,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4916,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4984,16 +4981,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5002,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5070,16 +5067,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5088,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5156,16 +5153,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5174,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5242,16 +5239,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5260,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5328,16 +5325,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
         <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>32</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5346,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5414,16 +5411,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5432,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5500,16 +5497,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5518,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5586,16 +5583,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
         <v>33</v>
-      </c>
-      <c r="F60" t="s">
-        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5604,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5672,16 +5669,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5690,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5758,16 +5755,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5776,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5844,16 +5841,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5862,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5930,16 +5927,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5948,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6016,16 +6013,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6034,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6102,16 +6099,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6120,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6188,16 +6185,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6206,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6274,16 +6271,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s">
         <v>36</v>
-      </c>
-      <c r="F68" t="s">
-        <v>37</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6292,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6360,16 +6357,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6378,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6446,16 +6443,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6464,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6532,16 +6529,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
         <v>29</v>
-      </c>
-      <c r="F71" t="s">
-        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6550,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6618,17 +6615,17 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
         <v>37</v>
       </c>
-      <c r="F72" t="s">
-        <v>38</v>
-      </c>
       <c r="G72">
         <v>2</v>
       </c>
@@ -6636,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6704,16 +6701,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" t="s">
         <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6722,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6790,16 +6787,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6808,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6876,16 +6873,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6894,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6962,16 +6959,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6980,7 +6977,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7048,16 +7045,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7066,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7134,16 +7131,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7152,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7220,16 +7217,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7238,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7306,16 +7303,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7324,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7392,16 +7389,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7410,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7478,16 +7475,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7496,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7564,16 +7561,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7582,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7650,16 +7647,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7668,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7736,16 +7733,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7754,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7822,16 +7819,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7840,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7908,16 +7905,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7926,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7994,16 +7991,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8012,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8080,16 +8077,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8098,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8166,16 +8163,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8184,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8252,16 +8249,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8270,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8338,16 +8335,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8356,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8424,16 +8421,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8442,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8510,16 +8507,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8528,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8596,16 +8593,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8614,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8682,16 +8679,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8700,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8768,16 +8765,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8786,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8854,16 +8851,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8872,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8940,16 +8937,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8958,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9026,16 +9023,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
         <v>35</v>
-      </c>
-      <c r="F100" t="s">
-        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9044,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9112,16 +9109,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" t="s">
         <v>30</v>
-      </c>
-      <c r="F101" t="s">
-        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9130,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9198,16 +9195,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9216,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9284,16 +9281,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9302,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9370,16 +9367,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9388,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9456,16 +9453,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9474,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9542,16 +9539,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9560,7 +9557,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9628,16 +9625,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9646,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9714,16 +9711,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9732,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9800,16 +9797,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9818,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9886,16 +9883,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9904,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9972,16 +9969,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9990,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10058,16 +10055,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10076,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10144,16 +10141,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10162,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10230,16 +10227,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10248,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10316,16 +10313,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10334,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10402,16 +10399,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10420,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10488,16 +10485,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10506,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10574,16 +10571,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10592,7 +10589,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10660,16 +10657,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10678,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10746,16 +10743,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10764,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10832,16 +10829,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10850,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10918,16 +10915,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10936,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11004,16 +11001,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11022,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11090,16 +11087,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11108,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11176,16 +11173,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11194,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11262,16 +11259,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11280,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11348,16 +11345,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11366,7 +11363,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11434,16 +11431,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11452,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11520,16 +11517,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11538,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11606,16 +11603,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11624,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11692,16 +11689,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11710,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11778,16 +11775,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11796,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11864,16 +11861,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11882,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11950,16 +11947,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11968,7 +11965,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12036,16 +12033,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12054,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12122,16 +12119,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12140,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12208,16 +12205,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12226,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12294,16 +12291,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12312,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12380,16 +12377,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" t="s">
         <v>33</v>
-      </c>
-      <c r="F139" t="s">
-        <v>34</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12398,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12466,16 +12463,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12484,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12552,16 +12549,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12570,7 +12567,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12638,16 +12635,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12656,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12724,16 +12721,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12742,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12810,16 +12807,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12828,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12896,16 +12893,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12914,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12982,16 +12979,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13000,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13068,16 +13065,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" t="s">
         <v>36</v>
-      </c>
-      <c r="F147" t="s">
-        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13086,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13154,16 +13151,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13172,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13240,16 +13237,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13258,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13326,16 +13323,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13344,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13412,16 +13409,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" t="s">
         <v>37</v>
-      </c>
-      <c r="F151" t="s">
-        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13430,7 +13427,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13498,16 +13495,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13516,7 +13513,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13584,16 +13581,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" t="s">
         <v>34</v>
-      </c>
-      <c r="F153" t="s">
-        <v>35</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13602,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13670,16 +13667,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" t="s">
         <v>32</v>
-      </c>
-      <c r="F154" t="s">
-        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13688,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13756,16 +13753,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="s">
         <v>29</v>
-      </c>
-      <c r="F155" t="s">
-        <v>30</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13774,7 +13771,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13842,16 +13839,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13860,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13928,16 +13925,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13946,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14014,16 +14011,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14032,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14100,16 +14097,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14118,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14186,16 +14183,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14204,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14272,16 +14269,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14290,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14358,16 +14355,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14376,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14444,16 +14441,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14462,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14530,16 +14527,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14548,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14616,16 +14613,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14634,7 +14631,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14692,71 +14689,6 @@
       </c>
       <c r="AB165">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:28">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>27</v>
-      </c>
-      <c r="C166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" s="2">
-        <v>45422.5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>35</v>
-      </c>
-      <c r="F166" t="s">
-        <v>32</v>
-      </c>
-      <c r="J166">
-        <v>1.615</v>
-      </c>
-      <c r="K166">
-        <v>3.4</v>
-      </c>
-      <c r="L166">
-        <v>5</v>
-      </c>
-      <c r="M166">
-        <v>1.5</v>
-      </c>
-      <c r="N166">
-        <v>3.6</v>
-      </c>
-      <c r="O166">
-        <v>6</v>
-      </c>
-      <c r="P166">
-        <v>-1</v>
-      </c>
-      <c r="Q166">
-        <v>1.8</v>
-      </c>
-      <c r="R166">
-        <v>2</v>
-      </c>
-      <c r="S166">
-        <v>2.75</v>
-      </c>
-      <c r="T166">
-        <v>1.9</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>0</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14691,6 +14691,436 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7133550</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45422.5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166">
+        <v>5</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>39</v>
+      </c>
+      <c r="J166">
+        <v>1.615</v>
+      </c>
+      <c r="K166">
+        <v>3.4</v>
+      </c>
+      <c r="L166">
+        <v>5</v>
+      </c>
+      <c r="M166">
+        <v>1.222</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166">
+        <v>9.5</v>
+      </c>
+      <c r="P166">
+        <v>-1.75</v>
+      </c>
+      <c r="Q166">
+        <v>1.75</v>
+      </c>
+      <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>3.25</v>
+      </c>
+      <c r="T166">
+        <v>1.9</v>
+      </c>
+      <c r="U166">
+        <v>1.9</v>
+      </c>
+      <c r="V166">
+        <v>0.222</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>0.75</v>
+      </c>
+      <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7123423</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>38</v>
+      </c>
+      <c r="J167">
+        <v>2.625</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>2.5</v>
+      </c>
+      <c r="M167">
+        <v>2.7</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167">
+        <v>2.45</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>2</v>
+      </c>
+      <c r="R167">
+        <v>1.8</v>
+      </c>
+      <c r="S167">
+        <v>2.25</v>
+      </c>
+      <c r="T167">
+        <v>1.9</v>
+      </c>
+      <c r="U167">
+        <v>1.9</v>
+      </c>
+      <c r="V167">
+        <v>-1</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>1.45</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0.8</v>
+      </c>
+      <c r="AA167">
+        <v>-1</v>
+      </c>
+      <c r="AB167">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7128941</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="E168" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
+        <v>38</v>
+      </c>
+      <c r="J168">
+        <v>3.2</v>
+      </c>
+      <c r="K168">
+        <v>3.6</v>
+      </c>
+      <c r="L168">
+        <v>1.909</v>
+      </c>
+      <c r="M168">
+        <v>4.2</v>
+      </c>
+      <c r="N168">
+        <v>3.8</v>
+      </c>
+      <c r="O168">
+        <v>1.615</v>
+      </c>
+      <c r="P168">
+        <v>0.75</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
+        <v>2.5</v>
+      </c>
+      <c r="T168">
+        <v>1.875</v>
+      </c>
+      <c r="U168">
+        <v>1.925</v>
+      </c>
+      <c r="V168">
+        <v>-1</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>0.615</v>
+      </c>
+      <c r="Y168">
+        <v>-0.5</v>
+      </c>
+      <c r="Z168">
+        <v>0.4</v>
+      </c>
+      <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7128942</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="E169" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" t="s">
+        <v>32</v>
+      </c>
+      <c r="G169">
+        <v>2</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>39</v>
+      </c>
+      <c r="J169">
+        <v>7</v>
+      </c>
+      <c r="K169">
+        <v>6</v>
+      </c>
+      <c r="L169">
+        <v>1.25</v>
+      </c>
+      <c r="M169">
+        <v>3.4</v>
+      </c>
+      <c r="N169">
+        <v>4.5</v>
+      </c>
+      <c r="O169">
+        <v>1.615</v>
+      </c>
+      <c r="P169">
+        <v>0.75</v>
+      </c>
+      <c r="Q169">
+        <v>1.975</v>
+      </c>
+      <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
+        <v>2.75</v>
+      </c>
+      <c r="T169">
+        <v>1.85</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
+        <v>2.4</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7123424</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="E170" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>39</v>
+      </c>
+      <c r="J170">
+        <v>1.8</v>
+      </c>
+      <c r="K170">
+        <v>3.8</v>
+      </c>
+      <c r="L170">
+        <v>3.4</v>
+      </c>
+      <c r="M170">
+        <v>1.85</v>
+      </c>
+      <c r="N170">
+        <v>3.75</v>
+      </c>
+      <c r="O170">
+        <v>3.3</v>
+      </c>
+      <c r="P170">
+        <v>-0.5</v>
+      </c>
+      <c r="Q170">
+        <v>1.875</v>
+      </c>
+      <c r="R170">
+        <v>1.925</v>
+      </c>
+      <c r="S170">
+        <v>2.5</v>
+      </c>
+      <c r="T170">
+        <v>1.95</v>
+      </c>
+      <c r="U170">
+        <v>1.85</v>
+      </c>
+      <c r="V170">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>0.875</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.95</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7153760</t>
+  </si>
+  <si>
+    <t>7157321</t>
+  </si>
+  <si>
+    <t>7153759</t>
+  </si>
+  <si>
+    <t>7158118</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -498,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:AB174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +607,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -613,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -681,16 +693,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -699,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -767,16 +779,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -785,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -853,16 +865,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -871,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -939,16 +951,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -957,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1025,16 +1037,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1043,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1111,16 +1123,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1129,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1197,16 +1209,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1215,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1283,16 +1295,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1301,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1369,16 +1381,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1387,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1455,16 +1467,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1473,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1541,16 +1553,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1559,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1627,16 +1639,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1713,16 +1725,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1731,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1799,16 +1811,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1817,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1885,16 +1897,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1903,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1971,16 +1983,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2057,16 +2069,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2075,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2143,16 +2155,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2161,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2229,16 +2241,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2247,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2315,16 +2327,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2333,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2401,16 +2413,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2419,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2487,16 +2499,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2505,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2573,16 +2585,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2591,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2659,16 +2671,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2677,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2745,16 +2757,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2763,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2831,16 +2843,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2849,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2917,16 +2929,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2935,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3003,16 +3015,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3021,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3089,16 +3101,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3107,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3175,16 +3187,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3193,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3261,16 +3273,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3279,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3347,16 +3359,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3365,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3433,16 +3445,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3451,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3519,16 +3531,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3537,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3605,16 +3617,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3623,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3691,16 +3703,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3709,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3777,16 +3789,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3795,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3863,16 +3875,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3881,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3949,16 +3961,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3967,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4035,16 +4047,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
         <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>28</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4053,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4121,16 +4133,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4139,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4207,17 +4219,17 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" t="s">
-        <v>30</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4293,16 +4305,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4311,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4379,16 +4391,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4397,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4465,16 +4477,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4483,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4551,16 +4563,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4569,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4637,16 +4649,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4655,7 +4667,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4723,16 +4735,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4809,17 +4821,17 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
         <v>33</v>
       </c>
-      <c r="F51" t="s">
-        <v>29</v>
-      </c>
       <c r="G51">
         <v>2</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4895,16 +4907,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4913,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4981,16 +4993,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4999,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5067,16 +5079,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5085,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5153,16 +5165,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5171,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5239,16 +5251,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5257,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5325,16 +5337,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5343,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5411,16 +5423,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5497,16 +5509,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5515,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5583,16 +5595,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5669,16 +5681,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5687,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5755,16 +5767,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5773,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5841,16 +5853,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
         <v>36</v>
-      </c>
-      <c r="F63" t="s">
-        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5859,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5927,16 +5939,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6013,16 +6025,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6031,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6099,16 +6111,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6129,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6185,16 +6197,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6203,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6271,16 +6283,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6289,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6357,16 +6369,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6375,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6443,17 +6455,17 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
         <v>37</v>
       </c>
-      <c r="F70" t="s">
-        <v>33</v>
-      </c>
       <c r="G70">
         <v>0</v>
       </c>
@@ -6461,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6529,16 +6541,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6547,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6615,16 +6627,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6633,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6701,16 +6713,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6719,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6787,16 +6799,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6805,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6873,16 +6885,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6891,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6959,16 +6971,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6977,7 +6989,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7045,16 +7057,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" t="s">
         <v>35</v>
-      </c>
-      <c r="F77" t="s">
-        <v>31</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7063,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7131,16 +7143,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7149,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7217,16 +7229,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7235,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7303,16 +7315,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7321,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7389,16 +7401,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7407,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7475,16 +7487,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7493,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7561,16 +7573,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7579,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7647,16 +7659,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7665,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7733,16 +7745,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7751,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7819,16 +7831,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7837,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7905,16 +7917,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7923,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7991,16 +8003,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8009,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,16 +8089,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8095,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8163,16 +8175,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8181,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8249,16 +8261,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8267,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8335,16 +8347,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8353,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8421,16 +8433,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8507,16 +8519,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8525,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8593,16 +8605,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8611,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8679,16 +8691,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8697,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8765,16 +8777,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8783,7 +8795,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8851,16 +8863,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8869,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8937,16 +8949,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8955,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9023,16 +9035,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9041,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9109,16 +9121,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9127,7 +9139,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9195,16 +9207,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9213,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9281,16 +9293,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9299,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9367,16 +9379,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9385,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9453,16 +9465,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9471,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9539,16 +9551,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9557,7 +9569,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9625,16 +9637,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9643,7 +9655,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9711,16 +9723,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9729,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9797,16 +9809,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9815,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9883,16 +9895,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9901,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9969,16 +9981,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9987,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10055,16 +10067,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10073,7 +10085,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10141,16 +10153,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10159,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10227,16 +10239,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10245,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10313,16 +10325,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10331,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10399,16 +10411,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10417,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10485,16 +10497,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10503,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10571,16 +10583,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10589,7 +10601,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10657,16 +10669,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10675,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10743,16 +10755,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10761,7 +10773,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10829,16 +10841,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10847,7 +10859,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10915,16 +10927,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10933,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11001,17 +11013,17 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" t="s">
         <v>32</v>
       </c>
-      <c r="F123" t="s">
-        <v>28</v>
-      </c>
       <c r="G123">
         <v>2</v>
       </c>
@@ -11019,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11087,16 +11099,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11105,7 +11117,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11173,16 +11185,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" t="s">
         <v>34</v>
-      </c>
-      <c r="F125" t="s">
-        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11191,7 +11203,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11259,16 +11271,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11277,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11345,16 +11357,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11363,7 +11375,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11431,16 +11443,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11517,16 +11529,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11535,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11603,16 +11615,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11621,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11689,16 +11701,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11707,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11775,16 +11787,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11793,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11861,16 +11873,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11879,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11947,16 +11959,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11965,7 +11977,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12033,16 +12045,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12051,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12119,16 +12131,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12137,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12205,16 +12217,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12223,7 +12235,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12291,16 +12303,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12309,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12377,16 +12389,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12395,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12463,16 +12475,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12481,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12549,16 +12561,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12567,7 +12579,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12635,17 +12647,17 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
+        <v>40</v>
+      </c>
+      <c r="F142" t="s">
         <v>36</v>
       </c>
-      <c r="F142" t="s">
-        <v>32</v>
-      </c>
       <c r="G142">
         <v>2</v>
       </c>
@@ -12653,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12721,16 +12733,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12739,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12807,16 +12819,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12825,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12893,16 +12905,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12979,17 +12991,17 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
+        <v>41</v>
+      </c>
+      <c r="F146" t="s">
         <v>37</v>
       </c>
-      <c r="F146" t="s">
-        <v>33</v>
-      </c>
       <c r="G146">
         <v>0</v>
       </c>
@@ -12997,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13065,16 +13077,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13151,16 +13163,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13169,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13237,16 +13249,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13255,7 +13267,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13323,16 +13335,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13341,7 +13353,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13409,16 +13421,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13427,7 +13439,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13495,16 +13507,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13513,7 +13525,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13581,16 +13593,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13599,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13667,16 +13679,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13685,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13753,16 +13765,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13771,7 +13783,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13839,16 +13851,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13857,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13925,16 +13937,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" t="s">
         <v>35</v>
-      </c>
-      <c r="F157" t="s">
-        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13943,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14011,16 +14023,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14029,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14097,16 +14109,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14115,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14183,16 +14195,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14201,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14269,16 +14281,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14287,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14355,16 +14367,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14373,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14441,16 +14453,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14459,7 +14471,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14527,16 +14539,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14545,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14613,16 +14625,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14631,7 +14643,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14699,16 +14711,16 @@
         <v>7133550</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45422.5</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -14717,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J166">
         <v>1.615</v>
@@ -14785,16 +14797,16 @@
         <v>7123423</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45423.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14803,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14871,16 +14883,16 @@
         <v>7128941</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14889,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J168">
         <v>3.2</v>
@@ -14957,16 +14969,16 @@
         <v>7128942</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14975,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J169">
         <v>7</v>
@@ -15043,16 +15055,16 @@
         <v>7123424</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45424.52083333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15061,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15119,6 +15131,266 @@
       </c>
       <c r="AB170">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" t="s">
+        <v>31</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45429.5625</v>
+      </c>
+      <c r="E171" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" t="s">
+        <v>40</v>
+      </c>
+      <c r="J171">
+        <v>1.083</v>
+      </c>
+      <c r="K171">
+        <v>11</v>
+      </c>
+      <c r="L171">
+        <v>21</v>
+      </c>
+      <c r="M171">
+        <v>1.3</v>
+      </c>
+      <c r="N171">
+        <v>6.25</v>
+      </c>
+      <c r="O171">
+        <v>7.5</v>
+      </c>
+      <c r="P171">
+        <v>-1.75</v>
+      </c>
+      <c r="Q171">
+        <v>1.875</v>
+      </c>
+      <c r="R171">
+        <v>1.925</v>
+      </c>
+      <c r="S171">
+        <v>3.5</v>
+      </c>
+      <c r="T171">
+        <v>1.9</v>
+      </c>
+      <c r="U171">
+        <v>1.9</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E172" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" t="s">
+        <v>37</v>
+      </c>
+      <c r="J172">
+        <v>4.5</v>
+      </c>
+      <c r="K172">
+        <v>3.4</v>
+      </c>
+      <c r="L172">
+        <v>1.666</v>
+      </c>
+      <c r="M172">
+        <v>5.75</v>
+      </c>
+      <c r="N172">
+        <v>3.9</v>
+      </c>
+      <c r="O172">
+        <v>1.45</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <v>2</v>
+      </c>
+      <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2.75</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.8</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E173" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" t="s">
+        <v>41</v>
+      </c>
+      <c r="J173">
+        <v>1.833</v>
+      </c>
+      <c r="K173">
+        <v>3.3</v>
+      </c>
+      <c r="L173">
+        <v>3.8</v>
+      </c>
+      <c r="M173">
+        <v>1.833</v>
+      </c>
+      <c r="N173">
+        <v>3.3</v>
+      </c>
+      <c r="O173">
+        <v>3.8</v>
+      </c>
+      <c r="P173">
+        <v>-0.5</v>
+      </c>
+      <c r="Q173">
+        <v>1.85</v>
+      </c>
+      <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>2.5</v>
+      </c>
+      <c r="T173">
+        <v>1.9</v>
+      </c>
+      <c r="U173">
+        <v>1.9</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" t="s">
+        <v>38</v>
+      </c>
+      <c r="J174">
+        <v>4.5</v>
+      </c>
+      <c r="K174">
+        <v>3.7</v>
+      </c>
+      <c r="L174">
+        <v>1.6</v>
+      </c>
+      <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
+        <v>3.7</v>
+      </c>
+      <c r="O174">
+        <v>1.6</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>1.825</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>3</v>
+      </c>
+      <c r="T174">
+        <v>1.95</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,16 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7153760</t>
+    <t>7158118</t>
   </si>
   <si>
     <t>7157321</t>
   </si>
   <si>
     <t>7153759</t>
-  </si>
-  <si>
-    <t>7158118</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -510,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB174"/>
+  <dimension ref="A1:AB173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +604,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -625,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -693,16 +690,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -711,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -779,16 +776,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -797,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -865,16 +862,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -951,16 +948,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1037,16 +1034,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1055,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1123,16 +1120,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1141,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1209,16 +1206,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1295,16 +1292,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1313,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1381,16 +1378,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1399,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1467,16 +1464,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1485,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1553,16 +1550,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1571,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1639,16 +1636,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1657,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1725,16 +1722,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1743,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1811,16 +1808,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1829,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1897,16 +1894,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1983,16 +1980,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2069,17 +2066,17 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
       <c r="G19">
         <v>2</v>
       </c>
@@ -2087,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2155,16 +2152,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2173,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2241,16 +2238,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2259,7 +2256,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2327,16 +2324,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2345,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2413,16 +2410,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2431,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2499,16 +2496,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2517,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2585,16 +2582,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
         <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2603,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2671,16 +2668,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2689,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2757,16 +2754,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2775,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2843,16 +2840,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2861,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2929,16 +2926,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2947,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3015,16 +3012,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3033,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3101,16 +3098,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3119,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3187,16 +3184,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3205,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3273,16 +3270,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3291,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3359,16 +3356,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3377,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3445,16 +3442,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3463,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3531,16 +3528,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3549,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3617,16 +3614,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3635,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3703,16 +3700,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3721,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3789,16 +3786,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3875,16 +3872,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3893,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3961,16 +3958,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3979,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4047,16 +4044,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4065,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4133,16 +4130,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4151,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4219,16 +4216,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4237,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4305,16 +4302,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4323,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4391,16 +4388,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4409,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4477,16 +4474,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4495,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4563,16 +4560,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4581,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4649,16 +4646,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4667,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4735,16 +4732,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4753,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4821,16 +4818,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4839,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4907,16 +4904,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4925,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4993,16 +4990,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5011,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5079,16 +5076,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5097,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5165,16 +5162,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5183,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5251,16 +5248,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5269,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5337,16 +5334,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
         <v>34</v>
-      </c>
-      <c r="F57" t="s">
-        <v>35</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5355,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5423,16 +5420,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5441,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5509,16 +5506,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5527,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5595,16 +5592,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
         <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5613,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5681,16 +5678,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5699,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5767,16 +5764,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5785,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5853,16 +5850,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5871,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5939,16 +5936,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5957,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6025,16 +6022,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6043,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6111,16 +6108,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6129,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6197,16 +6194,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6215,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6283,16 +6280,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
         <v>39</v>
-      </c>
-      <c r="F68" t="s">
-        <v>40</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6301,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6369,16 +6366,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6387,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6455,16 +6452,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6473,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6541,16 +6538,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
         <v>32</v>
-      </c>
-      <c r="F71" t="s">
-        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6559,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6627,17 +6624,17 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
         <v>40</v>
       </c>
-      <c r="F72" t="s">
-        <v>41</v>
-      </c>
       <c r="G72">
         <v>2</v>
       </c>
@@ -6645,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6713,17 +6710,17 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>35</v>
       </c>
-      <c r="F73" t="s">
-        <v>36</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -6731,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6799,16 +6796,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6817,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6885,16 +6882,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6903,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6971,16 +6968,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6989,7 +6986,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7057,16 +7054,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7075,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7143,16 +7140,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7161,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7229,16 +7226,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7247,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7315,16 +7312,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7333,7 +7330,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7401,16 +7398,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7419,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7487,16 +7484,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7505,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7573,16 +7570,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7591,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7659,16 +7656,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7677,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7745,16 +7742,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7763,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7831,16 +7828,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7849,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7917,16 +7914,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7935,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -8003,16 +8000,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8021,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8089,16 +8086,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8107,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8175,16 +8172,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8193,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8261,16 +8258,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8279,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8347,16 +8344,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8365,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8433,16 +8430,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8451,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8519,16 +8516,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8537,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8605,16 +8602,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8623,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8691,16 +8688,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8709,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8777,16 +8774,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8795,7 +8792,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8863,16 +8860,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8881,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8949,16 +8946,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8967,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9035,16 +9032,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" t="s">
         <v>38</v>
-      </c>
-      <c r="F100" t="s">
-        <v>39</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9053,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9121,16 +9118,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
         <v>33</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9139,7 +9136,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9207,16 +9204,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9225,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9293,16 +9290,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9311,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9379,16 +9376,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9397,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9465,16 +9462,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9483,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9551,16 +9548,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9569,7 +9566,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9637,16 +9634,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9655,7 +9652,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9723,16 +9720,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9741,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9809,16 +9806,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9827,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9895,16 +9892,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9913,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9981,16 +9978,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9999,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10067,16 +10064,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10085,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10153,16 +10150,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10171,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10239,16 +10236,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10257,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10325,16 +10322,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10343,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10411,16 +10408,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10429,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10497,16 +10494,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10515,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10583,16 +10580,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10601,7 +10598,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10669,16 +10666,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10687,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10755,16 +10752,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10773,7 +10770,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10841,16 +10838,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10859,7 +10856,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10927,16 +10924,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10945,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11013,16 +11010,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11031,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11099,16 +11096,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11117,7 +11114,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11185,16 +11182,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11203,7 +11200,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11271,16 +11268,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11289,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11357,16 +11354,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11375,7 +11372,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11443,16 +11440,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11461,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11529,16 +11526,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11547,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11615,16 +11612,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11633,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11701,16 +11698,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11719,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11787,16 +11784,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11805,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11873,16 +11870,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11891,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11959,16 +11956,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11977,7 +11974,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12045,16 +12042,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12063,7 +12060,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12131,16 +12128,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12149,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12217,16 +12214,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12235,7 +12232,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12303,16 +12300,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12321,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12389,16 +12386,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" t="s">
         <v>36</v>
-      </c>
-      <c r="F139" t="s">
-        <v>37</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12407,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12475,16 +12472,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12493,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12561,16 +12558,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12579,7 +12576,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12647,16 +12644,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12665,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12733,16 +12730,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12751,7 +12748,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12819,16 +12816,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12837,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12905,16 +12902,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12923,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12991,16 +12988,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13009,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13077,16 +13074,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
         <v>39</v>
-      </c>
-      <c r="F147" t="s">
-        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13095,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13163,16 +13160,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13181,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13249,16 +13246,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13267,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13335,16 +13332,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13353,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13421,16 +13418,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
+        <v>39</v>
+      </c>
+      <c r="F151" t="s">
         <v>40</v>
-      </c>
-      <c r="F151" t="s">
-        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13439,7 +13436,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13507,16 +13504,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13525,7 +13522,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13593,16 +13590,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" t="s">
         <v>37</v>
-      </c>
-      <c r="F153" t="s">
-        <v>38</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13611,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13679,16 +13676,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" t="s">
         <v>35</v>
-      </c>
-      <c r="F154" t="s">
-        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13765,17 +13762,17 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" t="s">
         <v>32</v>
       </c>
-      <c r="F155" t="s">
-        <v>33</v>
-      </c>
       <c r="G155">
         <v>0</v>
       </c>
@@ -13783,7 +13780,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13851,16 +13848,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13869,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13937,16 +13934,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13955,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14023,16 +14020,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14041,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14109,16 +14106,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14127,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14195,16 +14192,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14213,7 +14210,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14281,16 +14278,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14299,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14367,16 +14364,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14385,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14453,16 +14450,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14471,7 +14468,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14539,16 +14536,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14557,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14625,16 +14622,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14643,7 +14640,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14711,16 +14708,16 @@
         <v>7133550</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D166" s="2">
         <v>45422.5</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -14729,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J166">
         <v>1.615</v>
@@ -14797,16 +14794,16 @@
         <v>7123423</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D167" s="2">
         <v>45423.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14815,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14883,16 +14880,16 @@
         <v>7128941</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D168" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14901,7 +14898,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J168">
         <v>3.2</v>
@@ -14969,16 +14966,16 @@
         <v>7128942</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D169" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14987,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J169">
         <v>7</v>
@@ -15055,16 +15052,16 @@
         <v>7123424</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D170" s="2">
         <v>45424.52083333334</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15073,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15141,52 +15138,52 @@
         <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D171" s="2">
-        <v>45429.5625</v>
+        <v>45430.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J171">
-        <v>1.083</v>
+        <v>4.5</v>
       </c>
       <c r="K171">
-        <v>11</v>
+        <v>3.7</v>
       </c>
       <c r="L171">
-        <v>21</v>
+        <v>1.6</v>
       </c>
       <c r="M171">
-        <v>1.3</v>
+        <v>4.333</v>
       </c>
       <c r="N171">
-        <v>6.25</v>
+        <v>3.4</v>
       </c>
       <c r="O171">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="P171">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q171">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T171">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V171">
         <v>0</v>
@@ -15206,16 +15203,16 @@
         <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D172" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J172">
         <v>4.5</v>
@@ -15227,31 +15224,31 @@
         <v>1.666</v>
       </c>
       <c r="M172">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="N172">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="O172">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="P172">
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U172">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
         <v>0</v>
@@ -15271,16 +15268,16 @@
         <v>29</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D173" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J173">
         <v>1.833</v>
@@ -15292,31 +15289,31 @@
         <v>3.8</v>
       </c>
       <c r="M173">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="N173">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q173">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S173">
         <v>2.5</v>
       </c>
       <c r="T173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
         <v>0</v>
@@ -15325,71 +15322,6 @@
         <v>0</v>
       </c>
       <c r="X173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>30</v>
-      </c>
-      <c r="C174" t="s">
-        <v>31</v>
-      </c>
-      <c r="D174" s="2">
-        <v>45430.41666666666</v>
-      </c>
-      <c r="E174" t="s">
-        <v>33</v>
-      </c>
-      <c r="F174" t="s">
-        <v>38</v>
-      </c>
-      <c r="J174">
-        <v>4.5</v>
-      </c>
-      <c r="K174">
-        <v>3.7</v>
-      </c>
-      <c r="L174">
-        <v>1.6</v>
-      </c>
-      <c r="M174">
-        <v>4.5</v>
-      </c>
-      <c r="N174">
-        <v>3.7</v>
-      </c>
-      <c r="O174">
-        <v>1.6</v>
-      </c>
-      <c r="P174">
-        <v>1</v>
-      </c>
-      <c r="Q174">
-        <v>1.825</v>
-      </c>
-      <c r="R174">
-        <v>1.975</v>
-      </c>
-      <c r="S174">
-        <v>3</v>
-      </c>
-      <c r="T174">
-        <v>1.95</v>
-      </c>
-      <c r="U174">
-        <v>1.85</v>
-      </c>
-      <c r="V174">
-        <v>0</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7158118</t>
-  </si>
-  <si>
-    <t>7157321</t>
-  </si>
-  <si>
-    <t>7153759</t>
+    <t>7157320</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -507,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB173"/>
+  <dimension ref="A1:AB172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +598,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -622,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -690,16 +684,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -708,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -776,16 +770,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -794,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -862,16 +856,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -880,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -948,16 +942,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -966,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1034,16 +1028,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1052,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1120,16 +1114,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1138,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1206,16 +1200,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1224,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1292,16 +1286,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1310,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1378,16 +1372,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1396,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1464,16 +1458,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1482,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1550,16 +1544,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1568,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1636,16 +1630,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1654,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1722,16 +1716,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1740,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1808,16 +1802,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1826,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1894,16 +1888,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1980,16 +1974,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1998,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2066,16 +2060,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2084,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2152,16 +2146,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2238,16 +2232,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2256,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2324,16 +2318,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2342,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2410,16 +2404,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2496,16 +2490,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2514,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2582,16 +2576,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2600,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2668,16 +2662,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2686,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2754,16 +2748,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2772,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2840,16 +2834,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2858,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2926,16 +2920,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2944,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3012,16 +3006,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
         <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3030,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3098,16 +3092,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3116,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3184,16 +3178,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3202,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3270,16 +3264,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3288,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3356,16 +3350,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3374,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3442,16 +3436,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3460,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3528,16 +3522,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3546,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3614,16 +3608,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3632,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3700,16 +3694,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3718,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3786,16 +3780,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3872,16 +3866,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3890,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3958,16 +3952,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3976,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4044,16 +4038,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4062,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4130,16 +4124,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4148,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4216,16 +4210,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4234,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4302,16 +4296,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4320,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4388,16 +4382,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4474,16 +4468,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
         <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4492,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4560,16 +4554,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4578,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4646,16 +4640,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4664,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4732,16 +4726,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4750,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4818,16 +4812,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4836,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4904,16 +4898,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4922,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4990,16 +4984,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5008,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5076,16 +5070,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5094,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5162,16 +5156,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
         <v>31</v>
-      </c>
-      <c r="F55" t="s">
-        <v>33</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5180,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5248,16 +5242,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5266,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5334,16 +5328,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5352,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5420,16 +5414,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5438,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5506,16 +5500,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5524,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5592,16 +5586,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5610,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5678,16 +5672,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5696,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5764,16 +5758,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5782,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5850,16 +5844,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5868,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5936,16 +5930,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
         <v>36</v>
-      </c>
-      <c r="F64" t="s">
-        <v>38</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5954,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6022,16 +6016,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6040,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6108,16 +6102,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6126,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6194,16 +6188,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
         <v>32</v>
-      </c>
-      <c r="F67" t="s">
-        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6212,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6280,16 +6274,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6298,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6366,16 +6360,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6384,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6452,16 +6446,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6470,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6538,16 +6532,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6556,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6624,16 +6618,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6642,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6710,16 +6704,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6728,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6796,16 +6790,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6814,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6882,16 +6876,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6900,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6968,16 +6962,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6986,7 +6980,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7054,16 +7048,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7072,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7140,16 +7134,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7158,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7226,16 +7220,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7244,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7312,16 +7306,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" t="s">
         <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>39</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7330,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7398,16 +7392,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7416,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7484,16 +7478,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7502,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7570,16 +7564,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7588,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7656,16 +7650,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7674,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7742,16 +7736,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7760,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7828,16 +7822,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7914,16 +7908,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7932,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -8000,16 +7994,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8018,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8086,16 +8080,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8104,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8172,16 +8166,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8190,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8258,16 +8252,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
         <v>35</v>
-      </c>
-      <c r="F91" t="s">
-        <v>37</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8276,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8344,16 +8338,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8362,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8430,16 +8424,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8448,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8516,16 +8510,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" t="s">
         <v>38</v>
-      </c>
-      <c r="F94" t="s">
-        <v>40</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8534,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8602,16 +8596,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8620,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8688,16 +8682,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8706,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8774,16 +8768,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8792,7 +8786,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8860,16 +8854,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8878,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8946,16 +8940,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8964,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9032,16 +9026,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9050,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9118,16 +9112,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9136,7 +9130,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9204,16 +9198,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9222,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9290,16 +9284,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9376,16 +9370,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9394,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9462,16 +9456,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9480,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9548,16 +9542,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" t="s">
         <v>33</v>
-      </c>
-      <c r="F106" t="s">
-        <v>35</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9566,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9634,16 +9628,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9652,7 +9646,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9720,16 +9714,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9738,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9806,16 +9800,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9824,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9892,16 +9886,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9910,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9978,16 +9972,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9996,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10064,16 +10058,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10082,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10150,16 +10144,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10168,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10236,16 +10230,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10254,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10322,16 +10316,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10340,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10408,16 +10402,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10426,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10494,16 +10488,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10512,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10580,16 +10574,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10598,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10666,16 +10660,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10684,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10752,16 +10746,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10770,7 +10764,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10838,16 +10832,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10856,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10924,16 +10918,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10942,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11010,16 +11004,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11028,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11096,16 +11090,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11114,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11182,16 +11176,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11200,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11268,16 +11262,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11286,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11354,16 +11348,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11372,7 +11366,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11440,16 +11434,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11458,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11526,16 +11520,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11544,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11612,16 +11606,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11630,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11698,16 +11692,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11784,16 +11778,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11802,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11870,16 +11864,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11888,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11956,16 +11950,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11974,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12042,16 +12036,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12060,7 +12054,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12128,16 +12122,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12146,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12214,16 +12208,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12232,7 +12226,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12300,16 +12294,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12318,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12386,16 +12380,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12404,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12472,16 +12466,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12490,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12558,16 +12552,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12576,7 +12570,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12644,16 +12638,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12662,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12730,16 +12724,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12748,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12816,16 +12810,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" t="s">
         <v>36</v>
-      </c>
-      <c r="F144" t="s">
-        <v>38</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12834,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12902,16 +12896,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12920,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12988,16 +12982,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13006,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13074,16 +13068,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13092,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13160,16 +13154,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13178,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13246,16 +13240,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" t="s">
         <v>32</v>
-      </c>
-      <c r="F149" t="s">
-        <v>34</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13264,7 +13258,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13332,16 +13326,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13350,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13418,16 +13412,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13436,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13504,16 +13498,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13522,7 +13516,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13590,16 +13584,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13608,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13676,16 +13670,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13694,7 +13688,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13762,16 +13756,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13780,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13848,16 +13842,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13866,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13934,16 +13928,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13952,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14020,16 +14014,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
+        <v>35</v>
+      </c>
+      <c r="F158" t="s">
         <v>37</v>
-      </c>
-      <c r="F158" t="s">
-        <v>39</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14038,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14106,16 +14100,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14124,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14192,16 +14186,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14210,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14278,16 +14272,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14296,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14364,16 +14358,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14382,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14450,16 +14444,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14468,7 +14462,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14536,16 +14530,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14554,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14622,16 +14616,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14640,7 +14634,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14708,16 +14702,16 @@
         <v>7133550</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45422.5</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -14726,7 +14720,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J166">
         <v>1.615</v>
@@ -14794,16 +14788,16 @@
         <v>7123423</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45423.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14812,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14880,16 +14874,16 @@
         <v>7128941</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14898,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J168">
         <v>3.2</v>
@@ -14966,16 +14960,16 @@
         <v>7128942</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14984,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J169">
         <v>7</v>
@@ -15052,16 +15046,16 @@
         <v>7123424</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45424.52083333334</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15070,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15134,65 +15128,86 @@
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
-        <v>27</v>
+      <c r="B171">
+        <v>7153760</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
-        <v>45430.41666666666</v>
+        <v>45429.5625</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F171" t="s">
         <v>37</v>
       </c>
+      <c r="G171">
+        <v>4</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171" t="s">
+        <v>40</v>
+      </c>
       <c r="J171">
-        <v>4.5</v>
+        <v>1.083</v>
       </c>
       <c r="K171">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="L171">
-        <v>1.6</v>
+        <v>21</v>
       </c>
       <c r="M171">
-        <v>4.333</v>
+        <v>1.27</v>
       </c>
       <c r="N171">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="O171">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="P171">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q171">
+        <v>1.8</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>3.5</v>
+      </c>
+      <c r="T171">
         <v>1.85</v>
       </c>
-      <c r="R171">
+      <c r="U171">
         <v>1.95</v>
       </c>
-      <c r="S171">
-        <v>2.75</v>
-      </c>
-      <c r="T171">
-        <v>1.95</v>
-      </c>
-      <c r="U171">
-        <v>1.85</v>
-      </c>
       <c r="V171">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="W171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>1</v>
+      </c>
+      <c r="AA171">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15200,55 +15215,55 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
-        <v>45430.41666666666</v>
+        <v>45431.375</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J172">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K172">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="M172">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N172">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="O172">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="P172">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q172">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S172">
         <v>2.5</v>
       </c>
       <c r="T172">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
         <v>0</v>
@@ -15257,71 +15272,6 @@
         <v>0</v>
       </c>
       <c r="X172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>29</v>
-      </c>
-      <c r="C173" t="s">
-        <v>30</v>
-      </c>
-      <c r="D173" s="2">
-        <v>45430.41666666666</v>
-      </c>
-      <c r="E173" t="s">
-        <v>35</v>
-      </c>
-      <c r="F173" t="s">
-        <v>40</v>
-      </c>
-      <c r="J173">
-        <v>1.833</v>
-      </c>
-      <c r="K173">
-        <v>3.3</v>
-      </c>
-      <c r="L173">
-        <v>3.8</v>
-      </c>
-      <c r="M173">
-        <v>2.05</v>
-      </c>
-      <c r="N173">
-        <v>3.2</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
-      <c r="P173">
-        <v>-0.25</v>
-      </c>
-      <c r="Q173">
-        <v>1.8</v>
-      </c>
-      <c r="R173">
-        <v>2</v>
-      </c>
-      <c r="S173">
-        <v>2.5</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.8</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
         <v>0</v>
       </c>
     </row>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7157320</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -501,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB172"/>
+  <dimension ref="A1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,16 +595,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -616,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -684,16 +681,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -702,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -770,16 +767,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -788,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -856,16 +853,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -942,16 +939,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1028,16 +1025,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1114,16 +1111,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1132,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1200,16 +1197,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1218,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1286,16 +1283,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1304,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1372,16 +1369,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1390,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1458,16 +1455,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1476,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1544,16 +1541,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1630,16 +1627,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1648,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1716,16 +1713,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1734,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1802,16 +1799,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1820,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1888,16 +1885,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1906,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1974,16 +1971,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1992,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2060,16 +2057,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2078,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2146,16 +2143,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2164,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2232,16 +2229,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2250,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2318,16 +2315,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2336,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2404,16 +2401,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2422,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2490,16 +2487,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2508,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2576,16 +2573,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2594,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2662,16 +2659,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2680,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2748,16 +2745,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2766,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2834,16 +2831,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2852,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2920,16 +2917,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2938,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3006,16 +3003,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3024,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3092,16 +3089,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3110,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3178,16 +3175,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3196,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3264,16 +3261,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3350,16 +3347,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3368,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3436,16 +3433,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3454,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3522,16 +3519,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3540,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3608,16 +3605,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3626,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3694,16 +3691,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3712,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3780,16 +3777,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3798,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3866,16 +3863,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3884,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3952,16 +3949,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3970,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4038,16 +4035,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4056,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4124,16 +4121,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4142,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4210,16 +4207,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4228,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4296,16 +4293,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4314,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4382,16 +4379,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4400,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4468,16 +4465,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4486,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4554,16 +4551,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4572,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4640,16 +4637,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4658,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4726,16 +4723,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4744,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4812,16 +4809,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4830,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4898,16 +4895,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4916,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4984,16 +4981,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5002,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5070,16 +5067,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5088,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5156,16 +5153,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5174,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5242,16 +5239,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5260,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5328,16 +5325,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
         <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>32</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5346,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5414,16 +5411,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5432,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5500,16 +5497,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5518,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5586,16 +5583,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
         <v>33</v>
-      </c>
-      <c r="F60" t="s">
-        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5604,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5672,16 +5669,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5690,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5758,16 +5755,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5776,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5844,16 +5841,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5862,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5930,16 +5927,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5948,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6016,16 +6013,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6034,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6102,16 +6099,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6120,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6188,16 +6185,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6206,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6274,16 +6271,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s">
         <v>36</v>
-      </c>
-      <c r="F68" t="s">
-        <v>37</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6292,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6360,16 +6357,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6378,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6446,16 +6443,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6464,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6532,16 +6529,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
         <v>29</v>
-      </c>
-      <c r="F71" t="s">
-        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6550,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6618,17 +6615,17 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
         <v>37</v>
       </c>
-      <c r="F72" t="s">
-        <v>38</v>
-      </c>
       <c r="G72">
         <v>2</v>
       </c>
@@ -6636,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6704,16 +6701,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" t="s">
         <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6722,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6790,16 +6787,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6808,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6876,16 +6873,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6894,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6962,16 +6959,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6980,7 +6977,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7048,16 +7045,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7066,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7134,16 +7131,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7152,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7220,16 +7217,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7238,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7306,16 +7303,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7324,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7392,16 +7389,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7410,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7478,16 +7475,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7496,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7564,16 +7561,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7582,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7650,16 +7647,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7668,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7736,16 +7733,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7754,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7822,16 +7819,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7840,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7908,16 +7905,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7926,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7994,16 +7991,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8012,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8080,16 +8077,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8098,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8166,16 +8163,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8184,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8252,16 +8249,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8270,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8338,16 +8335,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8356,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8424,16 +8421,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8442,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8510,16 +8507,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8528,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8596,16 +8593,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8614,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8682,16 +8679,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8700,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8768,16 +8765,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8786,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8854,16 +8851,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8872,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8940,16 +8937,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8958,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9026,16 +9023,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
         <v>35</v>
-      </c>
-      <c r="F100" t="s">
-        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9044,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9112,16 +9109,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" t="s">
         <v>30</v>
-      </c>
-      <c r="F101" t="s">
-        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9130,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9198,16 +9195,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9216,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9284,16 +9281,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9302,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9370,16 +9367,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9388,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9456,16 +9453,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9474,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9542,16 +9539,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9560,7 +9557,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9628,16 +9625,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9646,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9714,16 +9711,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9732,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9800,16 +9797,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9818,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9886,16 +9883,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9904,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9972,16 +9969,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9990,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10058,16 +10055,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10076,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10144,16 +10141,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10162,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10230,16 +10227,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10248,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10316,16 +10313,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10334,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10402,16 +10399,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10420,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10488,16 +10485,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10506,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10574,16 +10571,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10592,7 +10589,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10660,16 +10657,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10678,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10746,16 +10743,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10764,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10832,16 +10829,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10850,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10918,16 +10915,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10936,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11004,16 +11001,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11022,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11090,16 +11087,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11108,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11176,16 +11173,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11194,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11262,16 +11259,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11280,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11348,16 +11345,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11366,7 +11363,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11434,16 +11431,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11452,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11520,16 +11517,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11538,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11606,16 +11603,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11624,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11692,16 +11689,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11710,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11778,16 +11775,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11796,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11864,16 +11861,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11882,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11950,16 +11947,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11968,7 +11965,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12036,16 +12033,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12054,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12122,16 +12119,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12140,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12208,16 +12205,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12226,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12294,16 +12291,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12312,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12380,16 +12377,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" t="s">
         <v>33</v>
-      </c>
-      <c r="F139" t="s">
-        <v>34</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12398,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12466,16 +12463,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12484,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12552,16 +12549,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12570,7 +12567,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12638,16 +12635,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12656,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12724,16 +12721,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12742,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12810,16 +12807,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12828,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12896,16 +12893,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12914,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12982,16 +12979,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13000,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13068,16 +13065,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" t="s">
         <v>36</v>
-      </c>
-      <c r="F147" t="s">
-        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13086,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13154,16 +13151,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13172,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13240,16 +13237,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13258,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13326,16 +13323,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13344,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13412,16 +13409,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" t="s">
         <v>37</v>
-      </c>
-      <c r="F151" t="s">
-        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13430,7 +13427,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13498,16 +13495,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13516,7 +13513,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13584,16 +13581,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" t="s">
         <v>34</v>
-      </c>
-      <c r="F153" t="s">
-        <v>35</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13602,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13670,16 +13667,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" t="s">
         <v>32</v>
-      </c>
-      <c r="F154" t="s">
-        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13688,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13756,16 +13753,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="s">
         <v>29</v>
-      </c>
-      <c r="F155" t="s">
-        <v>30</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13774,7 +13771,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13842,16 +13839,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13860,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13928,16 +13925,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13946,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14014,16 +14011,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14032,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14100,16 +14097,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14118,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14186,16 +14183,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14204,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14272,16 +14269,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14290,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14358,16 +14355,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14376,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14444,16 +14441,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14462,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14530,16 +14527,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14548,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14616,16 +14613,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14634,7 +14631,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14702,16 +14699,16 @@
         <v>7133550</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45422.5</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -14720,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J166">
         <v>1.615</v>
@@ -14788,16 +14785,16 @@
         <v>7123423</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45423.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14806,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14874,16 +14871,16 @@
         <v>7128941</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14892,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J168">
         <v>3.2</v>
@@ -14960,16 +14957,16 @@
         <v>7128942</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14978,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J169">
         <v>7</v>
@@ -15046,16 +15043,16 @@
         <v>7123424</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45424.52083333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15064,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15132,16 +15129,16 @@
         <v>7153760</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45429.5625</v>
       </c>
       <c r="E171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15150,7 +15147,7 @@
         <v>3</v>
       </c>
       <c r="I171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J171">
         <v>1.083</v>
@@ -15214,65 +15211,344 @@
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
-        <v>27</v>
+      <c r="B172">
+        <v>7157321</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
-        <v>45431.375</v>
+        <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>38</v>
       </c>
       <c r="J172">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K172">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L172">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="M172">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O172">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="P172">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q172">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="R172">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S172">
         <v>2.5</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U172">
+        <v>1.925</v>
+      </c>
+      <c r="V172">
+        <v>-1</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>7153759</v>
+      </c>
+      <c r="C173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" t="s">
+        <v>37</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>39</v>
+      </c>
+      <c r="J173">
+        <v>1.833</v>
+      </c>
+      <c r="K173">
+        <v>3.3</v>
+      </c>
+      <c r="L173">
+        <v>3.8</v>
+      </c>
+      <c r="M173">
+        <v>2.15</v>
+      </c>
+      <c r="N173">
+        <v>3.2</v>
+      </c>
+      <c r="O173">
+        <v>3.1</v>
+      </c>
+      <c r="P173">
+        <v>-0.25</v>
+      </c>
+      <c r="Q173">
+        <v>1.9</v>
+      </c>
+      <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>2.25</v>
+      </c>
+      <c r="T173">
         <v>1.8</v>
       </c>
-      <c r="V172">
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>1.15</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>-0.5</v>
+      </c>
+      <c r="AB173">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7158118</v>
+      </c>
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E174" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174">
         <v>0</v>
       </c>
-      <c r="W172">
+      <c r="H174">
+        <v>3</v>
+      </c>
+      <c r="I174" t="s">
+        <v>38</v>
+      </c>
+      <c r="J174">
+        <v>4.5</v>
+      </c>
+      <c r="K174">
+        <v>3.7</v>
+      </c>
+      <c r="L174">
+        <v>1.6</v>
+      </c>
+      <c r="M174">
+        <v>4.2</v>
+      </c>
+      <c r="N174">
+        <v>3.5</v>
+      </c>
+      <c r="O174">
+        <v>1.7</v>
+      </c>
+      <c r="P174">
+        <v>0.75</v>
+      </c>
+      <c r="Q174">
+        <v>1.9</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>2.75</v>
+      </c>
+      <c r="T174">
+        <v>1.825</v>
+      </c>
+      <c r="U174">
+        <v>1.975</v>
+      </c>
+      <c r="V174">
+        <v>-1</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>0.7</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA174">
+        <v>0.4125</v>
+      </c>
+      <c r="AB174">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7157320</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45431.375</v>
+      </c>
+      <c r="E175" t="s">
+        <v>35</v>
+      </c>
+      <c r="F175" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175">
         <v>0</v>
       </c>
-      <c r="X172">
-        <v>0</v>
+      <c r="I175" t="s">
+        <v>39</v>
+      </c>
+      <c r="J175">
+        <v>2.5</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>2.6</v>
+      </c>
+      <c r="M175">
+        <v>2.25</v>
+      </c>
+      <c r="N175">
+        <v>3.1</v>
+      </c>
+      <c r="O175">
+        <v>2.8</v>
+      </c>
+      <c r="P175">
+        <v>-0.25</v>
+      </c>
+      <c r="Q175">
+        <v>2.025</v>
+      </c>
+      <c r="R175">
+        <v>1.775</v>
+      </c>
+      <c r="S175">
+        <v>2.5</v>
+      </c>
+      <c r="T175">
+        <v>1.875</v>
+      </c>
+      <c r="U175">
+        <v>1.925</v>
+      </c>
+      <c r="V175">
+        <v>1.25</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>1.025</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -15212,7 +15212,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7157321</v>
+        <v>7153759</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
@@ -15221,76 +15221,76 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172">
         <v>0</v>
       </c>
-      <c r="H172">
-        <v>1</v>
-      </c>
       <c r="I172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J172">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="K172">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L172">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N172">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O172">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q172">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R172">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T172">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15298,7 +15298,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7153759</v>
+        <v>7157321</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -15307,76 +15307,76 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" t="s">
+        <v>38</v>
+      </c>
+      <c r="J173">
+        <v>4.5</v>
+      </c>
+      <c r="K173">
+        <v>3.4</v>
+      </c>
+      <c r="L173">
+        <v>1.666</v>
+      </c>
+      <c r="M173">
+        <v>5</v>
+      </c>
+      <c r="N173">
+        <v>3.6</v>
+      </c>
+      <c r="O173">
+        <v>1.533</v>
+      </c>
+      <c r="P173">
+        <v>1</v>
+      </c>
+      <c r="Q173">
+        <v>1.825</v>
+      </c>
+      <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>2.5</v>
+      </c>
+      <c r="T173">
+        <v>1.875</v>
+      </c>
+      <c r="U173">
+        <v>1.925</v>
+      </c>
+      <c r="V173">
+        <v>-1</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Y173">
         <v>0</v>
       </c>
-      <c r="I173" t="s">
-        <v>39</v>
-      </c>
-      <c r="J173">
-        <v>1.833</v>
-      </c>
-      <c r="K173">
-        <v>3.3</v>
-      </c>
-      <c r="L173">
-        <v>3.8</v>
-      </c>
-      <c r="M173">
-        <v>2.15</v>
-      </c>
-      <c r="N173">
-        <v>3.2</v>
-      </c>
-      <c r="O173">
-        <v>3.1</v>
-      </c>
-      <c r="P173">
-        <v>-0.25</v>
-      </c>
-      <c r="Q173">
-        <v>1.9</v>
-      </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>2.25</v>
-      </c>
-      <c r="T173">
-        <v>1.8</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>1.15</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="174" spans="1:28">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7221936</t>
+  </si>
+  <si>
+    <t>7223243</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB175"/>
+  <dimension ref="A1:AB177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +601,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -613,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -681,16 +687,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -699,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -767,16 +773,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -785,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -853,16 +859,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -939,16 +945,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1025,16 +1031,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1111,16 +1117,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1129,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1197,16 +1203,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1283,16 +1289,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1301,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1369,16 +1375,16 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1387,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1455,16 +1461,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1473,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1541,16 +1547,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1559,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1627,16 +1633,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1713,16 +1719,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1731,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1799,16 +1805,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1817,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1885,16 +1891,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1903,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1971,16 +1977,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2057,16 +2063,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2075,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2143,16 +2149,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2161,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2229,16 +2235,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2247,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2315,16 +2321,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2333,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2401,16 +2407,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2419,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2487,16 +2493,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2505,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2573,16 +2579,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2591,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2659,16 +2665,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2677,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2745,16 +2751,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2763,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2831,16 +2837,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2917,16 +2923,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3003,16 +3009,16 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3021,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3089,16 +3095,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3107,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3175,16 +3181,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3193,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3261,16 +3267,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3279,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3347,16 +3353,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3365,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3433,16 +3439,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3451,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3519,16 +3525,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
         <v>36</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3537,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3605,16 +3611,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3623,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3691,16 +3697,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3709,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3777,16 +3783,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3795,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3863,16 +3869,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3881,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3949,16 +3955,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3967,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4035,16 +4041,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4053,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4121,16 +4127,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4139,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4207,16 +4213,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4225,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4293,16 +4299,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4311,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4379,16 +4385,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4397,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4465,16 +4471,16 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4483,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4551,16 +4557,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4569,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4637,16 +4643,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4655,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4723,16 +4729,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4809,16 +4815,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4827,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4895,16 +4901,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4913,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4981,17 +4987,17 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
         <v>37</v>
       </c>
-      <c r="F53" t="s">
-        <v>35</v>
-      </c>
       <c r="G53">
         <v>0</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5067,16 +5073,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
         <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5085,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5153,16 +5159,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5171,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5239,16 +5245,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5257,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5325,16 +5331,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5343,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5411,16 +5417,16 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5497,16 +5503,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5515,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5583,16 +5589,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5669,16 +5675,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5687,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5755,16 +5761,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5773,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5841,16 +5847,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5859,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5927,16 +5933,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6013,16 +6019,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6031,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6099,16 +6105,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
         <v>32</v>
-      </c>
-      <c r="F66" t="s">
-        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6185,16 +6191,16 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6203,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6271,16 +6277,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6289,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6357,16 +6363,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6375,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6443,16 +6449,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6461,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6529,16 +6535,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6547,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6615,16 +6621,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6633,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6701,16 +6707,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6719,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6787,16 +6793,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6805,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6873,16 +6879,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6891,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6959,16 +6965,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6977,7 +6983,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7045,16 +7051,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7063,7 +7069,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7131,16 +7137,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7149,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7217,16 +7223,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7235,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7303,16 +7309,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7321,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7389,16 +7395,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7407,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7475,16 +7481,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7493,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7561,16 +7567,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7579,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7647,16 +7653,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7665,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7733,16 +7739,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7751,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7819,16 +7825,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7837,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7905,16 +7911,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7923,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7991,16 +7997,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8009,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,16 +8083,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8095,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8163,16 +8169,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8181,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8249,16 +8255,16 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8267,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8335,16 +8341,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8353,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8421,16 +8427,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8507,16 +8513,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8525,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8593,16 +8599,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
         <v>30</v>
-      </c>
-      <c r="F95" t="s">
-        <v>28</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8611,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8679,16 +8685,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8697,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8765,16 +8771,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8783,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8851,16 +8857,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8869,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8937,16 +8943,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8955,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9023,16 +9029,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9041,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9109,16 +9115,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9127,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9195,16 +9201,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9213,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9281,16 +9287,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9299,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9367,16 +9373,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
         <v>35</v>
-      </c>
-      <c r="F104" t="s">
-        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9385,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9453,16 +9459,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9471,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9539,16 +9545,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9557,7 +9563,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9625,16 +9631,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s">
         <v>31</v>
-      </c>
-      <c r="F107" t="s">
-        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9643,7 +9649,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9711,16 +9717,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9729,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9797,16 +9803,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9815,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9883,16 +9889,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9901,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9969,16 +9975,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9987,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10055,16 +10061,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10073,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10141,16 +10147,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10159,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10227,16 +10233,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10245,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10313,16 +10319,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10331,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10399,16 +10405,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
         <v>36</v>
-      </c>
-      <c r="F116" t="s">
-        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10417,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10485,16 +10491,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10503,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10571,16 +10577,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10589,7 +10595,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10657,16 +10663,16 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10675,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10743,16 +10749,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10761,7 +10767,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10829,16 +10835,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10847,7 +10853,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10915,16 +10921,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10933,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11001,16 +11007,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11019,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11087,16 +11093,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11105,7 +11111,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11173,16 +11179,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11191,7 +11197,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11259,16 +11265,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11277,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11345,16 +11351,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11363,7 +11369,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11431,16 +11437,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11517,16 +11523,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11535,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11603,16 +11609,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11621,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11689,16 +11695,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11707,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11775,16 +11781,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" t="s">
         <v>33</v>
-      </c>
-      <c r="F132" t="s">
-        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11793,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11861,16 +11867,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11879,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11947,16 +11953,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11965,7 +11971,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12033,16 +12039,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12051,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12119,16 +12125,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12137,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12205,16 +12211,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12223,7 +12229,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12291,16 +12297,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12309,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12377,16 +12383,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12395,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12463,16 +12469,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12481,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12549,16 +12555,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12567,7 +12573,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12635,16 +12641,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12653,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12721,16 +12727,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12739,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12807,16 +12813,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12825,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12893,16 +12899,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12917,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12979,16 +12985,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -12997,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13065,16 +13071,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13151,16 +13157,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13169,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13237,16 +13243,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13255,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13323,16 +13329,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" t="s">
         <v>32</v>
-      </c>
-      <c r="F150" t="s">
-        <v>30</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13341,7 +13347,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13409,16 +13415,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13427,7 +13433,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13495,16 +13501,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13513,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13581,16 +13587,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13599,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13667,16 +13673,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13685,7 +13691,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13753,16 +13759,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13771,7 +13777,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13839,16 +13845,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13857,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13925,16 +13931,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13943,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14011,16 +14017,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14029,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14097,16 +14103,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14115,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14183,16 +14189,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14201,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14269,16 +14275,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14287,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14355,16 +14361,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14373,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14441,16 +14447,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14459,7 +14465,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14527,16 +14533,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14545,7 +14551,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14613,16 +14619,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14631,7 +14637,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14699,16 +14705,16 @@
         <v>7133550</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45422.5</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -14717,7 +14723,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J166">
         <v>1.615</v>
@@ -14785,16 +14791,16 @@
         <v>7123423</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45423.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14803,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14871,16 +14877,16 @@
         <v>7128941</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14889,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J168">
         <v>3.2</v>
@@ -14957,16 +14963,16 @@
         <v>7128942</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14975,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J169">
         <v>7</v>
@@ -15043,16 +15049,16 @@
         <v>7123424</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45424.52083333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15061,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15129,16 +15135,16 @@
         <v>7153760</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45429.5625</v>
       </c>
       <c r="E171" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15147,7 +15153,7 @@
         <v>3</v>
       </c>
       <c r="I171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J171">
         <v>1.083</v>
@@ -15215,16 +15221,16 @@
         <v>7153759</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15233,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15301,16 +15307,16 @@
         <v>7157321</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15319,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J173">
         <v>4.5</v>
@@ -15387,16 +15393,16 @@
         <v>7158118</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15405,7 +15411,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J174">
         <v>4.5</v>
@@ -15473,16 +15479,16 @@
         <v>7157320</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45431.375</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15491,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J175">
         <v>2.5</v>
@@ -15549,6 +15555,136 @@
       </c>
       <c r="AB175">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45438.41666666666</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" t="s">
+        <v>33</v>
+      </c>
+      <c r="J176">
+        <v>1.909</v>
+      </c>
+      <c r="K176">
+        <v>3.4</v>
+      </c>
+      <c r="L176">
+        <v>3.4</v>
+      </c>
+      <c r="M176">
+        <v>1.7</v>
+      </c>
+      <c r="N176">
+        <v>3.7</v>
+      </c>
+      <c r="O176">
+        <v>4</v>
+      </c>
+      <c r="P176">
+        <v>-0.75</v>
+      </c>
+      <c r="Q176">
+        <v>1.975</v>
+      </c>
+      <c r="R176">
+        <v>1.825</v>
+      </c>
+      <c r="S176">
+        <v>2.75</v>
+      </c>
+      <c r="T176">
+        <v>1.85</v>
+      </c>
+      <c r="U176">
+        <v>1.95</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45438.52083333334</v>
+      </c>
+      <c r="E177" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177" t="s">
+        <v>32</v>
+      </c>
+      <c r="J177">
+        <v>9</v>
+      </c>
+      <c r="K177">
+        <v>6</v>
+      </c>
+      <c r="L177">
+        <v>1.2</v>
+      </c>
+      <c r="M177">
+        <v>8</v>
+      </c>
+      <c r="N177">
+        <v>5.75</v>
+      </c>
+      <c r="O177">
+        <v>1.222</v>
+      </c>
+      <c r="P177">
+        <v>1.75</v>
+      </c>
+      <c r="Q177">
+        <v>1.975</v>
+      </c>
+      <c r="R177">
+        <v>1.825</v>
+      </c>
+      <c r="S177">
+        <v>3.25</v>
+      </c>
+      <c r="T177">
+        <v>2.025</v>
+      </c>
+      <c r="U177">
+        <v>1.775</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7221936</t>
-  </si>
-  <si>
-    <t>7223243</t>
   </si>
   <si>
     <t>Azerbaijan Premier League</t>
@@ -504,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB177"/>
+  <dimension ref="A1:AB180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +595,16 @@
         <v>6943460</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -619,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -687,16 +681,16 @@
         <v>6943462</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.47916666666</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -705,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -773,16 +767,16 @@
         <v>6942350</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -791,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>1.181</v>
@@ -859,16 +853,16 @@
         <v>6943461</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -945,16 +939,16 @@
         <v>6940298</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -963,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1031,16 +1025,16 @@
         <v>6943463</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45150.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1049,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1117,16 +1111,16 @@
         <v>6943465</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45150.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1135,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1203,16 +1197,16 @@
         <v>6942351</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.533</v>
@@ -1289,16 +1283,16 @@
         <v>6943464</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1307,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1375,25 +1369,25 @@
         <v>6943466</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
         <v>38</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
       </c>
       <c r="J11">
         <v>2.3</v>
@@ -1461,16 +1455,16 @@
         <v>6943468</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1479,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1547,16 +1541,16 @@
         <v>6943467</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1565,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1633,16 +1627,16 @@
         <v>6944562</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1651,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>1.166</v>
@@ -1719,16 +1713,16 @@
         <v>6940300</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1737,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.5</v>
@@ -1805,16 +1799,16 @@
         <v>6943469</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1823,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2.4</v>
@@ -1891,16 +1885,16 @@
         <v>6943471</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1977,16 +1971,16 @@
         <v>6940301</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2063,16 +2057,16 @@
         <v>6943470</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45165.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2081,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.833</v>
@@ -2149,16 +2143,16 @@
         <v>6942352</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45165.57291666666</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2167,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>1.166</v>
@@ -2235,16 +2229,16 @@
         <v>6940302</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45170.5</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2253,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.444</v>
@@ -2321,16 +2315,16 @@
         <v>6943473</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2339,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>4.333</v>
@@ -2407,16 +2401,16 @@
         <v>6943474</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45171.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2425,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>4.75</v>
@@ -2493,16 +2487,16 @@
         <v>6943472</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2511,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>2.375</v>
@@ -2579,16 +2573,16 @@
         <v>6942353</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2597,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2665,16 +2659,16 @@
         <v>6976494</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2683,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>1.6</v>
@@ -2751,16 +2745,16 @@
         <v>6976497</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45185.375</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2769,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2837,16 +2831,16 @@
         <v>6976493</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2855,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2923,16 +2917,16 @@
         <v>6976495</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45186.39583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3009,17 +3003,17 @@
         <v>6976496</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
         <v>32</v>
       </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
       <c r="G30">
         <v>2</v>
       </c>
@@ -3027,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>1.533</v>
@@ -3095,16 +3089,16 @@
         <v>6976500</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3113,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.55</v>
@@ -3181,16 +3175,16 @@
         <v>6977259</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3199,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3267,16 +3261,16 @@
         <v>6976498</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3285,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>2.3</v>
@@ -3353,16 +3347,16 @@
         <v>6976499</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45194.5</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3371,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -3439,16 +3433,16 @@
         <v>6976504</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3457,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>1.285</v>
@@ -3525,16 +3519,16 @@
         <v>6976503</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45199.375</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3543,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3611,16 +3605,16 @@
         <v>6976506</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3629,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3697,16 +3691,16 @@
         <v>6976505</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45200.375</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3715,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>2.375</v>
@@ -3783,16 +3777,16 @@
         <v>6976502</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3869,16 +3863,16 @@
         <v>7011536</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45205.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3887,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3955,16 +3949,16 @@
         <v>7011533</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45206.375</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3973,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4041,16 +4035,16 @@
         <v>7011532</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4059,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4127,16 +4121,16 @@
         <v>7011534</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45207.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4145,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J43">
         <v>2.25</v>
@@ -4213,16 +4207,16 @@
         <v>7011535</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4231,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>4.8</v>
@@ -4299,16 +4293,16 @@
         <v>7011541</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45219.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4317,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -4385,16 +4379,16 @@
         <v>7011539</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4471,17 +4465,17 @@
         <v>7011540</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="s">
-        <v>35</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -4489,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>5.5</v>
@@ -4557,16 +4551,16 @@
         <v>7011538</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4575,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>1.75</v>
@@ -4643,16 +4637,16 @@
         <v>7011537</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4661,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4729,16 +4723,16 @@
         <v>7267423</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4815,16 +4809,16 @@
         <v>7011544</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45227.375</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4833,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4901,16 +4895,16 @@
         <v>7011543</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45227.5</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4919,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -4987,16 +4981,16 @@
         <v>7011546</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45228.375</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5005,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5073,16 +5067,16 @@
         <v>7011545</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5091,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>2.5</v>
@@ -5159,16 +5153,16 @@
         <v>7011542</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45229.5</v>
       </c>
       <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
         <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>32</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5177,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>5.75</v>
@@ -5245,16 +5239,16 @@
         <v>7011549</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45233.5</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5263,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5331,16 +5325,16 @@
         <v>7011591</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45234.375</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -5349,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>1.125</v>
@@ -5417,25 +5411,25 @@
         <v>7011547</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
         <v>39</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>41</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5503,16 +5497,16 @@
         <v>7011551</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45235.375</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5521,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5589,16 +5583,16 @@
         <v>7011548</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <v>2.25</v>
@@ -5675,16 +5669,16 @@
         <v>7011552</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45240.5</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5693,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5761,16 +5755,16 @@
         <v>7011556</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45241.39583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>1.5</v>
@@ -5847,16 +5841,16 @@
         <v>7011554</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5865,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5933,16 +5927,16 @@
         <v>7011555</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
         <v>35</v>
-      </c>
-      <c r="F64" t="s">
-        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5951,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>1.95</v>
@@ -6019,16 +6013,16 @@
         <v>7011553</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45242.5</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6037,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>1.222</v>
@@ -6105,16 +6099,16 @@
         <v>7011560</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6123,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6191,17 +6185,17 @@
         <v>7011561</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45255.29166666666</v>
       </c>
       <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
         <v>31</v>
       </c>
-      <c r="F67" t="s">
-        <v>33</v>
-      </c>
       <c r="G67">
         <v>0</v>
       </c>
@@ -6209,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.65</v>
@@ -6277,16 +6271,16 @@
         <v>7011559</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45255.375</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6295,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6363,16 +6357,16 @@
         <v>7011557</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6381,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6449,16 +6443,16 @@
         <v>7011558</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6467,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J70">
         <v>3.1</v>
@@ -6535,16 +6529,16 @@
         <v>7011562</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45262.375</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.2</v>
@@ -6621,16 +6615,16 @@
         <v>7011565</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6639,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6707,16 +6701,16 @@
         <v>7011563</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6725,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6793,16 +6787,16 @@
         <v>7011566</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6811,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6879,16 +6873,16 @@
         <v>7011564</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45264.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6897,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>1.181</v>
@@ -6965,16 +6959,16 @@
         <v>7011569</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45268.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6983,7 +6977,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>4.333</v>
@@ -7051,16 +7045,16 @@
         <v>7011570</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7069,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7137,16 +7131,16 @@
         <v>7011567</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7155,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7223,16 +7217,16 @@
         <v>7011571</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7241,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7309,16 +7303,16 @@
         <v>7011568</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" t="s">
         <v>36</v>
-      </c>
-      <c r="F80" t="s">
-        <v>38</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7327,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7395,16 +7389,16 @@
         <v>7011574</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>2.625</v>
@@ -7481,16 +7475,16 @@
         <v>7011573</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45275.25</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7499,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7567,16 +7561,16 @@
         <v>7011572</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45275.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7585,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7653,16 +7647,16 @@
         <v>7011576</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7671,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -7739,16 +7733,16 @@
         <v>7011575</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45278.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.363</v>
@@ -7825,16 +7819,16 @@
         <v>7011581</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45282.375</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7843,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -7911,16 +7905,16 @@
         <v>7011580</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7929,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>2.4</v>
@@ -7997,16 +7991,16 @@
         <v>7011577</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45284.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8015,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8083,16 +8077,16 @@
         <v>7011579</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45284.375</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>1.5</v>
@@ -8169,16 +8163,16 @@
         <v>7011578</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>4.3</v>
@@ -8255,17 +8249,17 @@
         <v>7011585</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45312.375</v>
       </c>
       <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
         <v>34</v>
       </c>
-      <c r="F91" t="s">
-        <v>36</v>
-      </c>
       <c r="G91">
         <v>0</v>
       </c>
@@ -8273,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8341,16 +8335,16 @@
         <v>7011584</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45313.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8359,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>2.5</v>
@@ -8427,16 +8421,16 @@
         <v>7011583</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45313.4375</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8513,16 +8507,16 @@
         <v>7011586</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45314.39583333334</v>
       </c>
       <c r="E94" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" t="s">
         <v>37</v>
-      </c>
-      <c r="F94" t="s">
-        <v>39</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8531,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>2.8</v>
@@ -8599,16 +8593,16 @@
         <v>7011582</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45314.5</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8617,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J95">
         <v>1.222</v>
@@ -8685,16 +8679,16 @@
         <v>7011590</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45317.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8703,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8771,16 +8765,16 @@
         <v>7011550</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45318.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8789,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>6.5</v>
@@ -8857,16 +8851,16 @@
         <v>7011589</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45318.4375</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8875,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8943,16 +8937,16 @@
         <v>7011587</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45319.33333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8961,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>2.2</v>
@@ -9029,16 +9023,16 @@
         <v>7011588</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45319.4375</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9047,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J100">
         <v>1.5</v>
@@ -9115,16 +9109,16 @@
         <v>7011593</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45325.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9133,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -9201,16 +9195,16 @@
         <v>7011594</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45325.4375</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9287,16 +9281,16 @@
         <v>7011596</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9305,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9373,16 +9367,16 @@
         <v>7011595</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9391,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J104">
         <v>2.875</v>
@@ -9459,16 +9453,16 @@
         <v>7011592</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45327.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9477,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J105">
         <v>3.1</v>
@@ -9545,16 +9539,16 @@
         <v>7011601</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45333.5</v>
       </c>
       <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" t="s">
         <v>32</v>
-      </c>
-      <c r="F106" t="s">
-        <v>34</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9563,7 +9557,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>1.444</v>
@@ -9631,16 +9625,16 @@
         <v>7011597</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9717,16 +9711,16 @@
         <v>7011600</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9735,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9803,16 +9797,16 @@
         <v>7011599</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45335.42708333334</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9821,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9889,16 +9883,16 @@
         <v>7011598</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45335.52083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9907,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -9975,16 +9969,16 @@
         <v>7011603</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -9993,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>1.666</v>
@@ -10061,16 +10055,16 @@
         <v>7011602</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10079,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10147,16 +10141,16 @@
         <v>7011605</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10165,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>2.375</v>
@@ -10233,16 +10227,16 @@
         <v>7011606</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10251,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J114">
         <v>2.2</v>
@@ -10319,16 +10313,16 @@
         <v>7011610</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10337,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10405,16 +10399,16 @@
         <v>7011608</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10423,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10491,16 +10485,16 @@
         <v>7011611</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10509,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J117">
         <v>2.75</v>
@@ -10577,16 +10571,16 @@
         <v>7011607</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10595,7 +10589,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J118">
         <v>2.25</v>
@@ -10663,25 +10657,25 @@
         <v>7809824</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45347.5</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
         <v>39</v>
-      </c>
-      <c r="G119">
-        <v>2</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>41</v>
       </c>
       <c r="J119">
         <v>1.333</v>
@@ -10749,16 +10743,16 @@
         <v>7810273</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45350.5</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10767,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J120">
         <v>9</v>
@@ -10835,16 +10829,16 @@
         <v>7898044</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45352.5</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10853,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10921,16 +10915,16 @@
         <v>7011616</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10939,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11007,16 +11001,16 @@
         <v>7011612</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45353.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J123">
         <v>1.85</v>
@@ -11093,16 +11087,16 @@
         <v>7011613</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45354.375</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11179,16 +11173,16 @@
         <v>7011615</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45354.5</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11265,16 +11259,16 @@
         <v>7011620</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45359.5</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11283,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11351,16 +11345,16 @@
         <v>7011619</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11369,7 +11363,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J127">
         <v>3.5</v>
@@ -11437,16 +11431,16 @@
         <v>7011621</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45360.4375</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11455,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11523,16 +11517,16 @@
         <v>7011617</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11609,16 +11603,16 @@
         <v>7011618</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11627,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11695,16 +11689,16 @@
         <v>7011624</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45366.5</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11713,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11781,16 +11775,16 @@
         <v>7011625</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45367.375</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11799,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J132">
         <v>1.85</v>
@@ -11867,16 +11861,16 @@
         <v>7011622</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11885,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.85</v>
@@ -11953,16 +11947,16 @@
         <v>7011626</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45368.375</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11971,7 +11965,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J134">
         <v>4.333</v>
@@ -12039,16 +12033,16 @@
         <v>7011623</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45368.5</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12057,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J135">
         <v>2.9</v>
@@ -12125,16 +12119,16 @@
         <v>7011628</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12143,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J136">
         <v>3.5</v>
@@ -12211,16 +12205,16 @@
         <v>7011631</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45380.5</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12229,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12297,16 +12291,16 @@
         <v>7011630</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12315,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12383,16 +12377,16 @@
         <v>7011629</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45381.5</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12401,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>2.1</v>
@@ -12469,16 +12463,16 @@
         <v>7011627</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J140">
         <v>1.95</v>
@@ -12555,16 +12549,16 @@
         <v>7011632</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12573,7 +12567,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12641,16 +12635,16 @@
         <v>7011634</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45388.375</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12659,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>2.55</v>
@@ -12727,16 +12721,16 @@
         <v>7011633</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12745,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J143">
         <v>1.222</v>
@@ -12813,16 +12807,16 @@
         <v>7011635</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E144" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" t="s">
         <v>35</v>
-      </c>
-      <c r="F144" t="s">
-        <v>37</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12831,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>1.4</v>
@@ -12899,16 +12893,16 @@
         <v>7011636</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12917,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12985,16 +12979,16 @@
         <v>7011638</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45394.5</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13003,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>2.9</v>
@@ -13071,16 +13065,16 @@
         <v>7011639</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13089,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -13157,16 +13151,16 @@
         <v>7011637</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45395.5</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13175,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J148">
         <v>1.833</v>
@@ -13243,16 +13237,16 @@
         <v>7011640</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E149" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" t="s">
         <v>31</v>
-      </c>
-      <c r="F149" t="s">
-        <v>33</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13261,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13329,16 +13323,16 @@
         <v>7012356</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45396.5</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13347,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13415,16 +13409,16 @@
         <v>7020807</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45401.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13433,7 +13427,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J151">
         <v>2.25</v>
@@ -13501,16 +13495,16 @@
         <v>7029131</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13519,7 +13513,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1.166</v>
@@ -13587,16 +13581,16 @@
         <v>7025505</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45402.5</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13605,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13673,16 +13667,16 @@
         <v>7027687</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13691,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13759,16 +13753,16 @@
         <v>7020806</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45403.5</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13777,7 +13771,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13845,16 +13839,16 @@
         <v>7071263</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13863,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13931,16 +13925,16 @@
         <v>7060566</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13949,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J157">
         <v>2.625</v>
@@ -14017,16 +14011,16 @@
         <v>7065195</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45410.44791666666</v>
       </c>
       <c r="E158" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" t="s">
         <v>36</v>
-      </c>
-      <c r="F158" t="s">
-        <v>38</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14035,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.25</v>
@@ -14103,16 +14097,16 @@
         <v>7062589</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14121,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J159">
         <v>4.75</v>
@@ -14189,16 +14183,16 @@
         <v>7060565</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45411.5</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14207,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J160">
         <v>1.571</v>
@@ -14275,16 +14269,16 @@
         <v>7086875</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45416.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14293,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>4.333</v>
@@ -14361,16 +14355,16 @@
         <v>7097671</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14379,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14447,16 +14441,16 @@
         <v>7086876</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14465,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J163">
         <v>2.625</v>
@@ -14533,16 +14527,16 @@
         <v>7096226</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45417.5</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14551,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J164">
         <v>4.5</v>
@@ -14619,16 +14613,16 @@
         <v>7092324</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45418.5</v>
       </c>
       <c r="E165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14637,7 +14631,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J165">
         <v>1.833</v>
@@ -14705,16 +14699,16 @@
         <v>7133550</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45422.5</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -14723,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J166">
         <v>1.615</v>
@@ -14791,16 +14785,16 @@
         <v>7123423</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45423.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14809,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14877,16 +14871,16 @@
         <v>7128941</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14895,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J168">
         <v>3.2</v>
@@ -14963,16 +14957,16 @@
         <v>7128942</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14981,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J169">
         <v>7</v>
@@ -15049,16 +15043,16 @@
         <v>7123424</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45424.52083333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15067,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15135,16 +15129,16 @@
         <v>7153760</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45429.5625</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15153,7 +15147,7 @@
         <v>3</v>
       </c>
       <c r="I171" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J171">
         <v>1.083</v>
@@ -15218,49 +15212,49 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7153759</v>
+        <v>7158118</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" t="s">
         <v>34</v>
       </c>
-      <c r="F172" t="s">
-        <v>39</v>
-      </c>
       <c r="G172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J172">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="K172">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="M172">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N172">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="P172">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q172">
         <v>1.9</v>
@@ -15269,34 +15263,34 @@
         <v>1.9</v>
       </c>
       <c r="S172">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z172">
-        <v>-1</v>
-      </c>
       <c r="AA172">
+        <v>0.4125</v>
+      </c>
+      <c r="AB172">
         <v>-0.5</v>
-      </c>
-      <c r="AB172">
-        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15307,16 +15301,16 @@
         <v>7157321</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E173" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" t="s">
         <v>33</v>
-      </c>
-      <c r="F173" t="s">
-        <v>35</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15325,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J173">
         <v>4.5</v>
@@ -15390,49 +15384,49 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7158118</v>
+        <v>7153759</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J174">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="K174">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L174">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="M174">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N174">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O174">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="P174">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q174">
         <v>1.9</v>
@@ -15441,34 +15435,34 @@
         <v>1.9</v>
       </c>
       <c r="S174">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T174">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15479,16 +15473,16 @@
         <v>7157320</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45431.375</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15497,7 +15491,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J175">
         <v>2.5</v>
@@ -15561,41 +15555,50 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>27</v>
+      <c r="B176">
+        <v>7217874</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
-        <v>45438.41666666666</v>
+        <v>45437.5</v>
       </c>
       <c r="E176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>39</v>
       </c>
       <c r="J176">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="K176">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M176">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="N176">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q176">
         <v>1.975</v>
@@ -15604,87 +15607,378 @@
         <v>1.825</v>
       </c>
       <c r="S176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T176">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
         <v>1.95</v>
       </c>
       <c r="V176">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="W176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>28</v>
+      <c r="B177">
+        <v>7223244</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
-        <v>45438.52083333334</v>
+        <v>45437.5</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
         <v>32</v>
       </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177" t="s">
+        <v>38</v>
+      </c>
       <c r="J177">
+        <v>2.1</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>3.25</v>
+      </c>
+      <c r="M177">
+        <v>1.8</v>
+      </c>
+      <c r="N177">
+        <v>3.2</v>
+      </c>
+      <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
+        <v>-0.5</v>
+      </c>
+      <c r="Q177">
+        <v>1.825</v>
+      </c>
+      <c r="R177">
+        <v>1.975</v>
+      </c>
+      <c r="S177">
+        <v>2.75</v>
+      </c>
+      <c r="T177">
+        <v>1.95</v>
+      </c>
+      <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
+        <v>-1</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7217242</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45437.5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>33</v>
+      </c>
+      <c r="F178" t="s">
+        <v>29</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>39</v>
+      </c>
+      <c r="J178">
+        <v>1.727</v>
+      </c>
+      <c r="K178">
+        <v>3.25</v>
+      </c>
+      <c r="L178">
+        <v>4.333</v>
+      </c>
+      <c r="M178">
+        <v>1.45</v>
+      </c>
+      <c r="N178">
+        <v>3.4</v>
+      </c>
+      <c r="O178">
+        <v>7</v>
+      </c>
+      <c r="P178">
+        <v>-1</v>
+      </c>
+      <c r="Q178">
+        <v>1.8</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>2.5</v>
+      </c>
+      <c r="T178">
+        <v>1.95</v>
+      </c>
+      <c r="U178">
+        <v>1.75</v>
+      </c>
+      <c r="V178">
+        <v>0.45</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7221936</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45438.41666666666</v>
+      </c>
+      <c r="E179" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>39</v>
+      </c>
+      <c r="J179">
+        <v>1.909</v>
+      </c>
+      <c r="K179">
+        <v>3.4</v>
+      </c>
+      <c r="L179">
+        <v>3.4</v>
+      </c>
+      <c r="M179">
+        <v>1.48</v>
+      </c>
+      <c r="N179">
+        <v>4.2</v>
+      </c>
+      <c r="O179">
+        <v>5</v>
+      </c>
+      <c r="P179">
+        <v>-1.25</v>
+      </c>
+      <c r="Q179">
+        <v>2</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>3</v>
+      </c>
+      <c r="T179">
+        <v>1.8</v>
+      </c>
+      <c r="U179">
+        <v>2</v>
+      </c>
+      <c r="V179">
+        <v>0.48</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-0.5</v>
+      </c>
+      <c r="Z179">
+        <v>0.4</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>7223243</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45438.52083333334</v>
+      </c>
+      <c r="E180" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>40</v>
+      </c>
+      <c r="J180">
         <v>9</v>
       </c>
-      <c r="K177">
+      <c r="K180">
         <v>6</v>
       </c>
-      <c r="L177">
+      <c r="L180">
         <v>1.2</v>
       </c>
-      <c r="M177">
-        <v>8</v>
-      </c>
-      <c r="N177">
-        <v>5.75</v>
-      </c>
-      <c r="O177">
+      <c r="M180">
+        <v>7.5</v>
+      </c>
+      <c r="N180">
+        <v>6</v>
+      </c>
+      <c r="O180">
         <v>1.222</v>
       </c>
-      <c r="P177">
-        <v>1.75</v>
-      </c>
-      <c r="Q177">
+      <c r="P180">
+        <v>2</v>
+      </c>
+      <c r="Q180">
+        <v>1.825</v>
+      </c>
+      <c r="R180">
         <v>1.975</v>
       </c>
-      <c r="R177">
-        <v>1.825</v>
-      </c>
-      <c r="S177">
-        <v>3.25</v>
-      </c>
-      <c r="T177">
-        <v>2.025</v>
-      </c>
-      <c r="U177">
-        <v>1.775</v>
-      </c>
-      <c r="V177">
-        <v>0</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
+      <c r="S180">
+        <v>3.5</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
+        <v>-1</v>
+      </c>
+      <c r="W180">
+        <v>5</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.825</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16704,7 +16704,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7223244</v>
+        <v>7217242</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16713,16 +16713,16 @@
         <v>45437.5</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16731,64 +16731,64 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L177">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M177">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O177">
+        <v>1.45</v>
+      </c>
+      <c r="P177">
+        <v>3.4</v>
+      </c>
+      <c r="Q177">
+        <v>7</v>
+      </c>
+      <c r="R177">
+        <v>-1</v>
+      </c>
+      <c r="S177">
         <v>1.8</v>
       </c>
-      <c r="P177">
-        <v>3.2</v>
-      </c>
-      <c r="Q177">
-        <v>4</v>
-      </c>
-      <c r="R177">
-        <v>-0.5</v>
-      </c>
-      <c r="S177">
-        <v>1.825</v>
-      </c>
       <c r="T177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V177">
         <v>1.95</v>
       </c>
       <c r="W177">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC177">
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16796,7 +16796,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7217242</v>
+        <v>7223244</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16805,16 +16805,16 @@
         <v>45437.5</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16823,64 +16823,64 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L178">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
         <v>3.25</v>
       </c>
-      <c r="N178">
-        <v>4.333</v>
-      </c>
       <c r="O178">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V178">
         <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X178">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16244,7 +16244,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7158118</v>
+        <v>7153759</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16253,46 +16253,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L172">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="M172">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q172">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R172">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S172">
         <v>1.9</v>
@@ -16301,34 +16301,34 @@
         <v>1.9</v>
       </c>
       <c r="U172">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AD172">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16428,7 +16428,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7153759</v>
+        <v>7158118</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16437,46 +16437,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L174">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="N174">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="O174">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="R174">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S174">
         <v>1.9</v>
@@ -16485,34 +16485,34 @@
         <v>1.9</v>
       </c>
       <c r="U174">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X174">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
+        <v>0.4125</v>
+      </c>
+      <c r="AD174">
         <v>-0.5</v>
-      </c>
-      <c r="AD174">
-        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16612,7 +16612,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7217874</v>
+        <v>7223244</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16621,16 +16621,16 @@
         <v>45437.5</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16639,64 +16639,64 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L176">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M176">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O176">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P176">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
         <v>1.975</v>
       </c>
-      <c r="T176">
-        <v>1.825</v>
-      </c>
       <c r="U176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V176">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X176">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16704,7 +16704,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7217242</v>
+        <v>7217874</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16713,10 +16713,10 @@
         <v>45437.5</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -16734,43 +16734,43 @@
         <v>41</v>
       </c>
       <c r="L177">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="M177">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N177">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="O177">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q177">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="R177">
         <v>-1</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U177">
         <v>2.5</v>
       </c>
       <c r="V177">
+        <v>1.75</v>
+      </c>
+      <c r="W177">
         <v>1.95</v>
       </c>
-      <c r="W177">
-        <v>1.75</v>
-      </c>
       <c r="X177">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -16788,7 +16788,7 @@
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16796,7 +16796,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7223244</v>
+        <v>7217242</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16805,16 +16805,16 @@
         <v>45437.5</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16823,64 +16823,64 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L178">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N178">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O178">
+        <v>1.45</v>
+      </c>
+      <c r="P178">
+        <v>3.4</v>
+      </c>
+      <c r="Q178">
+        <v>7</v>
+      </c>
+      <c r="R178">
+        <v>-1</v>
+      </c>
+      <c r="S178">
         <v>1.8</v>
       </c>
-      <c r="P178">
-        <v>3.2</v>
-      </c>
-      <c r="Q178">
-        <v>4</v>
-      </c>
-      <c r="R178">
-        <v>-0.5</v>
-      </c>
-      <c r="S178">
-        <v>1.825</v>
-      </c>
       <c r="T178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V178">
         <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC178">
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="179" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16244,7 +16244,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7153759</v>
+        <v>7158118</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16253,46 +16253,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L172">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="N172">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="O172">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q172">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="R172">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S172">
         <v>1.9</v>
@@ -16301,34 +16301,34 @@
         <v>1.9</v>
       </c>
       <c r="U172">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X172">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
       <c r="AC172">
+        <v>0.4125</v>
+      </c>
+      <c r="AD172">
         <v>-0.5</v>
-      </c>
-      <c r="AD172">
-        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16428,7 +16428,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7158118</v>
+        <v>7153759</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16437,46 +16437,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="M174">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="N174">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R174">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S174">
         <v>1.9</v>
@@ -16485,34 +16485,34 @@
         <v>1.9</v>
       </c>
       <c r="U174">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AD174">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16612,7 +16612,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7223244</v>
+        <v>7217874</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16621,16 +16621,16 @@
         <v>45437.5</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16639,64 +16639,64 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L176">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N176">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="O176">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q176">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S176">
+        <v>1.975</v>
+      </c>
+      <c r="T176">
         <v>1.825</v>
       </c>
-      <c r="T176">
-        <v>1.975</v>
-      </c>
       <c r="U176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V176">
+        <v>1.75</v>
+      </c>
+      <c r="W176">
         <v>1.95</v>
       </c>
-      <c r="W176">
-        <v>1.85</v>
-      </c>
       <c r="X176">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16704,7 +16704,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7217874</v>
+        <v>7223244</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16713,16 +16713,16 @@
         <v>45437.5</v>
       </c>
       <c r="E177" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16731,64 +16731,64 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L177">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M177">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O177">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P177">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q177">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S177">
+        <v>1.825</v>
+      </c>
+      <c r="T177">
         <v>1.975</v>
       </c>
-      <c r="T177">
-        <v>1.825</v>
-      </c>
       <c r="U177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V177">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X177">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16612,7 +16612,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7217874</v>
+        <v>7223244</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16621,16 +16621,16 @@
         <v>45437.5</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16639,64 +16639,64 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L176">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M176">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O176">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P176">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
         <v>1.975</v>
       </c>
-      <c r="T176">
-        <v>1.825</v>
-      </c>
       <c r="U176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V176">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X176">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16704,7 +16704,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7223244</v>
+        <v>7217242</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16713,16 +16713,16 @@
         <v>45437.5</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16731,64 +16731,64 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L177">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M177">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O177">
+        <v>1.45</v>
+      </c>
+      <c r="P177">
+        <v>3.4</v>
+      </c>
+      <c r="Q177">
+        <v>7</v>
+      </c>
+      <c r="R177">
+        <v>-1</v>
+      </c>
+      <c r="S177">
         <v>1.8</v>
       </c>
-      <c r="P177">
-        <v>3.2</v>
-      </c>
-      <c r="Q177">
-        <v>4</v>
-      </c>
-      <c r="R177">
-        <v>-0.5</v>
-      </c>
-      <c r="S177">
-        <v>1.825</v>
-      </c>
       <c r="T177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V177">
         <v>1.95</v>
       </c>
       <c r="W177">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC177">
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16796,7 +16796,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7217242</v>
+        <v>7217874</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16805,10 +16805,10 @@
         <v>45437.5</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -16826,43 +16826,43 @@
         <v>41</v>
       </c>
       <c r="L178">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="M178">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N178">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="O178">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q178">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="R178">
         <v>-1</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U178">
         <v>2.5</v>
       </c>
       <c r="V178">
+        <v>1.75</v>
+      </c>
+      <c r="W178">
         <v>1.95</v>
       </c>
-      <c r="W178">
-        <v>1.75</v>
-      </c>
       <c r="X178">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16880,7 +16880,7 @@
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -37,10 +37,10 @@
     <t>FTAG</t>
   </si>
   <si>
-    <t>ht_goals_h</t>
+    <t>HTHG</t>
   </si>
   <si>
-    <t>ht_goals_a</t>
+    <t>HTAG</t>
   </si>
   <si>
     <t>FTR</t>
@@ -16612,7 +16612,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7223244</v>
+        <v>7217242</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16621,16 +16621,16 @@
         <v>45437.5</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16639,64 +16639,64 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L176">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N176">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O176">
+        <v>1.45</v>
+      </c>
+      <c r="P176">
+        <v>3.4</v>
+      </c>
+      <c r="Q176">
+        <v>7</v>
+      </c>
+      <c r="R176">
+        <v>-1</v>
+      </c>
+      <c r="S176">
         <v>1.8</v>
       </c>
-      <c r="P176">
-        <v>3.2</v>
-      </c>
-      <c r="Q176">
-        <v>4</v>
-      </c>
-      <c r="R176">
-        <v>-0.5</v>
-      </c>
-      <c r="S176">
-        <v>1.825</v>
-      </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V176">
         <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16704,7 +16704,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7217242</v>
+        <v>7217874</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16713,10 +16713,10 @@
         <v>45437.5</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -16734,43 +16734,43 @@
         <v>41</v>
       </c>
       <c r="L177">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="M177">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N177">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="O177">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q177">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="R177">
         <v>-1</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U177">
         <v>2.5</v>
       </c>
       <c r="V177">
+        <v>1.75</v>
+      </c>
+      <c r="W177">
         <v>1.95</v>
       </c>
-      <c r="W177">
-        <v>1.75</v>
-      </c>
       <c r="X177">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -16788,7 +16788,7 @@
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16796,7 +16796,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7217874</v>
+        <v>7223244</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16805,16 +16805,16 @@
         <v>45437.5</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16823,64 +16823,64 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L178">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M178">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N178">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O178">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P178">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S178">
+        <v>1.825</v>
+      </c>
+      <c r="T178">
         <v>1.975</v>
       </c>
-      <c r="T178">
-        <v>1.825</v>
-      </c>
       <c r="U178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V178">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X178">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16244,7 +16244,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7158118</v>
+        <v>7157321</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16253,16 +16253,16 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -16277,37 +16277,37 @@
         <v>4.5</v>
       </c>
       <c r="M172">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N172">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q172">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="R172">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S172">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -16316,19 +16316,19 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD172">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16336,7 +16336,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7157321</v>
+        <v>7153759</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16345,82 +16345,82 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="M173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N173">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="O173">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q173">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="R173">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U173">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD173">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16428,7 +16428,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7153759</v>
+        <v>7158118</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16437,46 +16437,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L174">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="N174">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="O174">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="R174">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S174">
         <v>1.9</v>
@@ -16485,34 +16485,34 @@
         <v>1.9</v>
       </c>
       <c r="U174">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X174">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
+        <v>0.4125</v>
+      </c>
+      <c r="AD174">
         <v>-0.5</v>
-      </c>
-      <c r="AD174">
-        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16612,7 +16612,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7217242</v>
+        <v>7223244</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16621,16 +16621,16 @@
         <v>45437.5</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16639,64 +16639,64 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L176">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M176">
+        <v>3</v>
+      </c>
+      <c r="N176">
         <v>3.25</v>
       </c>
-      <c r="N176">
-        <v>4.333</v>
-      </c>
       <c r="O176">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="P176">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V176">
         <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X176">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16796,7 +16796,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7223244</v>
+        <v>7217242</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16805,16 +16805,16 @@
         <v>45437.5</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16823,64 +16823,64 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L178">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N178">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O178">
+        <v>1.45</v>
+      </c>
+      <c r="P178">
+        <v>3.4</v>
+      </c>
+      <c r="Q178">
+        <v>7</v>
+      </c>
+      <c r="R178">
+        <v>-1</v>
+      </c>
+      <c r="S178">
         <v>1.8</v>
       </c>
-      <c r="P178">
-        <v>3.2</v>
-      </c>
-      <c r="Q178">
-        <v>4</v>
-      </c>
-      <c r="R178">
-        <v>-0.5</v>
-      </c>
-      <c r="S178">
-        <v>1.825</v>
-      </c>
       <c r="T178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V178">
         <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC178">
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="179" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16244,7 +16244,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7157321</v>
+        <v>7158118</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16253,16 +16253,16 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -16277,38 +16277,38 @@
         <v>4.5</v>
       </c>
       <c r="M172">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="N172">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O172">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q172">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="R172">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S172">
+        <v>1.9</v>
+      </c>
+      <c r="T172">
+        <v>1.9</v>
+      </c>
+      <c r="U172">
+        <v>2.75</v>
+      </c>
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="T172">
+      <c r="W172">
         <v>1.975</v>
       </c>
-      <c r="U172">
-        <v>2.5</v>
-      </c>
-      <c r="V172">
-        <v>1.875</v>
-      </c>
-      <c r="W172">
-        <v>1.925</v>
-      </c>
       <c r="X172">
         <v>-1</v>
       </c>
@@ -16316,19 +16316,19 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD172">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16336,7 +16336,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7153759</v>
+        <v>7157321</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16345,82 +16345,82 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L173">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N173">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="P173">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q173">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="R173">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U173">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X173">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA173">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD173">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16428,7 +16428,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7158118</v>
+        <v>7153759</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16437,46 +16437,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="M174">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="N174">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R174">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S174">
         <v>1.9</v>
@@ -16485,34 +16485,34 @@
         <v>1.9</v>
       </c>
       <c r="U174">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AD174">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16244,7 +16244,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7158118</v>
+        <v>7157321</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16253,16 +16253,16 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -16277,37 +16277,37 @@
         <v>4.5</v>
       </c>
       <c r="M172">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N172">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q172">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="R172">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S172">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -16316,19 +16316,19 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD172">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16336,7 +16336,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7157321</v>
+        <v>7153759</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16345,82 +16345,82 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="M173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N173">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="O173">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q173">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="R173">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U173">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD173">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16428,7 +16428,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7153759</v>
+        <v>7158118</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16437,46 +16437,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L174">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="N174">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="O174">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="R174">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S174">
         <v>1.9</v>
@@ -16485,34 +16485,34 @@
         <v>1.9</v>
       </c>
       <c r="U174">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X174">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
+        <v>0.4125</v>
+      </c>
+      <c r="AD174">
         <v>-0.5</v>
-      </c>
-      <c r="AD174">
-        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:30">

--- a/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
+++ b/Azerbaijan Premier League/Azerbaijan Premier League.xlsx
@@ -16244,7 +16244,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7157321</v>
+        <v>7158118</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16253,16 +16253,16 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -16277,38 +16277,38 @@
         <v>4.5</v>
       </c>
       <c r="M172">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="N172">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O172">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q172">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="R172">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S172">
+        <v>1.9</v>
+      </c>
+      <c r="T172">
+        <v>1.9</v>
+      </c>
+      <c r="U172">
+        <v>2.75</v>
+      </c>
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="T172">
+      <c r="W172">
         <v>1.975</v>
       </c>
-      <c r="U172">
-        <v>2.5</v>
-      </c>
-      <c r="V172">
-        <v>1.875</v>
-      </c>
-      <c r="W172">
-        <v>1.925</v>
-      </c>
       <c r="X172">
         <v>-1</v>
       </c>
@@ -16316,19 +16316,19 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD172">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16428,7 +16428,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7158118</v>
+        <v>7157321</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16437,16 +16437,16 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -16461,37 +16461,37 @@
         <v>4.5</v>
       </c>
       <c r="M174">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="R174">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16500,19 +16500,19 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD174">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="175" spans="1:30">
